--- a/Data2/XLS/AUD/AUD_CurvesBootstrapping.xlsx
+++ b/Data2/XLS/AUD/AUD_CurvesBootstrapping.xlsx
@@ -1393,7 +1393,7 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,6 +1813,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Euro" xfId="6"/>
@@ -2230,7 +2233,7 @@
       </c>
       <c r="I3" s="11">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="J3" s="79"/>
     </row>
@@ -2249,7 +2252,7 @@
       </c>
       <c r="I4" s="13">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"1D","F",,Trigger)</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="J4" s="79"/>
     </row>
@@ -2366,7 +2369,7 @@
       </c>
       <c r="D13" s="37" t="str">
         <f>_xll.qlPiecewiseYieldCurve($D$15,$D$16,Calendar,_xll.ohPack(RateHelpersON),,,,D17,D18,D19,Permanent,,ObjectOverwrite)</f>
-        <v>_AUDON#0010</v>
+        <v>_AUDON#0037</v>
       </c>
       <c r="E13" s="38"/>
       <c r="G13" s="20"/>
@@ -2375,7 +2378,7 @@
       </c>
       <c r="I13" s="37" t="str">
         <f>_xll.qlPiecewiseYieldCurve(I15,I16,Calendar,_xll.ohPack(RateHelpers3M),,,,I17,I18,I19,Permanent,,ObjectOverwrite)</f>
-        <v>_AUD3M#0001</v>
+        <v>_AUD3M#0003</v>
       </c>
       <c r="J13" s="38"/>
     </row>
@@ -2501,7 +2504,7 @@
       <c r="B21" s="20"/>
       <c r="C21" s="29">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_ON)</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="D21" s="30">
         <f>_xll.qlYieldTSDiscount(YieldCurve_ON,C21,,Trigger)</f>
@@ -2511,7 +2514,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="29">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_3M)</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="I21" s="30">
         <f>_xll.qlYieldTSDiscount(YieldCurve_3M,H21,,Trigger)</f>
@@ -2523,21 +2526,21 @@
       <c r="B22" s="20"/>
       <c r="C22" s="31">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_ON,Trigger)</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="D22" s="32">
         <f>_xll.qlYieldTSDiscount(YieldCurve_ON,C22,,Trigger)</f>
-        <v>0.55244384318895878</v>
+        <v>0.47338956497095275</v>
       </c>
       <c r="E22" s="38"/>
       <c r="G22" s="20"/>
       <c r="H22" s="31">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_3M,Trigger)</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="I22" s="32">
         <f>_xll.qlYieldTSDiscount(YieldCurve_3M,H22,,Trigger)</f>
-        <v>0.50932871634338728</v>
+        <v>0.43716879925970792</v>
       </c>
       <c r="J22" s="38"/>
     </row>
@@ -2640,7 +2643,7 @@
       </c>
       <c r="D29" s="37" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D31,D32,Calendar,_xll.ohPack(RateHelpers6M),,,,D33,D34,D35,Permanent,,ObjectOverwrite)</f>
-        <v>_AUD6M#0001</v>
+        <v>_AUD6M#0003</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="45"/>
@@ -2650,7 +2653,7 @@
       </c>
       <c r="I29" s="37" t="str">
         <f>_xll.qlPiecewiseYieldCurve(I31,I32,Calendar,_xll.ohPack(RateHelpers1M),,,,I33,I34,I35,Permanent,,ObjectOverwrite)</f>
-        <v>_AUD1M#0001</v>
+        <v>_AUD1M#0003</v>
       </c>
       <c r="J29" s="38"/>
     </row>
@@ -2783,7 +2786,7 @@
       <c r="B37" s="20"/>
       <c r="C37" s="29">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_6M)</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="D37" s="30">
         <f>_xll.qlYieldTSDiscount(YieldCurve_6M,C37,,Trigger)</f>
@@ -2794,7 +2797,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="29">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_1M)</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="I37" s="30">
         <f>_xll.qlYieldTSDiscount(YieldCurve_1M,H37,,Trigger)</f>
@@ -2806,22 +2809,22 @@
       <c r="B38" s="20"/>
       <c r="C38" s="31">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_6M,Trigger)</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="D38" s="32">
         <f>_xll.qlYieldTSDiscount(YieldCurve_6M,C38,,Trigger)</f>
-        <v>0.50059865114234237</v>
+        <v>0.42818526891817699</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="45"/>
       <c r="G38" s="20"/>
       <c r="H38" s="31">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_1M,Trigger)</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="I38" s="32">
         <f>_xll.qlYieldTSDiscount(YieldCurve_1M,H38,,Trigger)</f>
-        <v>0.52577161824624574</v>
+        <v>0.45128946323615488</v>
       </c>
       <c r="J38" s="38"/>
     </row>
@@ -3182,7 +3185,7 @@
       </c>
       <c r="Z3" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X3,Trigger),"")</f>
-        <v>1.745E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA3" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X3)),_xll.qlSwapRateHelperSpread($X3))</f>
@@ -3190,14 +3193,14 @@
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X3,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X3,Trigger),"")</f>
-        <v>42569</v>
+        <v>42689</v>
       </c>
       <c r="AD3" s="71">
-        <v>0.9995216861409294</v>
+        <v>0.99967135452629763</v>
       </c>
       <c r="AE3" s="146"/>
       <c r="AG3" s="99" t="s">
@@ -3228,7 +3231,7 @@
       </c>
       <c r="G4" s="53" t="str">
         <f>_xll.qlOvernightIndex(,,C4,Currency,Calendar,F4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00219#0020</v>
+        <v>obj_00210#0004</v>
       </c>
       <c r="H4" s="55" t="str">
         <f>Currency&amp;$B4&amp;"D"&amp;QuoteSuffix</f>
@@ -3279,7 +3282,7 @@
         <v>OIS</v>
       </c>
       <c r="X4" s="3" t="str">
-        <v>obj_00220</v>
+        <v>obj_0021f</v>
       </c>
       <c r="Y4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X4,Trigger),"")</f>
@@ -3287,7 +3290,7 @@
       </c>
       <c r="Z4" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X4,Trigger),"")</f>
-        <v>1.7100000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA4" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X4)),_xll.qlSwapRateHelperSpread($X4))</f>
@@ -3295,14 +3298,14 @@
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X4,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X4,Trigger),"")</f>
-        <v>42593</v>
+        <v>42712</v>
       </c>
       <c r="AD4" s="71">
-        <v>0.99840616960183115</v>
+        <v>0.99872762318894348</v>
       </c>
       <c r="AE4" s="146"/>
       <c r="AG4" s="99" t="s">
@@ -3333,7 +3336,7 @@
       </c>
       <c r="G5" s="6" t="str">
         <f>_xll.qlOvernightIndex(,,C5,Currency,Calendar,F5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00218#0002</v>
+        <v>obj_0020f#0004</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>Currency&amp;$B5&amp;"D"&amp;QuoteSuffix</f>
@@ -3384,7 +3387,7 @@
         <v>OIS</v>
       </c>
       <c r="X5" s="3" t="str">
-        <v>obj_00225</v>
+        <v>obj_0022c</v>
       </c>
       <c r="Y5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X5,Trigger),"")</f>
@@ -3392,7 +3395,7 @@
       </c>
       <c r="Z5" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X5,Trigger),"")</f>
-        <v>1.6535000000000001E-2</v>
+        <v>1.4900000000000002E-2</v>
       </c>
       <c r="AA5" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X5)),_xll.qlSwapRateHelperSpread($X5))</f>
@@ -3400,14 +3403,14 @@
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X5,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X5,Trigger),"")</f>
-        <v>42625</v>
+        <v>42744</v>
       </c>
       <c r="AD5" s="71">
-        <v>0.9970107286415183</v>
+        <v>0.99743446557556004</v>
       </c>
       <c r="AE5" s="146"/>
       <c r="AF5" s="74"/>
@@ -3433,7 +3436,7 @@
       </c>
       <c r="N6" s="172">
         <f>IFERROR(_xll.qlQuoteValue(H8),"--")</f>
-        <v>1.745E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O6" s="178"/>
       <c r="P6" s="119" t="b">
@@ -3447,22 +3450,22 @@
       </c>
       <c r="S6" s="118" t="str">
         <f t="shared" ref="S6:S37" si="3">J8</f>
-        <v>obj_00252#0001</v>
+        <v>obj_00252#0003</v>
       </c>
       <c r="T6" s="120">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S6,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U6" s="120">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S6,Trigger),"--")</f>
-        <v>42569</v>
+        <v>42689</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>OIS</v>
       </c>
       <c r="X6" s="3" t="str">
-        <v>obj_0022f</v>
+        <v>obj_00222</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X6,Trigger),"")</f>
@@ -3470,7 +3473,7 @@
       </c>
       <c r="Z6" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X6,Trigger),"")</f>
-        <v>1.6285000000000001E-2</v>
+        <v>1.4900000000000002E-2</v>
       </c>
       <c r="AA6" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X6)),_xll.qlSwapRateHelperSpread($X6))</f>
@@ -3478,14 +3481,14 @@
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X6,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X6,Trigger),"")</f>
-        <v>42654</v>
+        <v>42774</v>
       </c>
       <c r="AD6" s="71">
-        <v>0.99576883897340029</v>
+        <v>0.99621752032199062</v>
       </c>
       <c r="AE6" s="146"/>
       <c r="AG6" s="99" t="s">
@@ -3558,7 +3561,7 @@
         <v>OIS</v>
       </c>
       <c r="X7" s="3" t="str">
-        <v>obj_00230</v>
+        <v>obj_00224</v>
       </c>
       <c r="Y7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X7,Trigger),"")</f>
@@ -3566,7 +3569,7 @@
       </c>
       <c r="Z7" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X7,Trigger),"")</f>
-        <v>1.6E-2</v>
+        <v>1.4849999999999999E-2</v>
       </c>
       <c r="AA7" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X7)),_xll.qlSwapRateHelperSpread($X7))</f>
@@ -3574,14 +3577,14 @@
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X7,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X7,Trigger),"")</f>
-        <v>42685</v>
+        <v>42802</v>
       </c>
       <c r="AD7" s="71">
-        <v>0.99449408944437079</v>
+        <v>0.99510065895922462</v>
       </c>
       <c r="AE7" s="146"/>
     </row>
@@ -3609,7 +3612,7 @@
       <c r="I8" s="190"/>
       <c r="J8" s="165" t="str">
         <f>IF(P6,_xll.qlOISRateHelper(,C8,B8,H8,$G8,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00252#0001</v>
+        <v>obj_00252#0003</v>
       </c>
       <c r="K8" s="46"/>
       <c r="L8" s="173" t="str">
@@ -3651,7 +3654,7 @@
         <v>OIS</v>
       </c>
       <c r="X8" s="3" t="str">
-        <v>obj_00223</v>
+        <v>obj_00228</v>
       </c>
       <c r="Y8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X8,Trigger),"")</f>
@@ -3659,7 +3662,7 @@
       </c>
       <c r="Z8" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X8,Trigger),"")</f>
-        <v>1.575E-2</v>
+        <v>1.4750000000000001E-2</v>
       </c>
       <c r="AA8" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X8)),_xll.qlSwapRateHelperSpread($X8))</f>
@@ -3667,14 +3670,14 @@
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X8,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X8,Trigger),"")</f>
-        <v>42716</v>
+        <v>42835</v>
       </c>
       <c r="AD8" s="71">
-        <v>0.99325579475355097</v>
+        <v>0.99381429992609471</v>
       </c>
       <c r="AE8" s="146"/>
     </row>
@@ -3715,7 +3718,7 @@
       </c>
       <c r="N9" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H11),"--")</f>
-        <v>1.7325E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O9" s="179"/>
       <c r="P9" s="91" t="b">
@@ -3729,22 +3732,22 @@
       </c>
       <c r="S9" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00220#0001</v>
+        <v>obj_0021f#0004</v>
       </c>
       <c r="T9" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S9,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U9" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S9,Trigger),"--")</f>
-        <v>42593</v>
+        <v>42712</v>
       </c>
       <c r="W9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>OIS</v>
       </c>
       <c r="X9" s="3" t="str">
-        <v>obj_0022a</v>
+        <v>obj_00231</v>
       </c>
       <c r="Y9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X9,Trigger),"")</f>
@@ -3752,7 +3755,7 @@
       </c>
       <c r="Z9" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X9,Trigger),"")</f>
-        <v>1.5550000000000001E-2</v>
+        <v>1.4690000000000002E-2</v>
       </c>
       <c r="AA9" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X9)),_xll.qlSwapRateHelperSpread($X9))</f>
@@ -3760,14 +3763,14 @@
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X9,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X9,Trigger),"")</f>
-        <v>42746</v>
+        <v>42863</v>
       </c>
       <c r="AD9" s="71">
-        <v>0.99207936856406997</v>
+        <v>0.9927272801546636</v>
       </c>
       <c r="AE9" s="146"/>
       <c r="AH9" s="44" t="s">
@@ -3811,7 +3814,7 @@
       </c>
       <c r="N10" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H12),"--")</f>
-        <v>1.67E-2</v>
+        <v>1.4900000000000002E-2</v>
       </c>
       <c r="O10" s="179"/>
       <c r="P10" s="91" t="b">
@@ -3825,22 +3828,22 @@
       </c>
       <c r="S10" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00225#0001</v>
+        <v>obj_0022c#0003</v>
       </c>
       <c r="T10" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S10,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U10" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S10,Trigger),"--")</f>
-        <v>42625</v>
+        <v>42744</v>
       </c>
       <c r="W10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>OIS</v>
       </c>
       <c r="X10" s="3" t="str">
-        <v>obj_00227</v>
+        <v>obj_0022e</v>
       </c>
       <c r="Y10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X10,Trigger),"")</f>
@@ -3848,7 +3851,7 @@
       </c>
       <c r="Z10" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X10,Trigger),"")</f>
-        <v>1.5100000000000002E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="AA10" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X10)),_xll.qlSwapRateHelperSpread($X10))</f>
@@ -3856,14 +3859,14 @@
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X10,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X10,Trigger),"")</f>
-        <v>42836</v>
+        <v>42955</v>
       </c>
       <c r="AD10" s="71">
-        <v>0.98864950290927178</v>
+        <v>0.98919392668086914</v>
       </c>
       <c r="AE10" s="146"/>
       <c r="AF10" s="67" t="s">
@@ -3915,7 +3918,7 @@
       <c r="I11" s="192"/>
       <c r="J11" s="167" t="str">
         <f>IF(P9,_xll.qlOISRateHelper(,C11,B11,H11,$G11,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00220#0001</v>
+        <v>obj_0021f#0004</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="173" t="str">
@@ -3928,7 +3931,7 @@
       </c>
       <c r="N11" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H13),"--")</f>
-        <v>1.6375000000000001E-2</v>
+        <v>1.4900000000000002E-2</v>
       </c>
       <c r="O11" s="179"/>
       <c r="P11" s="91" t="b">
@@ -3942,30 +3945,30 @@
       </c>
       <c r="S11" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>obj_0022f#0001</v>
+        <v>obj_00222#0004</v>
       </c>
       <c r="T11" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S11,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U11" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S11,Trigger),"--")</f>
-        <v>42654</v>
+        <v>42774</v>
       </c>
       <c r="W11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X11" s="3" t="str">
-        <v>obj_00229</v>
+        <v>obj_0032d</v>
       </c>
       <c r="Y11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X11,Trigger),"")</f>
-        <v>AUDMTOIS1Y_Quote</v>
+        <v>AUDOIS12M_Quote</v>
       </c>
       <c r="Z11" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X11,Trigger),"")</f>
-        <v>1.4849999999999999E-2</v>
+        <v>1.4449999999999998E-2</v>
       </c>
       <c r="AA11" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X11)),_xll.qlSwapRateHelperSpread($X11))</f>
@@ -3973,14 +3976,14 @@
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X11,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X11,Trigger),"")</f>
-        <v>42927</v>
+        <v>43047</v>
       </c>
       <c r="AD11" s="71">
-        <v>0.98522558368561375</v>
+        <v>0.98571534448961184</v>
       </c>
       <c r="AE11" s="146"/>
       <c r="AF11" s="128">
@@ -3988,7 +3991,7 @@
       </c>
       <c r="AG11" s="129">
         <f>_xll.qlCalendarEndOfMonth(Calendar,Settlementdate,Trigger)</f>
-        <v>42580</v>
+        <v>42704</v>
       </c>
       <c r="AH11" s="128" t="str">
         <f t="shared" ref="AH11:AH23" si="7">Currency&amp;$AH$9&amp;AF11&amp;JumpSuffix&amp;QuoteSuffix</f>
@@ -3996,7 +3999,7 @@
       </c>
       <c r="AI11" s="150">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG11,_xll.qlCalendarAdvance(Calendar,AG11,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ11" s="130" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH11,Trigger),_xll.qlQuoteValue(AH11,Trigger),1)</f>
@@ -4036,7 +4039,7 @@
       <c r="I12" s="192"/>
       <c r="J12" s="167" t="str">
         <f>IF(P10,_xll.qlOISRateHelper(,C12,B12,H12,$G12,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00225#0001</v>
+        <v>obj_0022c#0003</v>
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="173" t="str">
@@ -4049,7 +4052,7 @@
       </c>
       <c r="N12" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H14),"--")</f>
-        <v>1.6150000000000001E-2</v>
+        <v>1.4849999999999999E-2</v>
       </c>
       <c r="O12" s="179"/>
       <c r="P12" s="91" t="b">
@@ -4063,30 +4066,30 @@
       </c>
       <c r="S12" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00230#0001</v>
+        <v>obj_00224#0004</v>
       </c>
       <c r="T12" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S12,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U12" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S12,Trigger),"--")</f>
-        <v>42685</v>
+        <v>42802</v>
       </c>
       <c r="W12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X12" s="3" t="str">
-        <v>obj_0022c</v>
+        <v>obj_0032e</v>
       </c>
       <c r="Y12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X12,Trigger),"")</f>
-        <v>AUDMTOIS18M_Quote</v>
+        <v>AUDOIS18M_Quote</v>
       </c>
       <c r="Z12" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X12,Trigger),"")</f>
-        <v>1.44E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="AA12" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X12)),_xll.qlSwapRateHelperSpread($X12))</f>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X12,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X12,Trigger),"")</f>
-        <v>43111</v>
+        <v>43228</v>
       </c>
       <c r="AD12" s="71">
-        <v>0.97856319281868109</v>
+        <v>0.97855817841024428</v>
       </c>
       <c r="AE12" s="146"/>
       <c r="AF12" s="132">
@@ -4109,7 +4112,7 @@
       </c>
       <c r="AG12" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG11,"1m","mf",TRUE),Trigger)</f>
-        <v>42613</v>
+        <v>42734</v>
       </c>
       <c r="AH12" s="132" t="str">
         <f t="shared" si="7"/>
@@ -4117,7 +4120,7 @@
       </c>
       <c r="AI12" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG12,_xll.qlCalendarAdvance(Calendar,AG12,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ12" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH12,Trigger),_xll.qlQuoteValue(AH12,Trigger),1)</f>
@@ -4157,7 +4160,7 @@
       <c r="I13" s="192"/>
       <c r="J13" s="167" t="str">
         <f>IF(P11,_xll.qlOISRateHelper(,C13,B13,H13,$G13,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0022f#0001</v>
+        <v>obj_00222#0004</v>
       </c>
       <c r="K13" s="46"/>
       <c r="L13" s="173" t="str">
@@ -4170,7 +4173,7 @@
       </c>
       <c r="N13" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H15),"--")</f>
-        <v>1.5950000000000002E-2</v>
+        <v>1.4750000000000001E-2</v>
       </c>
       <c r="O13" s="179"/>
       <c r="P13" s="91" t="b">
@@ -4184,30 +4187,30 @@
       </c>
       <c r="S13" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00223#0001</v>
+        <v>obj_00228#0004</v>
       </c>
       <c r="T13" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S13,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U13" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S13,Trigger),"--")</f>
-        <v>42716</v>
+        <v>42835</v>
       </c>
       <c r="W13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X13" s="3" t="str">
-        <v>obj_00224</v>
+        <v>obj_0032f</v>
       </c>
       <c r="Y13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X13,Trigger),"")</f>
-        <v>AUDMTOIS2Y_Quote</v>
+        <v>AUDOIS2Y_Quote</v>
       </c>
       <c r="Z13" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X13,Trigger),"")</f>
-        <v>1.4300000000000002E-2</v>
+        <v>1.485E-2</v>
       </c>
       <c r="AA13" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X13)),_xll.qlSwapRateHelperSpread($X13))</f>
@@ -4215,14 +4218,14 @@
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X13,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X13,Trigger),"")</f>
-        <v>43292</v>
+        <v>43412</v>
       </c>
       <c r="AD13" s="71">
-        <v>0.97186972074991707</v>
+        <v>0.9709031466244431</v>
       </c>
       <c r="AE13" s="146"/>
       <c r="AF13" s="132">
@@ -4230,7 +4233,7 @@
       </c>
       <c r="AG13" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG12,"1m","mf",TRUE),Trigger)</f>
-        <v>42643</v>
+        <v>42766</v>
       </c>
       <c r="AH13" s="132" t="str">
         <f t="shared" si="7"/>
@@ -4238,7 +4241,7 @@
       </c>
       <c r="AI13" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG13,_xll.qlCalendarAdvance(Calendar,AG13,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ13" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH13,Trigger),_xll.qlQuoteValue(AH13,Trigger),1)</f>
@@ -4278,7 +4281,7 @@
       <c r="I14" s="192"/>
       <c r="J14" s="167" t="str">
         <f>IF(P12,_xll.qlOISRateHelper(,C14,B14,H14,$G14,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00230#0001</v>
+        <v>obj_00224#0004</v>
       </c>
       <c r="K14" s="46"/>
       <c r="L14" s="173" t="str">
@@ -4291,7 +4294,7 @@
       </c>
       <c r="N14" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H16),"--")</f>
-        <v>1.5699999999999999E-2</v>
+        <v>1.4690000000000002E-2</v>
       </c>
       <c r="O14" s="179"/>
       <c r="P14" s="91" t="b">
@@ -4305,30 +4308,30 @@
       </c>
       <c r="S14" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>obj_0022a#0001</v>
+        <v>obj_00231#0003</v>
       </c>
       <c r="T14" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S14,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U14" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S14,Trigger),"--")</f>
-        <v>42746</v>
+        <v>42863</v>
       </c>
       <c r="W14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X14" s="3" t="str">
-        <v>obj_00234</v>
+        <v>obj_00330</v>
       </c>
       <c r="Y14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X14,Trigger),"")</f>
-        <v>AUDMTOIS3Y_Quote</v>
+        <v>AUDOIS3Y_Quote</v>
       </c>
       <c r="Z14" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X14,Trigger),"")</f>
-        <v>1.44E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="AA14" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X14)),_xll.qlSwapRateHelperSpread($X14))</f>
@@ -4336,14 +4339,14 @@
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X14,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X14,Trigger),"")</f>
-        <v>43657</v>
+        <v>43777</v>
       </c>
       <c r="AD14" s="71">
-        <v>0.95788053156493835</v>
+        <v>0.95454478412377664</v>
       </c>
       <c r="AE14" s="146"/>
       <c r="AF14" s="132">
@@ -4351,7 +4354,7 @@
       </c>
       <c r="AG14" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG13,"1m","mf",TRUE),Trigger)</f>
-        <v>42674</v>
+        <v>42794</v>
       </c>
       <c r="AH14" s="132" t="str">
         <f t="shared" si="7"/>
@@ -4399,7 +4402,7 @@
       <c r="I15" s="192"/>
       <c r="J15" s="167" t="str">
         <f>IF(P13,_xll.qlOISRateHelper(,C15,B15,H15,$G15,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00223#0001</v>
+        <v>obj_00228#0004</v>
       </c>
       <c r="K15" s="46"/>
       <c r="L15" s="173" t="str">
@@ -4438,18 +4441,18 @@
       </c>
       <c r="W15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X15" s="3" t="str">
-        <v>obj_00221</v>
+        <v>obj_0033e</v>
       </c>
       <c r="Y15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X15,Trigger),"")</f>
-        <v>AUDMTOIS4Y_Quote</v>
+        <v>AUDOIS4Y_Quote</v>
       </c>
       <c r="Z15" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X15,Trigger),"")</f>
-        <v>1.4729999999999998E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="AA15" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X15)),_xll.qlSwapRateHelperSpread($X15))</f>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X15,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X15,Trigger),"")</f>
-        <v>44025</v>
+        <v>44144</v>
       </c>
       <c r="AD15" s="71">
-        <v>0.94291528998426288</v>
+        <v>0.9371477599279191</v>
       </c>
       <c r="AE15" s="146"/>
       <c r="AF15" s="132">
@@ -4472,7 +4475,7 @@
       </c>
       <c r="AG15" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG14,"1m","mf",TRUE),Trigger)</f>
-        <v>42704</v>
+        <v>42825</v>
       </c>
       <c r="AH15" s="132" t="str">
         <f t="shared" si="7"/>
@@ -4480,7 +4483,7 @@
       </c>
       <c r="AI15" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG15,_xll.qlCalendarAdvance(Calendar,AG15,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ15" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH15,Trigger),_xll.qlQuoteValue(AH15,Trigger),1)</f>
@@ -4520,7 +4523,7 @@
       <c r="I16" s="192"/>
       <c r="J16" s="167" t="str">
         <f>IF(P14,_xll.qlOISRateHelper(,C16,B16,H16,$G16,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0022a#0001</v>
+        <v>obj_00231#0003</v>
       </c>
       <c r="K16" s="46"/>
       <c r="L16" s="173" t="str">
@@ -4559,18 +4562,18 @@
       </c>
       <c r="W16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X16" s="3" t="str">
-        <v>obj_00222</v>
+        <v>obj_00352</v>
       </c>
       <c r="Y16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X16,Trigger),"")</f>
-        <v>AUDMTOIS5Y_Quote</v>
+        <v>AUDOIS5Y_Quote</v>
       </c>
       <c r="Z16" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X16,Trigger),"")</f>
-        <v>1.508E-2</v>
+        <v>1.7080000000000001E-2</v>
       </c>
       <c r="AA16" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X16)),_xll.qlSwapRateHelperSpread($X16))</f>
@@ -4578,14 +4581,14 @@
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X16,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X16,Trigger),"")</f>
-        <v>44389</v>
+        <v>44508</v>
       </c>
       <c r="AD16" s="71">
-        <v>0.9276122472688455</v>
+        <v>0.91849712176925791</v>
       </c>
       <c r="AE16" s="146"/>
       <c r="AF16" s="132">
@@ -4593,7 +4596,7 @@
       </c>
       <c r="AG16" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG15,"1m","mf",TRUE),Trigger)</f>
-        <v>42734</v>
+        <v>42853</v>
       </c>
       <c r="AH16" s="132" t="str">
         <f t="shared" si="7"/>
@@ -4654,7 +4657,7 @@
       </c>
       <c r="N17" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H19),"--")</f>
-        <v>1.5300000000000003E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="O17" s="179"/>
       <c r="P17" s="91" t="b">
@@ -4668,30 +4671,30 @@
       </c>
       <c r="S17" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>obj_00227#0001</v>
+        <v>obj_0022e#0003</v>
       </c>
       <c r="T17" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S17,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U17" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S17,Trigger),"--")</f>
-        <v>42836</v>
+        <v>42955</v>
       </c>
       <c r="W17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X17" s="3" t="str">
-        <v>obj_00235</v>
+        <v>obj_0034f</v>
       </c>
       <c r="Y17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X17,Trigger),"")</f>
-        <v>AUDMTOIS6Y_Quote</v>
+        <v>AUDOIS6Y_Quote</v>
       </c>
       <c r="Z17" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X17,Trigger),"")</f>
-        <v>1.55E-2</v>
+        <v>1.788E-2</v>
       </c>
       <c r="AA17" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X17)),_xll.qlSwapRateHelperSpread($X17))</f>
@@ -4699,14 +4702,14 @@
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X17,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X17,Trigger),"")</f>
-        <v>44753</v>
+        <v>44873</v>
       </c>
       <c r="AD17" s="71">
-        <v>0.91151044433681894</v>
+        <v>0.89861435566384174</v>
       </c>
       <c r="AE17" s="146"/>
       <c r="AF17" s="132">
@@ -4714,7 +4717,7 @@
       </c>
       <c r="AG17" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG16,"1m","mf",TRUE),Trigger)</f>
-        <v>42766</v>
+        <v>42886</v>
       </c>
       <c r="AH17" s="132" t="str">
         <f t="shared" si="7"/>
@@ -4801,18 +4804,18 @@
       </c>
       <c r="W18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X18" s="3" t="str">
-        <v>obj_0022d</v>
+        <v>obj_00334</v>
       </c>
       <c r="Y18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X18,Trigger),"")</f>
-        <v>AUDMTOIS7Y_Quote</v>
+        <v>AUDOIS7Y_Quote</v>
       </c>
       <c r="Z18" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X18,Trigger),"")</f>
-        <v>1.5899999999999997E-2</v>
+        <v>1.8650000000000003E-2</v>
       </c>
       <c r="AA18" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X18)),_xll.qlSwapRateHelperSpread($X18))</f>
@@ -4820,14 +4823,14 @@
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X18,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X18,Trigger),"")</f>
-        <v>45118</v>
+        <v>45238</v>
       </c>
       <c r="AD18" s="71">
-        <v>0.89500005344151123</v>
+        <v>0.87787754772229376</v>
       </c>
       <c r="AE18" s="146"/>
       <c r="AF18" s="132">
@@ -4835,7 +4838,7 @@
       </c>
       <c r="AG18" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG17,"1m","mf",TRUE),Trigger)</f>
-        <v>42794</v>
+        <v>42916</v>
       </c>
       <c r="AH18" s="132" t="str">
         <f t="shared" si="7"/>
@@ -4843,7 +4846,7 @@
       </c>
       <c r="AI18" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG18,_xll.qlCalendarAdvance(Calendar,AG18,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ18" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH18,Trigger),_xll.qlQuoteValue(AH18,Trigger),1)</f>
@@ -4883,7 +4886,7 @@
       <c r="I19" s="192"/>
       <c r="J19" s="167" t="str">
         <f>IF(P17,_xll.qlOISRateHelper(,C19,B19,H19,$G19,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00227#0001</v>
+        <v>obj_0022e#0003</v>
       </c>
       <c r="K19" s="46"/>
       <c r="L19" s="173" t="str">
@@ -4922,18 +4925,18 @@
       </c>
       <c r="W19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X19" s="3" t="str">
-        <v>obj_00231</v>
+        <v>obj_0033a</v>
       </c>
       <c r="Y19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X19,Trigger),"")</f>
-        <v>AUDMTOIS8Y_Quote</v>
+        <v>AUDOIS8Y_Quote</v>
       </c>
       <c r="Z19" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X19,Trigger),"")</f>
-        <v>1.6280000000000003E-2</v>
+        <v>1.9279999999999999E-2</v>
       </c>
       <c r="AA19" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X19)),_xll.qlSwapRateHelperSpread($X19))</f>
@@ -4941,14 +4944,14 @@
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X19,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X19,Trigger),"")</f>
-        <v>45484</v>
+        <v>45604</v>
       </c>
       <c r="AD19" s="71">
-        <v>0.87815846971723532</v>
+        <v>0.85718187442072136</v>
       </c>
       <c r="AE19" s="146"/>
       <c r="AF19" s="132">
@@ -4956,7 +4959,7 @@
       </c>
       <c r="AG19" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG18,"1m","mf",TRUE),Trigger)</f>
-        <v>42825</v>
+        <v>42947</v>
       </c>
       <c r="AH19" s="132" t="str">
         <f t="shared" si="7"/>
@@ -4964,7 +4967,7 @@
       </c>
       <c r="AI19" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG19,_xll.qlCalendarAdvance(Calendar,AG19,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ19" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH19,Trigger),_xll.qlQuoteValue(AH19,Trigger),1)</f>
@@ -5017,11 +5020,11 @@
       </c>
       <c r="N20" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H22),"--")</f>
-        <v>1.4999999999999999E-2</v>
+        <v>1.4449999999999998E-2</v>
       </c>
       <c r="O20" s="179"/>
       <c r="P20" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="88">
         <v>50</v>
@@ -5031,30 +5034,30 @@
       </c>
       <c r="S20" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="T20" s="92" t="str">
+        <v>obj_0032d#0004</v>
+      </c>
+      <c r="T20" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S20,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U20" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U20" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S20,Trigger),"--")</f>
-        <v>--</v>
+        <v>43047</v>
       </c>
       <c r="W20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X20" s="3" t="str">
-        <v>obj_00228</v>
+        <v>obj_0033f</v>
       </c>
       <c r="Y20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X20,Trigger),"")</f>
-        <v>AUDMTOIS9Y_Quote</v>
+        <v>AUDOIS9Y_Quote</v>
       </c>
       <c r="Z20" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X20,Trigger),"")</f>
-        <v>1.668E-2</v>
+        <v>1.993E-2</v>
       </c>
       <c r="AA20" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X20)),_xll.qlSwapRateHelperSpread($X20))</f>
@@ -5062,14 +5065,14 @@
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X20,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X20,Trigger),"")</f>
-        <v>45849</v>
+        <v>45971</v>
       </c>
       <c r="AD20" s="71">
-        <v>0.86081004238987457</v>
+        <v>0.83562310937596951</v>
       </c>
       <c r="AE20" s="146"/>
       <c r="AF20" s="132">
@@ -5077,7 +5080,7 @@
       </c>
       <c r="AG20" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG19,"1m","mf",TRUE),Trigger)</f>
-        <v>42853</v>
+        <v>42978</v>
       </c>
       <c r="AH20" s="132" t="str">
         <f t="shared" si="7"/>
@@ -5085,7 +5088,7 @@
       </c>
       <c r="AI20" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG20,_xll.qlCalendarAdvance(Calendar,AG20,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ20" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH20,Trigger),_xll.qlQuoteValue(AH20,Trigger),1)</f>
@@ -5164,18 +5167,18 @@
       </c>
       <c r="W21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X21" s="3" t="str">
-        <v>obj_00232</v>
+        <v>obj_00345</v>
       </c>
       <c r="Y21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X21,Trigger),"")</f>
-        <v>AUDMTOIS10Y_Quote</v>
+        <v>AUDOIS10Y_Quote</v>
       </c>
       <c r="Z21" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X21,Trigger),"")</f>
-        <v>1.7049999999999999E-2</v>
+        <v>2.0550000000000002E-2</v>
       </c>
       <c r="AA21" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X21)),_xll.qlSwapRateHelperSpread($X21))</f>
@@ -5183,14 +5186,14 @@
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X21,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X21,Trigger),"")</f>
-        <v>46216</v>
+        <v>46335</v>
       </c>
       <c r="AD21" s="71">
-        <v>0.84326916415863973</v>
+        <v>0.81383237050001689</v>
       </c>
       <c r="AE21" s="146"/>
       <c r="AF21" s="132">
@@ -5198,7 +5201,7 @@
       </c>
       <c r="AG21" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG20,"1m","mf",TRUE),Trigger)</f>
-        <v>42886</v>
+        <v>43007</v>
       </c>
       <c r="AH21" s="132" t="str">
         <f t="shared" si="7"/>
@@ -5206,7 +5209,7 @@
       </c>
       <c r="AI21" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG21,_xll.qlCalendarAdvance(Calendar,AG21,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AJ21" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH21,Trigger),_xll.qlQuoteValue(AH21,Trigger),1)</f>
@@ -5246,7 +5249,7 @@
       <c r="I22" s="192"/>
       <c r="J22" s="167" t="str">
         <f>IF(P20,_xll.qlOISRateHelper(,C22,B22,H22,$G22,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0032d#0004</v>
       </c>
       <c r="L22" s="173" t="str">
         <f t="shared" si="2"/>
@@ -5284,18 +5287,18 @@
       </c>
       <c r="W22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X22" s="3" t="str">
-        <v>obj_0022b</v>
+        <v>obj_0034a</v>
       </c>
       <c r="Y22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X22,Trigger),"")</f>
-        <v>AUDMTOIS12Y_Quote</v>
+        <v>AUDOIS12Y_Quote</v>
       </c>
       <c r="Z22" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X22,Trigger),"")</f>
-        <v>1.7730000000000003E-2</v>
+        <v>2.1550000000000003E-2</v>
       </c>
       <c r="AA22" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X22)),_xll.qlSwapRateHelperSpread($X22))</f>
@@ -5303,14 +5306,14 @@
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X22,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X22,Trigger),"")</f>
-        <v>46945</v>
+        <v>47065</v>
       </c>
       <c r="AD22" s="71">
-        <v>0.80809579943559895</v>
+        <v>0.77108419150063212</v>
       </c>
       <c r="AE22" s="146"/>
       <c r="AF22" s="132">
@@ -5318,7 +5321,7 @@
       </c>
       <c r="AG22" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG21,"1m","mf",TRUE),Trigger)</f>
-        <v>42916</v>
+        <v>43039</v>
       </c>
       <c r="AH22" s="132" t="str">
         <f t="shared" si="7"/>
@@ -5326,7 +5329,7 @@
       </c>
       <c r="AI22" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG22,_xll.qlCalendarAdvance(Calendar,AG22,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ22" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH22,Trigger),_xll.qlQuoteValue(AH22,Trigger),1)</f>
@@ -5404,18 +5407,18 @@
       </c>
       <c r="W23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X23" s="3" t="str">
-        <v>obj_00226</v>
+        <v>obj_0034e</v>
       </c>
       <c r="Y23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X23,Trigger),"")</f>
-        <v>AUDMTOIS15Y_Quote</v>
+        <v>AUDOIS15Y_Quote</v>
       </c>
       <c r="Z23" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X23,Trigger),"")</f>
-        <v>1.8579999999999999E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="AA23" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X23)),_xll.qlSwapRateHelperSpread($X23))</f>
@@ -5423,14 +5426,14 @@
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X23,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X23,Trigger),"")</f>
-        <v>48040</v>
+        <v>48162</v>
       </c>
       <c r="AD23" s="71">
-        <v>0.75581429685543622</v>
+        <v>0.70910157962857656</v>
       </c>
       <c r="AE23" s="146"/>
       <c r="AF23" s="136">
@@ -5524,18 +5527,18 @@
       </c>
       <c r="W24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X24" s="3" t="str">
-        <v>obj_0021f</v>
+        <v>obj_00353</v>
       </c>
       <c r="Y24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X24,Trigger),"")</f>
-        <v>AUDMTOIS20Y_Quote</v>
+        <v>AUDOIS20Y_Quote</v>
       </c>
       <c r="Z24" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X24,Trigger),"")</f>
-        <v>1.9279999999999999E-2</v>
+        <v>2.3849999999999996E-2</v>
       </c>
       <c r="AA24" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X24)),_xll.qlSwapRateHelperSpread($X24))</f>
@@ -5543,14 +5546,14 @@
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X24,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X24,Trigger),"")</f>
-        <v>49867</v>
+        <v>49989</v>
       </c>
       <c r="AD24" s="71">
-        <v>0.67824891797455134</v>
+        <v>0.61647110009887718</v>
       </c>
       <c r="AE24" s="146"/>
     </row>
@@ -5616,18 +5619,18 @@
       </c>
       <c r="W25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X25" s="3" t="str">
-        <v>obj_0022e</v>
+        <v>obj_00336</v>
       </c>
       <c r="Y25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X25,Trigger),"")</f>
-        <v>AUDMTOIS25Y_Quote</v>
+        <v>AUDOIS25Y_Quote</v>
       </c>
       <c r="Z25" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X25,Trigger),"")</f>
-        <v>1.968E-2</v>
+        <v>2.4479999999999998E-2</v>
       </c>
       <c r="AA25" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X25)),_xll.qlSwapRateHelperSpread($X25))</f>
@@ -5635,14 +5638,14 @@
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X25,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X25,Trigger),"")</f>
-        <v>51693</v>
+        <v>51813</v>
       </c>
       <c r="AD25" s="71">
-        <v>0.60897815187827886</v>
+        <v>0.536918462507599</v>
       </c>
       <c r="AE25" s="146"/>
     </row>
@@ -5682,11 +5685,11 @@
       </c>
       <c r="N26" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H28),"--")</f>
-        <v>1.4649999999999998E-2</v>
+        <v>1.455E-2</v>
       </c>
       <c r="O26" s="179"/>
       <c r="P26" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="88">
         <v>50</v>
@@ -5696,30 +5699,30 @@
       </c>
       <c r="S26" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="T26" s="92" t="str">
+        <v>obj_0032e#0004</v>
+      </c>
+      <c r="T26" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S26,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U26" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U26" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S26,Trigger),"--")</f>
-        <v>--</v>
+        <v>43228</v>
       </c>
       <c r="W26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>MTOIS</v>
+        <v>OIS</v>
       </c>
       <c r="X26" s="3" t="str">
-        <v>obj_00233</v>
+        <v>obj_0033b</v>
       </c>
       <c r="Y26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X26,Trigger),"")</f>
-        <v>AUDMTOIS30Y_Quote</v>
+        <v>AUDOIS30Y_Quote</v>
       </c>
       <c r="Z26" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X26,Trigger),"")</f>
-        <v>1.968E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="AA26" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X26)),_xll.qlSwapRateHelperSpread($X26))</f>
@@ -5727,14 +5730,14 @@
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X26,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X26,Trigger),"")</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="AD26" s="71">
-        <v>0.55244384318895878</v>
+        <v>0.47338956497095275</v>
       </c>
       <c r="AE26" s="146"/>
     </row>
@@ -5854,7 +5857,7 @@
       <c r="I28" s="192"/>
       <c r="J28" s="167" t="str">
         <f>IF(P26,_xll.qlOISRateHelper(,C28,B28,H28,$G28,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0032e#0004</v>
       </c>
       <c r="L28" s="173" t="str">
         <f t="shared" si="2"/>
@@ -6234,11 +6237,11 @@
       </c>
       <c r="N32" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H34),"--")</f>
-        <v>1.455E-2</v>
+        <v>1.485E-2</v>
       </c>
       <c r="O32" s="179"/>
       <c r="P32" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="88">
         <v>50</v>
@@ -6248,15 +6251,15 @@
       </c>
       <c r="S32" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="T32" s="92" t="str">
+        <v>obj_0032f#0004</v>
+      </c>
+      <c r="T32" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S32,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U32" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U32" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S32,Trigger),"--")</f>
-        <v>--</v>
+        <v>43412</v>
       </c>
       <c r="W32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -6406,7 +6409,7 @@
       <c r="I34" s="192"/>
       <c r="J34" s="167" t="str">
         <f>IF(P32,_xll.qlOISRateHelper(,C34,B34,H34,$G34,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0032f#0004</v>
       </c>
       <c r="L34" s="173" t="str">
         <f t="shared" si="2"/>
@@ -6602,11 +6605,11 @@
       </c>
       <c r="N36" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H38),"--")</f>
-        <v>1.4750000000000001E-2</v>
+        <v>1.5600000000000001E-2</v>
       </c>
       <c r="O36" s="179"/>
       <c r="P36" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="88">
         <v>50</v>
@@ -6616,15 +6619,15 @@
       </c>
       <c r="S36" s="88" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="T36" s="92" t="str">
+        <v>obj_00330#0004</v>
+      </c>
+      <c r="T36" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S36,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U36" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U36" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S36,Trigger),"--")</f>
-        <v>--</v>
+        <v>43777</v>
       </c>
       <c r="W36" s="3" t="str">
         <f t="shared" si="10"/>
@@ -6774,7 +6777,7 @@
       <c r="I38" s="192"/>
       <c r="J38" s="167" t="str">
         <f>IF(P36,_xll.qlOISRateHelper(,C38,B38,H38,$G38,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_00330#0004</v>
       </c>
       <c r="L38" s="173" t="str">
         <f t="shared" ref="L38:L59" si="11">A40</f>
@@ -6966,13 +6969,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS4Y_Quote</v>
       </c>
-      <c r="N40" s="174" t="str">
+      <c r="N40" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H42),"--")</f>
-        <v>--</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="O40" s="179"/>
       <c r="P40" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="88">
         <v>50</v>
@@ -6982,15 +6985,15 @@
       </c>
       <c r="S40" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T40" s="92" t="str">
+        <v>obj_0033e#0002</v>
+      </c>
+      <c r="T40" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S40,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U40" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U40" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S40,Trigger),"--")</f>
-        <v>--</v>
+        <v>44144</v>
       </c>
       <c r="W40" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7138,7 +7141,7 @@
       <c r="I42" s="192"/>
       <c r="J42" s="167" t="str">
         <f>IF(P40,_xll.qlOISRateHelper(,C42,B42,H42,$G42,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0033e#0002</v>
       </c>
       <c r="L42" s="173" t="str">
         <f t="shared" si="11"/>
@@ -7330,13 +7333,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS5Y_Quote</v>
       </c>
-      <c r="N44" s="174" t="str">
+      <c r="N44" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H46),"--")</f>
-        <v>--</v>
+        <v>1.7080000000000001E-2</v>
       </c>
       <c r="O44" s="179"/>
       <c r="P44" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="88">
         <v>50</v>
@@ -7346,15 +7349,15 @@
       </c>
       <c r="S44" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T44" s="92" t="str">
+        <v>obj_00352#0002</v>
+      </c>
+      <c r="T44" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S44,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U44" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U44" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S44,Trigger),"--")</f>
-        <v>--</v>
+        <v>44508</v>
       </c>
       <c r="W44" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7421,13 +7424,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS6Y_Quote</v>
       </c>
-      <c r="N45" s="174" t="str">
+      <c r="N45" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H47),"--")</f>
-        <v>--</v>
+        <v>1.788E-2</v>
       </c>
       <c r="O45" s="179"/>
       <c r="P45" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="88">
         <v>50</v>
@@ -7437,15 +7440,15 @@
       </c>
       <c r="S45" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T45" s="92" t="str">
+        <v>obj_0034f#0002</v>
+      </c>
+      <c r="T45" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S45,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U45" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U45" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S45,Trigger),"--")</f>
-        <v>--</v>
+        <v>44873</v>
       </c>
       <c r="W45" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7502,7 +7505,7 @@
       <c r="I46" s="192"/>
       <c r="J46" s="167" t="str">
         <f>IF(P44,_xll.qlOISRateHelper(,C46,B46,H46,$G46,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_00352#0002</v>
       </c>
       <c r="L46" s="173" t="str">
         <f t="shared" si="11"/>
@@ -7512,13 +7515,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS7Y_Quote</v>
       </c>
-      <c r="N46" s="174" t="str">
+      <c r="N46" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H48),"--")</f>
-        <v>--</v>
+        <v>1.8650000000000003E-2</v>
       </c>
       <c r="O46" s="179"/>
       <c r="P46" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="88">
         <v>50</v>
@@ -7528,15 +7531,15 @@
       </c>
       <c r="S46" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T46" s="92" t="str">
+        <v>obj_00334#0002</v>
+      </c>
+      <c r="T46" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S46,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U46" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U46" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S46,Trigger),"--")</f>
-        <v>--</v>
+        <v>45238</v>
       </c>
       <c r="W46" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7593,7 +7596,7 @@
       <c r="I47" s="192"/>
       <c r="J47" s="167" t="str">
         <f>IF(P45,_xll.qlOISRateHelper(,C47,B47,H47,$G47,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0034f#0002</v>
       </c>
       <c r="L47" s="173" t="str">
         <f t="shared" si="11"/>
@@ -7603,13 +7606,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS8Y_Quote</v>
       </c>
-      <c r="N47" s="174" t="str">
+      <c r="N47" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H49),"--")</f>
-        <v>--</v>
+        <v>1.9279999999999999E-2</v>
       </c>
       <c r="O47" s="179"/>
       <c r="P47" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="88">
         <v>50</v>
@@ -7619,15 +7622,15 @@
       </c>
       <c r="S47" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T47" s="92" t="str">
+        <v>obj_0033a#0002</v>
+      </c>
+      <c r="T47" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S47,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U47" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U47" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S47,Trigger),"--")</f>
-        <v>--</v>
+        <v>45604</v>
       </c>
       <c r="W47" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7684,7 +7687,7 @@
       <c r="I48" s="192"/>
       <c r="J48" s="167" t="str">
         <f>IF(P46,_xll.qlOISRateHelper(,C48,B48,H48,$G48,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_00334#0002</v>
       </c>
       <c r="L48" s="173" t="str">
         <f t="shared" si="11"/>
@@ -7694,13 +7697,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS9Y_Quote</v>
       </c>
-      <c r="N48" s="174" t="str">
+      <c r="N48" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H50),"--")</f>
-        <v>--</v>
+        <v>1.993E-2</v>
       </c>
       <c r="O48" s="179"/>
       <c r="P48" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="88">
         <v>50</v>
@@ -7710,15 +7713,15 @@
       </c>
       <c r="S48" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T48" s="92" t="str">
+        <v>obj_0033f#0002</v>
+      </c>
+      <c r="T48" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S48,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U48" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U48" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S48,Trigger),"--")</f>
-        <v>--</v>
+        <v>45971</v>
       </c>
       <c r="W48" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7775,7 +7778,7 @@
       <c r="I49" s="192"/>
       <c r="J49" s="167" t="str">
         <f>IF(P47,_xll.qlOISRateHelper(,C49,B49,H49,$G49,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0033a#0002</v>
       </c>
       <c r="L49" s="173" t="str">
         <f t="shared" si="11"/>
@@ -7785,13 +7788,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS10Y_Quote</v>
       </c>
-      <c r="N49" s="174" t="str">
+      <c r="N49" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H51),"--")</f>
-        <v>--</v>
+        <v>2.0550000000000002E-2</v>
       </c>
       <c r="O49" s="179"/>
       <c r="P49" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="88">
         <v>50</v>
@@ -7801,15 +7804,15 @@
       </c>
       <c r="S49" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T49" s="92" t="str">
+        <v>obj_00345#0002</v>
+      </c>
+      <c r="T49" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S49,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U49" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U49" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S49,Trigger),"--")</f>
-        <v>--</v>
+        <v>46335</v>
       </c>
       <c r="W49" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7866,7 +7869,7 @@
       <c r="I50" s="192"/>
       <c r="J50" s="167" t="str">
         <f>IF(P48,_xll.qlOISRateHelper(,C50,B50,H50,$G50,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0033f#0002</v>
       </c>
       <c r="L50" s="173" t="str">
         <f t="shared" si="11"/>
@@ -7876,13 +7879,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS12Y_Quote</v>
       </c>
-      <c r="N50" s="174" t="str">
+      <c r="N50" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H52),"--")</f>
-        <v>--</v>
+        <v>2.1550000000000003E-2</v>
       </c>
       <c r="O50" s="179"/>
       <c r="P50" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="88">
         <v>50</v>
@@ -7892,15 +7895,15 @@
       </c>
       <c r="S50" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T50" s="92" t="str">
+        <v>obj_0034a#0002</v>
+      </c>
+      <c r="T50" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S50,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U50" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U50" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S50,Trigger),"--")</f>
-        <v>--</v>
+        <v>47065</v>
       </c>
       <c r="W50" s="3" t="str">
         <f t="shared" si="10"/>
@@ -7957,7 +7960,7 @@
       <c r="I51" s="192"/>
       <c r="J51" s="167" t="str">
         <f>IF(P49,_xll.qlOISRateHelper(,C51,B51,H51,$G51,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_00345#0002</v>
       </c>
       <c r="L51" s="173" t="str">
         <f t="shared" si="11"/>
@@ -7967,13 +7970,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS15Y_Quote</v>
       </c>
-      <c r="N51" s="174" t="str">
+      <c r="N51" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H53),"--")</f>
-        <v>--</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="O51" s="179"/>
       <c r="P51" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="88">
         <v>50</v>
@@ -7983,15 +7986,15 @@
       </c>
       <c r="S51" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T51" s="92" t="str">
+        <v>obj_0034e#0002</v>
+      </c>
+      <c r="T51" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S51,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U51" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U51" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S51,Trigger),"--")</f>
-        <v>--</v>
+        <v>48162</v>
       </c>
       <c r="W51" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8048,7 +8051,7 @@
       <c r="I52" s="192"/>
       <c r="J52" s="167" t="str">
         <f>IF(P50,_xll.qlOISRateHelper(,C52,B52,H52,$G52,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0034a#0002</v>
       </c>
       <c r="L52" s="173" t="str">
         <f t="shared" si="11"/>
@@ -8058,13 +8061,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS20Y_Quote</v>
       </c>
-      <c r="N52" s="174" t="str">
+      <c r="N52" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H54),"--")</f>
-        <v>--</v>
+        <v>2.3849999999999996E-2</v>
       </c>
       <c r="O52" s="179"/>
       <c r="P52" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="88">
         <v>50</v>
@@ -8074,15 +8077,15 @@
       </c>
       <c r="S52" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T52" s="92" t="str">
+        <v>obj_00353#0002</v>
+      </c>
+      <c r="T52" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S52,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U52" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U52" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S52,Trigger),"--")</f>
-        <v>--</v>
+        <v>49989</v>
       </c>
       <c r="W52" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8139,7 +8142,7 @@
       <c r="I53" s="192"/>
       <c r="J53" s="167" t="str">
         <f>IF(P51,_xll.qlOISRateHelper(,C53,B53,H53,$G53,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0034e#0002</v>
       </c>
       <c r="L53" s="173" t="str">
         <f t="shared" si="11"/>
@@ -8149,13 +8152,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS25Y_Quote</v>
       </c>
-      <c r="N53" s="174" t="str">
+      <c r="N53" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H55),"--")</f>
-        <v>--</v>
+        <v>2.4479999999999998E-2</v>
       </c>
       <c r="O53" s="179"/>
       <c r="P53" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="88">
         <v>50</v>
@@ -8165,15 +8168,15 @@
       </c>
       <c r="S53" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T53" s="92" t="str">
+        <v>obj_00336#0002</v>
+      </c>
+      <c r="T53" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S53,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U53" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U53" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S53,Trigger),"--")</f>
-        <v>--</v>
+        <v>51813</v>
       </c>
       <c r="W53" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8230,7 +8233,7 @@
       <c r="I54" s="192"/>
       <c r="J54" s="167" t="str">
         <f>IF(P52,_xll.qlOISRateHelper(,C54,B54,H54,$G54,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_00353#0002</v>
       </c>
       <c r="L54" s="173" t="str">
         <f t="shared" si="11"/>
@@ -8321,7 +8324,7 @@
       <c r="I55" s="192"/>
       <c r="J55" s="167" t="str">
         <f>IF(P53,_xll.qlOISRateHelper(,C55,B55,H55,$G55,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_00336#0002</v>
       </c>
       <c r="L55" s="173" t="str">
         <f t="shared" si="11"/>
@@ -8331,13 +8334,13 @@
         <f t="shared" si="4"/>
         <v>AUDOIS30Y_Quote</v>
       </c>
-      <c r="N55" s="174" t="str">
+      <c r="N55" s="174">
         <f>IFERROR(_xll.qlQuoteValue(H57),"--")</f>
-        <v>--</v>
+        <v>2.46E-2</v>
       </c>
       <c r="O55" s="179"/>
       <c r="P55" s="91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="88">
         <v>50</v>
@@ -8347,15 +8350,15 @@
       </c>
       <c r="S55" s="88" t="str">
         <f t="shared" si="12"/>
-        <v>--</v>
-      </c>
-      <c r="T55" s="92" t="str">
+        <v>obj_0033b#0002</v>
+      </c>
+      <c r="T55" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S55,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U55" s="92" t="str">
+        <v>42682</v>
+      </c>
+      <c r="U55" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S55,Trigger),"--")</f>
-        <v>--</v>
+        <v>53639</v>
       </c>
       <c r="W55" s="3" t="str">
         <f t="shared" si="10"/>
@@ -8503,7 +8506,7 @@
       <c r="I57" s="192"/>
       <c r="J57" s="167" t="str">
         <f>IF(P55,_xll.qlOISRateHelper(,C57,B57,H57,$G57,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>--</v>
+        <v>obj_0033b#0002</v>
       </c>
       <c r="L57" s="173" t="str">
         <f t="shared" si="11"/>
@@ -8795,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="118">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R60" s="118">
         <v>1</v>
@@ -8886,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R61" s="88">
         <v>1</v>
@@ -8955,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R62" s="88">
         <v>1</v>
@@ -9043,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R63" s="88">
         <v>1</v>
@@ -9134,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R64" s="88">
         <v>1</v>
@@ -9225,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R65" s="88">
         <v>1</v>
@@ -9316,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R66" s="88">
         <v>1</v>
@@ -9407,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R67" s="88">
         <v>1</v>
@@ -9498,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R68" s="88">
         <v>1</v>
@@ -9589,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R69" s="88">
         <v>1</v>
@@ -9680,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R70" s="88">
         <v>1</v>
@@ -9771,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R71" s="88">
         <v>1</v>
@@ -9862,7 +9865,7 @@
         <v>0</v>
       </c>
       <c r="Q72" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R72" s="88">
         <v>1</v>
@@ -9953,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="Q73" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R73" s="88">
         <v>1</v>
@@ -10044,22 +10047,22 @@
         <v>1</v>
       </c>
       <c r="Q74" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R74" s="88">
         <v>1</v>
       </c>
       <c r="S74" s="88" t="str">
         <f t="shared" si="15"/>
-        <v>obj_00229#0001</v>
+        <v>obj_00230#0003</v>
       </c>
       <c r="T74" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S74,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U74" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S74,Trigger),"--")</f>
-        <v>42927</v>
+        <v>43047</v>
       </c>
       <c r="W74" s="3" t="str">
         <f t="shared" si="19"/>
@@ -10135,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R75" s="88">
         <v>1</v>
@@ -10226,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R76" s="88">
         <v>1</v>
@@ -10317,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R77" s="88">
         <v>1</v>
@@ -10389,7 +10392,7 @@
       <c r="I78" s="192"/>
       <c r="J78" s="167" t="str">
         <f>IF(P74,_xll.qlOISRateHelper(,C78,B78,H78,$G78,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00229#0001</v>
+        <v>obj_00230#0003</v>
       </c>
       <c r="L78" s="173" t="str">
         <f t="shared" si="14"/>
@@ -10408,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R78" s="88">
         <v>1</v>
@@ -10499,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R79" s="88">
         <v>1</v>
@@ -10590,22 +10593,22 @@
         <v>1</v>
       </c>
       <c r="Q80" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R80" s="88">
         <v>1</v>
       </c>
       <c r="S80" s="88" t="str">
         <f t="shared" si="15"/>
-        <v>obj_0022c#0001</v>
+        <v>obj_00233#0003</v>
       </c>
       <c r="T80" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S80,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U80" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S80,Trigger),"--")</f>
-        <v>43111</v>
+        <v>43228</v>
       </c>
       <c r="W80" s="3" t="str">
         <f t="shared" si="19"/>
@@ -10681,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R81" s="88">
         <v>1</v>
@@ -10772,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R82" s="88">
         <v>1</v>
@@ -10863,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R83" s="88">
         <v>1</v>
@@ -10935,7 +10938,7 @@
       <c r="I84" s="192"/>
       <c r="J84" s="167" t="str">
         <f>IF(P80,_xll.qlOISRateHelper(,C84,B84,H84,$G84,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0022c#0001</v>
+        <v>obj_00233#0003</v>
       </c>
       <c r="L84" s="173" t="str">
         <f t="shared" si="14"/>
@@ -10954,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R84" s="88">
         <v>1</v>
@@ -11045,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R85" s="88">
         <v>1</v>
@@ -11136,22 +11139,22 @@
         <v>1</v>
       </c>
       <c r="Q86" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R86" s="88">
         <v>1</v>
       </c>
       <c r="S86" s="88" t="str">
         <f t="shared" si="15"/>
-        <v>obj_00224#0001</v>
+        <v>obj_0022a#0004</v>
       </c>
       <c r="T86" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S86,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U86" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S86,Trigger),"--")</f>
-        <v>43292</v>
+        <v>43412</v>
       </c>
       <c r="W86" s="3" t="str">
         <f t="shared" si="19"/>
@@ -11227,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R87" s="88">
         <v>1</v>
@@ -11318,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R88" s="88">
         <v>1</v>
@@ -11409,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R89" s="88">
         <v>1</v>
@@ -11481,7 +11484,7 @@
       <c r="I90" s="192"/>
       <c r="J90" s="167" t="str">
         <f>IF(P86,_xll.qlOISRateHelper(,C90,B90,H90,$G90,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00224#0001</v>
+        <v>obj_0022a#0004</v>
       </c>
       <c r="L90" s="173" t="str">
         <f t="shared" si="14"/>
@@ -11500,22 +11503,22 @@
         <v>1</v>
       </c>
       <c r="Q90" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R90" s="88">
         <v>1</v>
       </c>
       <c r="S90" s="88" t="str">
         <f t="shared" si="15"/>
-        <v>obj_00234#0001</v>
+        <v>obj_0022b#0004</v>
       </c>
       <c r="T90" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S90,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U90" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S90,Trigger),"--")</f>
-        <v>43657</v>
+        <v>43777</v>
       </c>
       <c r="W90" s="3" t="str">
         <f t="shared" si="19"/>
@@ -11591,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R91" s="88">
         <v>1</v>
@@ -11682,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="Q92" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R92" s="88">
         <v>1</v>
@@ -11773,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R93" s="88">
         <v>1</v>
@@ -11845,7 +11848,7 @@
       <c r="I94" s="192"/>
       <c r="J94" s="167" t="str">
         <f>IF(P90,_xll.qlOISRateHelper(,C94,B94,H94,$G94,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00234#0001</v>
+        <v>obj_0022b#0004</v>
       </c>
       <c r="L94" s="173" t="str">
         <f t="shared" si="20"/>
@@ -11864,22 +11867,22 @@
         <v>1</v>
       </c>
       <c r="Q94" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R94" s="88">
         <v>1</v>
       </c>
       <c r="S94" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_00221#0001</v>
+        <v>obj_00223#0004</v>
       </c>
       <c r="T94" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S94,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U94" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S94,Trigger),"--")</f>
-        <v>44025</v>
+        <v>44144</v>
       </c>
       <c r="W94" s="3" t="str">
         <f t="shared" si="19"/>
@@ -11955,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="Q95" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R95" s="88">
         <v>1</v>
@@ -12046,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R96" s="88">
         <v>1</v>
@@ -12137,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="Q97" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R97" s="88">
         <v>1</v>
@@ -12209,7 +12212,7 @@
       <c r="I98" s="192"/>
       <c r="J98" s="167" t="str">
         <f>IF(P94,_xll.qlOISRateHelper(,C98,B98,H98,$G98,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00221#0001</v>
+        <v>obj_00223#0004</v>
       </c>
       <c r="L98" s="173" t="str">
         <f t="shared" si="20"/>
@@ -12228,22 +12231,22 @@
         <v>1</v>
       </c>
       <c r="Q98" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R98" s="88">
         <v>1</v>
       </c>
       <c r="S98" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_00222#0001</v>
+        <v>obj_00225#0004</v>
       </c>
       <c r="T98" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S98,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U98" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S98,Trigger),"--")</f>
-        <v>44389</v>
+        <v>44508</v>
       </c>
       <c r="W98" s="3" t="str">
         <f t="shared" si="19"/>
@@ -12319,22 +12322,22 @@
         <v>1</v>
       </c>
       <c r="Q99" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R99" s="88">
         <v>1</v>
       </c>
       <c r="S99" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_00235#0001</v>
+        <v>obj_00235#0003</v>
       </c>
       <c r="T99" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S99,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U99" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S99,Trigger),"--")</f>
-        <v>44753</v>
+        <v>44873</v>
       </c>
       <c r="W99" s="3" t="str">
         <f t="shared" ref="W99:W113" si="23">IFERROR(INDEX($L$3:$L$113,MATCH(Y99,$M$3:$M$113,0),1),"")</f>
@@ -12410,22 +12413,22 @@
         <v>1</v>
       </c>
       <c r="Q100" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R100" s="88">
         <v>1</v>
       </c>
       <c r="S100" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_0022d#0001</v>
+        <v>obj_0022d#0003</v>
       </c>
       <c r="T100" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S100,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U100" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S100,Trigger),"--")</f>
-        <v>45118</v>
+        <v>45238</v>
       </c>
       <c r="W100" s="3" t="str">
         <f t="shared" si="23"/>
@@ -12501,22 +12504,22 @@
         <v>1</v>
       </c>
       <c r="Q101" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R101" s="88">
         <v>1</v>
       </c>
       <c r="S101" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_00231#0001</v>
+        <v>obj_00226#0004</v>
       </c>
       <c r="T101" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S101,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U101" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S101,Trigger),"--")</f>
-        <v>45484</v>
+        <v>45604</v>
       </c>
       <c r="W101" s="3" t="str">
         <f t="shared" si="23"/>
@@ -12573,7 +12576,7 @@
       <c r="I102" s="192"/>
       <c r="J102" s="167" t="str">
         <f>IF(P98,_xll.qlOISRateHelper(,C102,B102,H102,$G102,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00222#0001</v>
+        <v>obj_00225#0004</v>
       </c>
       <c r="L102" s="173" t="str">
         <f t="shared" si="20"/>
@@ -12592,22 +12595,22 @@
         <v>1</v>
       </c>
       <c r="Q102" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R102" s="88">
         <v>1</v>
       </c>
       <c r="S102" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_00228#0001</v>
+        <v>obj_0022f#0003</v>
       </c>
       <c r="T102" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S102,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U102" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S102,Trigger),"--")</f>
-        <v>45849</v>
+        <v>45971</v>
       </c>
       <c r="W102" s="3" t="str">
         <f t="shared" si="23"/>
@@ -12664,7 +12667,7 @@
       <c r="I103" s="192"/>
       <c r="J103" s="167" t="str">
         <f>IF(P99,_xll.qlOISRateHelper(,C103,B103,H103,$G103,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00235#0001</v>
+        <v>obj_00235#0003</v>
       </c>
       <c r="L103" s="173" t="str">
         <f t="shared" si="20"/>
@@ -12683,22 +12686,22 @@
         <v>1</v>
       </c>
       <c r="Q103" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R103" s="88">
         <v>1</v>
       </c>
       <c r="S103" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_00232#0001</v>
+        <v>obj_00227#0004</v>
       </c>
       <c r="T103" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S103,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U103" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S103,Trigger),"--")</f>
-        <v>46216</v>
+        <v>46335</v>
       </c>
       <c r="W103" s="3" t="str">
         <f t="shared" si="23"/>
@@ -12755,7 +12758,7 @@
       <c r="I104" s="192"/>
       <c r="J104" s="167" t="str">
         <f>IF(P100,_xll.qlOISRateHelper(,C104,B104,H104,$G104,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0022d#0001</v>
+        <v>obj_0022d#0003</v>
       </c>
       <c r="L104" s="173" t="str">
         <f t="shared" si="20"/>
@@ -12774,22 +12777,22 @@
         <v>1</v>
       </c>
       <c r="Q104" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R104" s="88">
         <v>1</v>
       </c>
       <c r="S104" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_0022b#0001</v>
+        <v>obj_00232#0003</v>
       </c>
       <c r="T104" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S104,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U104" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S104,Trigger),"--")</f>
-        <v>46945</v>
+        <v>47065</v>
       </c>
       <c r="W104" s="3" t="str">
         <f t="shared" si="23"/>
@@ -12846,7 +12849,7 @@
       <c r="I105" s="192"/>
       <c r="J105" s="167" t="str">
         <f>IF(P101,_xll.qlOISRateHelper(,C105,B105,H105,$G105,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00231#0001</v>
+        <v>obj_00226#0004</v>
       </c>
       <c r="L105" s="173" t="str">
         <f t="shared" si="20"/>
@@ -12865,22 +12868,22 @@
         <v>1</v>
       </c>
       <c r="Q105" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R105" s="88">
         <v>1</v>
       </c>
       <c r="S105" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_00226#0001</v>
+        <v>obj_00220#0004</v>
       </c>
       <c r="T105" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S105,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U105" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S105,Trigger),"--")</f>
-        <v>48040</v>
+        <v>48162</v>
       </c>
       <c r="W105" s="3" t="str">
         <f t="shared" si="23"/>
@@ -12937,7 +12940,7 @@
       <c r="I106" s="192"/>
       <c r="J106" s="167" t="str">
         <f>IF(P102,_xll.qlOISRateHelper(,C106,B106,H106,$G106,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00228#0001</v>
+        <v>obj_0022f#0003</v>
       </c>
       <c r="L106" s="173" t="str">
         <f t="shared" si="20"/>
@@ -12956,22 +12959,22 @@
         <v>1</v>
       </c>
       <c r="Q106" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R106" s="88">
         <v>1</v>
       </c>
       <c r="S106" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_0021f#0001</v>
+        <v>obj_00234#0003</v>
       </c>
       <c r="T106" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S106,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U106" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S106,Trigger),"--")</f>
-        <v>49867</v>
+        <v>49989</v>
       </c>
       <c r="W106" s="3" t="str">
         <f t="shared" si="23"/>
@@ -13028,7 +13031,7 @@
       <c r="I107" s="192"/>
       <c r="J107" s="167" t="str">
         <f>IF(P103,_xll.qlOISRateHelper(,C107,B107,H107,$G107,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00232#0001</v>
+        <v>obj_00227#0004</v>
       </c>
       <c r="L107" s="173" t="str">
         <f t="shared" si="20"/>
@@ -13047,22 +13050,22 @@
         <v>1</v>
       </c>
       <c r="Q107" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R107" s="88">
         <v>1</v>
       </c>
       <c r="S107" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_0022e#0001</v>
+        <v>obj_00221#0004</v>
       </c>
       <c r="T107" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S107,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U107" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S107,Trigger),"--")</f>
-        <v>51693</v>
+        <v>51813</v>
       </c>
       <c r="W107" s="3" t="str">
         <f t="shared" si="23"/>
@@ -13119,7 +13122,7 @@
       <c r="I108" s="192"/>
       <c r="J108" s="167" t="str">
         <f>IF(P104,_xll.qlOISRateHelper(,C108,B108,H108,$G108,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0022b#0001</v>
+        <v>obj_00232#0003</v>
       </c>
       <c r="L108" s="173" t="str">
         <f t="shared" si="20"/>
@@ -13138,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="Q108" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R108" s="88">
         <v>1</v>
@@ -13210,7 +13213,7 @@
       <c r="I109" s="192"/>
       <c r="J109" s="167" t="str">
         <f>IF(P105,_xll.qlOISRateHelper(,C109,B109,H109,$G109,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00226#0001</v>
+        <v>obj_00220#0004</v>
       </c>
       <c r="L109" s="173" t="str">
         <f t="shared" si="20"/>
@@ -13229,22 +13232,22 @@
         <v>1</v>
       </c>
       <c r="Q109" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R109" s="88">
         <v>1</v>
       </c>
       <c r="S109" s="88" t="str">
         <f t="shared" si="21"/>
-        <v>obj_00233#0001</v>
+        <v>obj_00229#0004</v>
       </c>
       <c r="T109" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S109,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U109" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S109,Trigger),"--")</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="W109" s="3" t="str">
         <f t="shared" si="23"/>
@@ -13301,7 +13304,7 @@
       <c r="I110" s="192"/>
       <c r="J110" s="167" t="str">
         <f>IF(P106,_xll.qlOISRateHelper(,C110,B110,H110,$G110,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0021f#0001</v>
+        <v>obj_00234#0003</v>
       </c>
       <c r="L110" s="173" t="str">
         <f t="shared" si="20"/>
@@ -13320,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="Q110" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R110" s="88">
         <v>1</v>
@@ -13392,7 +13395,7 @@
       <c r="I111" s="192"/>
       <c r="J111" s="167" t="str">
         <f>IF(P107,_xll.qlOISRateHelper(,C111,B111,H111,$G111,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0022e#0001</v>
+        <v>obj_00221#0004</v>
       </c>
       <c r="L111" s="173" t="str">
         <f t="shared" si="20"/>
@@ -13411,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="Q111" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R111" s="88">
         <v>1</v>
@@ -13502,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="Q112" s="88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R112" s="88">
         <v>1</v>
@@ -13574,7 +13577,7 @@
       <c r="I113" s="192"/>
       <c r="J113" s="167" t="str">
         <f>IF(P109,_xll.qlOISRateHelper(,C113,B113,H113,$G113,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00233#0001</v>
+        <v>obj_00229#0004</v>
       </c>
       <c r="L113" s="175" t="str">
         <f t="shared" si="20"/>
@@ -13592,8 +13595,8 @@
       <c r="P113" s="93" t="b">
         <v>0</v>
       </c>
-      <c r="Q113" s="89">
-        <v>50</v>
+      <c r="Q113" s="88">
+        <v>40</v>
       </c>
       <c r="R113" s="89">
         <v>1</v>
@@ -13667,9 +13670,10 @@
         <f>IF(P110,_xll.qlOISRateHelper(,C114,B114,H114,$G114,,Permanent,Trigger,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
+      <c r="Q114" s="195"/>
       <c r="Y114" s="187" t="str">
         <f>_xll.ohGroup("AUDON_instruments",_xll.ohPack(Y3:Y113),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDON_instruments#0010</v>
+        <v>AUDON_instruments#0037</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
@@ -13970,7 +13974,7 @@
       </c>
       <c r="G3" s="53" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B3,"S","1"),"N","D"),C3,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00216#0001</v>
+        <v>obj_00212#0004</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H9" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -13979,7 +13983,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="165" t="str">
         <f>IF(P3,_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00273#0001</v>
+        <v>obj_00273#0003</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="171" t="str">
@@ -14006,15 +14010,15 @@
       </c>
       <c r="S3" s="185" t="str">
         <f t="shared" ref="S3:S9" si="1">J3</f>
-        <v>obj_00273#0001</v>
+        <v>obj_00273#0003</v>
       </c>
       <c r="T3" s="120">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S3,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U3" s="120">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S3,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="W3" s="3" t="str">
         <f t="shared" ref="W3:W34" si="2">IFERROR(INDEX($L$3:$L$111,MATCH(Y3,$M$3:$M$111,0),1),"")</f>
@@ -14030,7 +14034,7 @@
       </c>
       <c r="Z3" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X3,Trigger),"")</f>
-        <v>2.1048999999999998E-2</v>
+        <v>1.7756000000000001E-2</v>
       </c>
       <c r="AA3" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X3)),_xll.qlSwapRateHelperSpread($X3))</f>
@@ -14038,14 +14042,14 @@
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X3,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X3,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AD3" s="71">
-        <v>0.99982702444626659</v>
+        <v>0.99995135579103178</v>
       </c>
       <c r="AE3" s="146"/>
       <c r="AG3" s="99" t="s">
@@ -14076,7 +14080,7 @@
       </c>
       <c r="G4" s="58" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B4,"S","1"),"N","D"),C4,Currency,Calendar,E4,D4,F4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00214#0001</v>
+        <v>obj_0021c#0004</v>
       </c>
       <c r="H4" s="108" t="str">
         <f t="shared" si="0"/>
@@ -14085,7 +14089,7 @@
       <c r="I4" s="110"/>
       <c r="J4" s="167" t="str">
         <f>IF(P4,_xll.qlDepositRateHelper(,H4,G4,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0026c#0001</v>
+        <v>obj_0026e#0003</v>
       </c>
       <c r="K4" s="46"/>
       <c r="L4" s="173" t="str">
@@ -14112,22 +14116,22 @@
       </c>
       <c r="S4" s="122" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0026c#0001</v>
+        <v>obj_0026e#0003</v>
       </c>
       <c r="T4" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S4,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U4" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S4,Trigger),"--")</f>
-        <v>42566</v>
+        <v>42688</v>
       </c>
       <c r="W4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X4" s="3" t="str">
-        <v>obj_0026c</v>
+        <v>obj_0026e</v>
       </c>
       <c r="Y4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X4,Trigger),"")</f>
@@ -14135,7 +14139,7 @@
       </c>
       <c r="Z4" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X4,Trigger),"")</f>
-        <v>2.1034000000000001E-2</v>
+        <v>1.7770999999999999E-2</v>
       </c>
       <c r="AA4" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X4)),_xll.qlSwapRateHelperSpread($X4))</f>
@@ -14143,14 +14147,14 @@
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X4,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X4,Trigger),"")</f>
-        <v>42566</v>
+        <v>42688</v>
       </c>
       <c r="AD4" s="71">
-        <v>0.99959677087849286</v>
+        <v>0.99965930241577372</v>
       </c>
       <c r="AE4" s="146"/>
       <c r="AG4" s="99" t="s">
@@ -14181,7 +14185,7 @@
       </c>
       <c r="G5" s="58" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B5,"S","1"),"N","D"),C5,Currency,Calendar,E5,D5,F5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00212#0001</v>
+        <v>obj_00219#0004</v>
       </c>
       <c r="H5" s="108" t="str">
         <f t="shared" si="0"/>
@@ -14190,7 +14194,7 @@
       <c r="I5" s="110"/>
       <c r="J5" s="167" t="str">
         <f>IF(P5,_xll.qlDepositRateHelper(,H5,G5,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00272#0001</v>
+        <v>obj_00274#0003</v>
       </c>
       <c r="K5" s="46"/>
       <c r="L5" s="173" t="str">
@@ -14217,22 +14221,22 @@
       </c>
       <c r="S5" s="122" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00272#0001</v>
+        <v>obj_00274#0003</v>
       </c>
       <c r="T5" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S5,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U5" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S5,Trigger),"--")</f>
-        <v>42573</v>
+        <v>42695</v>
       </c>
       <c r="W5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X5" s="3" t="str">
-        <v>obj_00272</v>
+        <v>obj_00274</v>
       </c>
       <c r="Y5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X5,Trigger),"")</f>
@@ -14240,7 +14244,7 @@
       </c>
       <c r="Z5" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X5,Trigger),"")</f>
-        <v>2.0979000000000001E-2</v>
+        <v>1.7794000000000001E-2</v>
       </c>
       <c r="AA5" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X5)),_xll.qlSwapRateHelperSpread($X5))</f>
@@ -14248,14 +14252,14 @@
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X5,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X5,Trigger),"")</f>
-        <v>42573</v>
+        <v>42695</v>
       </c>
       <c r="AD5" s="71">
-        <v>0.99919597300709362</v>
+        <v>0.99931795591258865</v>
       </c>
       <c r="AE5" s="146"/>
       <c r="AF5" s="74"/>
@@ -14287,7 +14291,7 @@
       </c>
       <c r="G6" s="6" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B6,"S","1"),"N","D"),C6,Currency,Calendar,E6,D6,F6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00210#0001</v>
+        <v>obj_00215#0004</v>
       </c>
       <c r="H6" s="109" t="str">
         <f t="shared" si="0"/>
@@ -14296,7 +14300,7 @@
       <c r="I6" s="111"/>
       <c r="J6" s="166" t="str">
         <f>IF(P6,_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00274#0001</v>
+        <v>obj_00271#0003</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="173" t="str">
@@ -14323,22 +14327,22 @@
       </c>
       <c r="S6" s="122" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00274#0001</v>
+        <v>obj_00271#0003</v>
       </c>
       <c r="T6" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S6,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U6" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S6,Trigger),"--")</f>
-        <v>42580</v>
+        <v>42702</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X6" s="3" t="str">
-        <v>obj_00274</v>
+        <v>obj_00271</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X6,Trigger),"")</f>
@@ -14346,7 +14350,7 @@
       </c>
       <c r="Z6" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X6,Trigger),"")</f>
-        <v>2.0895E-2</v>
+        <v>1.7808999999999998E-2</v>
       </c>
       <c r="AA6" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X6)),_xll.qlSwapRateHelperSpread($X6))</f>
@@ -14354,14 +14358,14 @@
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X6,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X6,Trigger),"")</f>
-        <v>42580</v>
+        <v>42702</v>
       </c>
       <c r="AD6" s="71">
-        <v>0.99879926541460917</v>
+        <v>0.99897642138942722</v>
       </c>
       <c r="AE6" s="146"/>
       <c r="AG6" s="99" t="s">
@@ -14393,7 +14397,7 @@
       <c r="I7" s="110"/>
       <c r="J7" s="167" t="str">
         <f>IF(P7,_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00271#0001</v>
+        <v>obj_00272#0003</v>
       </c>
       <c r="K7" s="46"/>
       <c r="L7" s="173" t="str">
@@ -14420,22 +14424,22 @@
       </c>
       <c r="S7" s="122" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00271#0001</v>
+        <v>obj_00272#0003</v>
       </c>
       <c r="T7" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S7,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U7" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S7,Trigger),"--")</f>
-        <v>42590</v>
+        <v>42711</v>
       </c>
       <c r="W7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X7" s="3" t="str">
-        <v>obj_00271</v>
+        <v>obj_00272</v>
       </c>
       <c r="Y7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X7,Trigger),"")</f>
@@ -14443,7 +14447,7 @@
       </c>
       <c r="Z7" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X7,Trigger),"")</f>
-        <v>2.0740000000000001E-2</v>
+        <v>1.7808000000000001E-2</v>
       </c>
       <c r="AA7" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X7)),_xll.qlSwapRateHelperSpread($X7))</f>
@@ -14451,14 +14455,14 @@
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X7,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X7,Trigger),"")</f>
-        <v>42590</v>
+        <v>42711</v>
       </c>
       <c r="AD7" s="71">
-        <v>0.99824161790187982</v>
+        <v>0.9985384679695164</v>
       </c>
       <c r="AE7" s="146"/>
     </row>
@@ -14484,7 +14488,7 @@
       <c r="I8" s="110"/>
       <c r="J8" s="167" t="str">
         <f>IF(P8,_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00270#0001</v>
+        <v>obj_00270#0003</v>
       </c>
       <c r="K8" s="46"/>
       <c r="L8" s="173" t="str">
@@ -14511,15 +14515,15 @@
       </c>
       <c r="S8" s="122" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00270#0001</v>
+        <v>obj_00270#0003</v>
       </c>
       <c r="T8" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S8,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U8" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S8,Trigger),"--")</f>
-        <v>42621</v>
+        <v>42744</v>
       </c>
       <c r="W8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14534,7 +14538,7 @@
       </c>
       <c r="Z8" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X8,Trigger),"")</f>
-        <v>2.0185999999999999E-2</v>
+        <v>1.7753999999999999E-2</v>
       </c>
       <c r="AA8" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X8)),_xll.qlSwapRateHelperSpread($X8))</f>
@@ -14542,14 +14546,14 @@
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X8,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X8,Trigger),"")</f>
-        <v>42621</v>
+        <v>42744</v>
       </c>
       <c r="AD8" s="71">
-        <v>0.99658286207523639</v>
+        <v>0.99694497275092631</v>
       </c>
       <c r="AE8" s="146"/>
     </row>
@@ -14575,7 +14579,7 @@
       <c r="I9" s="111"/>
       <c r="J9" s="166" t="str">
         <f>IF(P9,_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00268#0001</v>
+        <v>obj_0026d#0003</v>
       </c>
       <c r="K9" s="46"/>
       <c r="L9" s="175" t="str">
@@ -14602,22 +14606,22 @@
       </c>
       <c r="S9" s="186" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00268#0001</v>
+        <v>obj_0026d#0003</v>
       </c>
       <c r="T9" s="94">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S9,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U9" s="94">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S9,Trigger),"--")</f>
-        <v>42653</v>
+        <v>42773</v>
       </c>
       <c r="W9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X9" s="3" t="str">
-        <v>obj_00268</v>
+        <v>obj_0026d</v>
       </c>
       <c r="Y9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X9,Trigger),"")</f>
@@ -14625,7 +14629,7 @@
       </c>
       <c r="Z9" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X9,Trigger),"")</f>
-        <v>1.9904000000000002E-2</v>
+        <v>1.7794999999999998E-2</v>
       </c>
       <c r="AA9" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X9)),_xll.qlSwapRateHelperSpread($X9))</f>
@@ -14633,14 +14637,14 @@
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X9,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X9,Trigger),"")</f>
-        <v>42653</v>
+        <v>42773</v>
       </c>
       <c r="AD9" s="71">
-        <v>0.99490017983870171</v>
+        <v>0.99553471315011466</v>
       </c>
       <c r="AE9" s="146"/>
       <c r="AH9" s="44" t="s">
@@ -14699,11 +14703,11 @@
       </c>
       <c r="Y10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X10,Trigger),"")</f>
-        <v>AUDFUT3MU6_Quote</v>
+        <v>AUDFUT3MZ6_Quote</v>
       </c>
       <c r="Z10" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X10,Trigger),"")</f>
-        <v>1.8849999999999922E-2</v>
+        <v>1.7750000000000044E-2</v>
       </c>
       <c r="AA10" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X10)),_xll.qlSwapRateHelperSpread($X10))</f>
@@ -14711,14 +14715,14 @@
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X10,Trigger),"")</f>
-        <v>42622</v>
+        <v>42713</v>
       </c>
       <c r="AC10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X10,Trigger),"")</f>
-        <v>42713</v>
+        <v>42803</v>
       </c>
       <c r="AD10" s="71">
-        <v>0.99186868642813342</v>
+        <v>0.99409064458012342</v>
       </c>
       <c r="AE10" s="146"/>
       <c r="AF10" s="67" t="s">
@@ -14813,11 +14817,11 @@
       </c>
       <c r="Y11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X11,Trigger),"")</f>
-        <v>AUDFUT3MZ6_Quote</v>
+        <v>AUDFUT3MH7_Quote</v>
       </c>
       <c r="Z11" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X11,Trigger),"")</f>
-        <v>1.794999999999991E-2</v>
+        <v>1.7450000000000077E-2</v>
       </c>
       <c r="AA11" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X11)),_xll.qlSwapRateHelperSpread($X11))</f>
@@ -14825,14 +14829,14 @@
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X11,Trigger),"")</f>
-        <v>42713</v>
+        <v>42804</v>
       </c>
       <c r="AC11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X11,Trigger),"")</f>
-        <v>42803</v>
+        <v>42899</v>
       </c>
       <c r="AD11" s="71">
-        <v>0.98749799325524623</v>
+        <v>0.98954848180003285</v>
       </c>
       <c r="AE11" s="146"/>
       <c r="AF11" s="128">
@@ -14840,7 +14844,7 @@
       </c>
       <c r="AG11" s="129">
         <f>_xll.qlCalendarEndOfMonth(Calendar,Settlementdate,Trigger)</f>
-        <v>42580</v>
+        <v>42704</v>
       </c>
       <c r="AH11" s="128" t="str">
         <f t="shared" ref="AH11:AH23" si="8">Currency&amp;$AH$9&amp;AF11&amp;JumpSuffix&amp;QuoteSuffix</f>
@@ -14848,7 +14852,7 @@
       </c>
       <c r="AI11" s="150">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG11,_xll.qlCalendarAdvance(Calendar,AG11,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ11" s="130" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH11,Trigger),_xll.qlQuoteValue(AH11,Trigger),1)</f>
@@ -14937,11 +14941,11 @@
       </c>
       <c r="Y12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X12,Trigger),"")</f>
-        <v>AUDFUT3MH7_Quote</v>
+        <v>AUDFUT3MM7_Quote</v>
       </c>
       <c r="Z12" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X12,Trigger),"")</f>
-        <v>1.7450000000000077E-2</v>
+        <v>1.7249999999999988E-2</v>
       </c>
       <c r="AA12" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X12)),_xll.qlSwapRateHelperSpread($X12))</f>
@@ -14949,14 +14953,14 @@
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X12,Trigger),"")</f>
-        <v>42804</v>
+        <v>42895</v>
       </c>
       <c r="AC12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X12,Trigger),"")</f>
-        <v>42899</v>
+        <v>42989</v>
       </c>
       <c r="AD12" s="71">
-        <v>0.98298503800430492</v>
+        <v>0.98535850071268938</v>
       </c>
       <c r="AE12" s="146"/>
       <c r="AF12" s="132">
@@ -14964,7 +14968,7 @@
       </c>
       <c r="AG12" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG11,"1m","mf",TRUE),Trigger)</f>
-        <v>42613</v>
+        <v>42734</v>
       </c>
       <c r="AH12" s="132" t="str">
         <f t="shared" si="8"/>
@@ -14972,7 +14976,7 @@
       </c>
       <c r="AI12" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG12,_xll.qlCalendarAdvance(Calendar,AG12,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ12" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH12,Trigger),_xll.qlQuoteValue(AH12,Trigger),1)</f>
@@ -15055,7 +15059,7 @@
         <v>Sw</v>
       </c>
       <c r="X13" s="3" t="str">
-        <v>obj_00236</v>
+        <v>obj_00247</v>
       </c>
       <c r="Y13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X13,Trigger),"")</f>
@@ -15063,7 +15067,7 @@
       </c>
       <c r="Z13" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X13,Trigger),"")</f>
-        <v>1.8250000000000002E-2</v>
+        <v>1.7475000000000001E-2</v>
       </c>
       <c r="AA13" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X13)),_xll.qlSwapRateHelperSpread($X13))</f>
@@ -15071,14 +15075,14 @@
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X13,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X13,Trigger),"")</f>
-        <v>42927</v>
+        <v>43047</v>
       </c>
       <c r="AD13" s="71">
-        <v>0.98179081075240326</v>
+        <v>0.98266725707298608</v>
       </c>
       <c r="AE13" s="146"/>
       <c r="AF13" s="132">
@@ -15086,7 +15090,7 @@
       </c>
       <c r="AG13" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG12,"1m","mf",TRUE),Trigger)</f>
-        <v>42643</v>
+        <v>42766</v>
       </c>
       <c r="AH13" s="132" t="str">
         <f t="shared" si="8"/>
@@ -15094,7 +15098,7 @@
       </c>
       <c r="AI13" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG13,_xll.qlCalendarAdvance(Calendar,AG13,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ13" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH13,Trigger),_xll.qlQuoteValue(AH13,Trigger),1)</f>
@@ -15177,7 +15181,7 @@
         <v>Sw</v>
       </c>
       <c r="X14" s="3" t="str">
-        <v>obj_00245</v>
+        <v>obj_0023a</v>
       </c>
       <c r="Y14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X14,Trigger),"")</f>
@@ -15185,7 +15189,7 @@
       </c>
       <c r="Z14" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X14,Trigger),"")</f>
-        <v>1.7562500000000002E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="AA14" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X14)),_xll.qlSwapRateHelperSpread($X14))</f>
@@ -15193,14 +15197,14 @@
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X14,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X14,Trigger),"")</f>
-        <v>43292</v>
+        <v>43412</v>
       </c>
       <c r="AD14" s="71">
-        <v>0.96540393777705125</v>
+        <v>0.96505000484869652</v>
       </c>
       <c r="AE14" s="146"/>
       <c r="AF14" s="132">
@@ -15208,7 +15212,7 @@
       </c>
       <c r="AG14" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG13,"1m","mf",TRUE),Trigger)</f>
-        <v>42674</v>
+        <v>42794</v>
       </c>
       <c r="AH14" s="132" t="str">
         <f t="shared" si="8"/>
@@ -15299,7 +15303,7 @@
         <v>Sw</v>
       </c>
       <c r="X15" s="3" t="str">
-        <v>obj_0024d</v>
+        <v>obj_00241</v>
       </c>
       <c r="Y15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X15,Trigger),"")</f>
@@ -15307,7 +15311,7 @@
       </c>
       <c r="Z15" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X15,Trigger),"")</f>
-        <v>1.7525000000000002E-2</v>
+        <v>1.8425000000000004E-2</v>
       </c>
       <c r="AA15" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X15)),_xll.qlSwapRateHelperSpread($X15))</f>
@@ -15315,14 +15319,14 @@
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X15,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X15,Trigger),"")</f>
-        <v>43657</v>
+        <v>43777</v>
       </c>
       <c r="AD15" s="71">
-        <v>0.94874078382370675</v>
+        <v>0.94626355699663345</v>
       </c>
       <c r="AE15" s="146"/>
       <c r="AF15" s="132">
@@ -15330,7 +15334,7 @@
       </c>
       <c r="AG15" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG14,"1m","mf",TRUE),Trigger)</f>
-        <v>42704</v>
+        <v>42825</v>
       </c>
       <c r="AH15" s="132" t="str">
         <f t="shared" si="8"/>
@@ -15338,7 +15342,7 @@
       </c>
       <c r="AI15" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG15,_xll.qlCalendarAdvance(Calendar,AG15,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ15" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH15,Trigger),_xll.qlQuoteValue(AH15,Trigger),1)</f>
@@ -15388,7 +15392,7 @@
       </c>
       <c r="M16" s="182" t="str">
         <f>H20</f>
-        <v>AUDFUT3MQ6_Quote</v>
+        <v>AUDFUT3MX6_Quote</v>
       </c>
       <c r="N16" s="184" t="str">
         <f>IFERROR(_xll.qlQuoteValue(H20),"--")</f>
@@ -15409,22 +15413,22 @@
       </c>
       <c r="S16" s="122" t="str">
         <f t="shared" ref="S16:S37" si="16">J20</f>
-        <v>obj_00275#0001</v>
+        <v>obj_00275#0003</v>
       </c>
       <c r="T16" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S16,Trigger),"--")</f>
-        <v>42594</v>
+        <v>42685</v>
       </c>
       <c r="U16" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S16,Trigger),"--")</f>
-        <v>42688</v>
+        <v>42779</v>
       </c>
       <c r="W16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X16" s="3" t="str">
-        <v>obj_0024e</v>
+        <v>obj_0023c</v>
       </c>
       <c r="Y16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X16,Trigger),"")</f>
@@ -15432,22 +15436,22 @@
       </c>
       <c r="Z16" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X16,Trigger),"")</f>
-        <v>1.9262500000000002E-2</v>
+        <v>2.1112499999999999E-2</v>
       </c>
       <c r="AA16" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X16)),_xll.qlSwapRateHelperSpread($X16))</f>
-        <v>1.5250000000000001E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X16,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X16,Trigger),"")</f>
-        <v>44025</v>
+        <v>44144</v>
       </c>
       <c r="AD16" s="71">
-        <v>0.93148619947489741</v>
+        <v>0.92610950435529449</v>
       </c>
       <c r="AE16" s="146"/>
       <c r="AF16" s="132">
@@ -15455,7 +15459,7 @@
       </c>
       <c r="AG16" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG15,"1m","mf",TRUE),Trigger)</f>
-        <v>42734</v>
+        <v>42853</v>
       </c>
       <c r="AH16" s="132" t="str">
         <f t="shared" si="8"/>
@@ -15513,11 +15517,11 @@
       </c>
       <c r="M17" s="182" t="str">
         <f t="shared" ref="M17:M37" si="17">H21</f>
-        <v>AUDFUT3MU6_Quote</v>
+        <v>AUDFUT3MZ6_Quote</v>
       </c>
       <c r="N17" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H21),"--")</f>
-        <v>98.115000000000009</v>
+        <v>98.224999999999994</v>
       </c>
       <c r="O17" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I21),"--")</f>
@@ -15534,22 +15538,22 @@
       </c>
       <c r="S17" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00276#0001</v>
+        <v>obj_00276#0003</v>
       </c>
       <c r="T17" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S17,Trigger),"--")</f>
-        <v>42622</v>
+        <v>42713</v>
       </c>
       <c r="U17" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S17,Trigger),"--")</f>
-        <v>42713</v>
+        <v>42803</v>
       </c>
       <c r="W17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X17" s="3" t="str">
-        <v>obj_00240</v>
+        <v>obj_0023e</v>
       </c>
       <c r="Y17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X17,Trigger),"")</f>
@@ -15557,22 +15561,22 @@
       </c>
       <c r="Z17" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X17,Trigger),"")</f>
-        <v>1.9362500000000001E-2</v>
+        <v>2.1725000000000005E-2</v>
       </c>
       <c r="AA17" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X17)),_xll.qlSwapRateHelperSpread($X17))</f>
-        <v>1.4250000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X17,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X17,Trigger),"")</f>
-        <v>44389</v>
+        <v>44508</v>
       </c>
       <c r="AD17" s="71">
-        <v>0.91428596548408581</v>
+        <v>0.9052944503870044</v>
       </c>
       <c r="AE17" s="146"/>
       <c r="AF17" s="132">
@@ -15580,7 +15584,7 @@
       </c>
       <c r="AG17" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG16,"1m","mf",TRUE),Trigger)</f>
-        <v>42766</v>
+        <v>42886</v>
       </c>
       <c r="AH17" s="132" t="str">
         <f t="shared" si="8"/>
@@ -15621,7 +15625,7 @@
       </c>
       <c r="M18" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MV6_Quote</v>
+        <v>AUDFUT3MF7_Quote</v>
       </c>
       <c r="N18" s="184" t="str">
         <f>IFERROR(_xll.qlQuoteValue(H22),"--")</f>
@@ -15642,22 +15646,22 @@
       </c>
       <c r="S18" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00277#0001</v>
+        <v>obj_00277#0003</v>
       </c>
       <c r="T18" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S18,Trigger),"--")</f>
-        <v>42657</v>
+        <v>42748</v>
       </c>
       <c r="U18" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S18,Trigger),"--")</f>
-        <v>42748</v>
+        <v>42838</v>
       </c>
       <c r="W18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X18" s="3" t="str">
-        <v>obj_0023c</v>
+        <v>obj_0024c</v>
       </c>
       <c r="Y18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X18,Trigger),"")</f>
@@ -15665,22 +15669,22 @@
       </c>
       <c r="Z18" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X18,Trigger),"")</f>
-        <v>1.9825000000000002E-2</v>
+        <v>2.2962500000000007E-2</v>
       </c>
       <c r="AA18" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X18)),_xll.qlSwapRateHelperSpread($X18))</f>
-        <v>1.2750000000000001E-3</v>
+        <v>1.6125E-3</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X18,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X18,Trigger),"")</f>
-        <v>45118</v>
+        <v>45238</v>
       </c>
       <c r="AD18" s="71">
-        <v>0.87833889605128268</v>
+        <v>0.86109644748426839</v>
       </c>
       <c r="AE18" s="146"/>
       <c r="AF18" s="132">
@@ -15688,7 +15692,7 @@
       </c>
       <c r="AG18" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG17,"1m","mf",TRUE),Trigger)</f>
-        <v>42794</v>
+        <v>42916</v>
       </c>
       <c r="AH18" s="132" t="str">
         <f t="shared" si="8"/>
@@ -15696,7 +15700,7 @@
       </c>
       <c r="AI18" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG18,_xll.qlCalendarAdvance(Calendar,AG18,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ18" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH18,Trigger),_xll.qlQuoteValue(AH18,Trigger),1)</f>
@@ -15744,7 +15748,7 @@
       </c>
       <c r="M19" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MX6_Quote</v>
+        <v>AUDFUT3MG7_Quote</v>
       </c>
       <c r="N19" s="184" t="str">
         <f>IFERROR(_xll.qlQuoteValue(H23),"--")</f>
@@ -15765,22 +15769,22 @@
       </c>
       <c r="S19" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00278#0001</v>
+        <v>obj_00278#0003</v>
       </c>
       <c r="T19" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S19,Trigger),"--")</f>
-        <v>42685</v>
+        <v>42776</v>
       </c>
       <c r="U19" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S19,Trigger),"--")</f>
-        <v>42779</v>
+        <v>42865</v>
       </c>
       <c r="W19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X19" s="3" t="str">
-        <v>obj_00242</v>
+        <v>obj_00251</v>
       </c>
       <c r="Y19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X19,Trigger),"")</f>
@@ -15788,22 +15792,22 @@
       </c>
       <c r="Z19" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X19,Trigger),"")</f>
-        <v>2.0724999999999997E-2</v>
+        <v>2.4525000000000005E-2</v>
       </c>
       <c r="AA19" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X19)),_xll.qlSwapRateHelperSpread($X19))</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.3625E-3</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X19,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X19,Trigger),"")</f>
-        <v>46216</v>
+        <v>46335</v>
       </c>
       <c r="AD19" s="71">
-        <v>0.82146484719882618</v>
+        <v>0.79229057930686775</v>
       </c>
       <c r="AE19" s="146"/>
       <c r="AF19" s="132">
@@ -15811,7 +15815,7 @@
       </c>
       <c r="AG19" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG18,"1m","mf",TRUE),Trigger)</f>
-        <v>42825</v>
+        <v>42947</v>
       </c>
       <c r="AH19" s="132" t="str">
         <f t="shared" si="8"/>
@@ -15819,7 +15823,7 @@
       </c>
       <c r="AI19" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG19,_xll.qlCalendarAdvance(Calendar,AG19,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ19" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH19,Trigger),_xll.qlQuoteValue(AH19,Trigger),1)</f>
@@ -15844,7 +15848,7 @@
       </c>
       <c r="C20" s="54" t="str">
         <f>_xll.qlASXNextCode(Evaluationdate+1,B20,Trigger)</f>
-        <v>Q6</v>
+        <v>X6</v>
       </c>
       <c r="D20" s="116"/>
       <c r="E20" s="116"/>
@@ -15855,15 +15859,15 @@
       </c>
       <c r="H20" s="105" t="str">
         <f t="shared" ref="H20:H41" si="19">Currency&amp;"FUT"&amp;$G$1&amp;$C20&amp;QuoteSuffix</f>
-        <v>AUDFUT3MQ6_Quote</v>
+        <v>AUDFUT3MX6_Quote</v>
       </c>
       <c r="I20" s="105" t="str">
         <f t="shared" ref="I20:I41" si="20">Currency&amp;"FUT"&amp;$G$1&amp;$C20&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT3MQ6ConvAdj_Quote</v>
+        <v>AUDFUT3MX6ConvAdj_Quote</v>
       </c>
       <c r="J20" s="165" t="str">
         <f>IF(P16,_xll.qlFuturesRateHelper(,H20,$H$18,_xll.qlASXdate(C20),G20,I20,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00275#0001</v>
+        <v>obj_00275#0003</v>
       </c>
       <c r="K20" s="46"/>
       <c r="L20" s="173" t="str">
@@ -15872,11 +15876,11 @@
       </c>
       <c r="M20" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MZ6_Quote</v>
+        <v>AUDFUT3MH7_Quote</v>
       </c>
       <c r="N20" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H24),"--")</f>
-        <v>98.205000000000013</v>
+        <v>98.254999999999995</v>
       </c>
       <c r="O20" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I24),"--")</f>
@@ -15893,22 +15897,22 @@
       </c>
       <c r="S20" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00279#0001</v>
+        <v>obj_00279#0003</v>
       </c>
       <c r="T20" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S20,Trigger),"--")</f>
-        <v>42713</v>
+        <v>42804</v>
       </c>
       <c r="U20" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S20,Trigger),"--")</f>
-        <v>42803</v>
+        <v>42899</v>
       </c>
       <c r="W20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X20" s="3" t="str">
-        <v>obj_00244</v>
+        <v>obj_0023f</v>
       </c>
       <c r="Y20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X20,Trigger),"")</f>
@@ -15916,22 +15920,22 @@
       </c>
       <c r="Z20" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X20,Trigger),"")</f>
-        <v>2.1349999999999997E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="AA20" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X20)),_xll.qlSwapRateHelperSpread($X20))</f>
-        <v>9.875000000000001E-4</v>
+        <v>1.2375000000000001E-3</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X20,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X20,Trigger),"")</f>
-        <v>46945</v>
+        <v>47065</v>
       </c>
       <c r="AD20" s="71">
-        <v>0.78243494831519789</v>
+        <v>0.74654244940144332</v>
       </c>
       <c r="AE20" s="146"/>
       <c r="AF20" s="132">
@@ -15939,7 +15943,7 @@
       </c>
       <c r="AG20" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG19,"1m","mf",TRUE),Trigger)</f>
-        <v>42853</v>
+        <v>42978</v>
       </c>
       <c r="AH20" s="132" t="str">
         <f t="shared" si="8"/>
@@ -15947,7 +15951,7 @@
       </c>
       <c r="AI20" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG20,_xll.qlCalendarAdvance(Calendar,AG20,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ20" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH20,Trigger),_xll.qlQuoteValue(AH20,Trigger),1)</f>
@@ -15972,7 +15976,7 @@
       </c>
       <c r="C21" s="59" t="str">
         <f>_xll.qlASXNextCode(C20,B21,Trigger)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
@@ -15983,15 +15987,15 @@
       </c>
       <c r="H21" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MU6_Quote</v>
+        <v>AUDFUT3MZ6_Quote</v>
       </c>
       <c r="I21" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MU6ConvAdj_Quote</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J21" s="167" t="str">
         <f>IF(P17,_xll.qlFuturesRateHelper(,H21,$H$18,_xll.qlASXdate(C21),G21,I21,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00276#0001</v>
+        <v>obj_00276#0003</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="173" t="str">
@@ -16000,11 +16004,11 @@
       </c>
       <c r="M21" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MH7_Quote</v>
+        <v>AUDFUT3MM7_Quote</v>
       </c>
       <c r="N21" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H25),"--")</f>
-        <v>98.254999999999995</v>
+        <v>98.275000000000006</v>
       </c>
       <c r="O21" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I25),"--")</f>
@@ -16021,22 +16025,22 @@
       </c>
       <c r="S21" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0027a#0001</v>
+        <v>obj_0027a#0003</v>
       </c>
       <c r="T21" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S21,Trigger),"--")</f>
-        <v>42804</v>
+        <v>42895</v>
       </c>
       <c r="U21" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S21,Trigger),"--")</f>
-        <v>42899</v>
+        <v>42989</v>
       </c>
       <c r="W21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X21" s="3" t="str">
-        <v>obj_00250</v>
+        <v>obj_00246</v>
       </c>
       <c r="Y21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X21,Trigger),"")</f>
@@ -16044,22 +16048,22 @@
       </c>
       <c r="Z21" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X21,Trigger),"")</f>
-        <v>2.2099999999999998E-2</v>
+        <v>2.6375000000000003E-2</v>
       </c>
       <c r="AA21" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X21)),_xll.qlSwapRateHelperSpread($X21))</f>
-        <v>8.8750000000000005E-4</v>
+        <v>1.0625000000000001E-3</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X21,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X21,Trigger),"")</f>
-        <v>48040</v>
+        <v>48162</v>
       </c>
       <c r="AD21" s="71">
-        <v>0.72585223864105097</v>
+        <v>0.6808458655984031</v>
       </c>
       <c r="AE21" s="146"/>
       <c r="AF21" s="132">
@@ -16067,7 +16071,7 @@
       </c>
       <c r="AG21" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG20,"1m","mf",TRUE),Trigger)</f>
-        <v>42886</v>
+        <v>43007</v>
       </c>
       <c r="AH21" s="132" t="str">
         <f t="shared" si="8"/>
@@ -16075,7 +16079,7 @@
       </c>
       <c r="AI21" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG21,_xll.qlCalendarAdvance(Calendar,AG21,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AJ21" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH21,Trigger),_xll.qlQuoteValue(AH21,Trigger),1)</f>
@@ -16100,7 +16104,7 @@
       </c>
       <c r="C22" s="59" t="str">
         <f>_xll.qlASXNextCode(C21,B22,Trigger)</f>
-        <v>V6</v>
+        <v>F7</v>
       </c>
       <c r="D22" s="110"/>
       <c r="E22" s="110"/>
@@ -16111,15 +16115,15 @@
       </c>
       <c r="H22" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MV6_Quote</v>
+        <v>AUDFUT3MF7_Quote</v>
       </c>
       <c r="I22" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MV6ConvAdj_Quote</v>
+        <v>AUDFUT3MF7ConvAdj_Quote</v>
       </c>
       <c r="J22" s="167" t="str">
         <f>IF(P18,_xll.qlFuturesRateHelper(,H22,$H$18,_xll.qlASXdate(C22),G22,I22,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00277#0001</v>
+        <v>obj_00277#0003</v>
       </c>
       <c r="K22" s="46"/>
       <c r="L22" s="173" t="str">
@@ -16128,11 +16132,11 @@
       </c>
       <c r="M22" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MM7_Quote</v>
+        <v>AUDFUT3MU7_Quote</v>
       </c>
       <c r="N22" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H26),"--")</f>
-        <v>98.275000000000006</v>
+        <v>98.265000000000001</v>
       </c>
       <c r="O22" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I26),"--")</f>
@@ -16149,22 +16153,22 @@
       </c>
       <c r="S22" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0027b#0001</v>
+        <v>obj_0027b#0003</v>
       </c>
       <c r="T22" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S22,Trigger),"--")</f>
-        <v>42895</v>
+        <v>42986</v>
       </c>
       <c r="U22" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S22,Trigger),"--")</f>
-        <v>42989</v>
+        <v>43077</v>
       </c>
       <c r="W22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X22" s="3" t="str">
-        <v>obj_00246</v>
+        <v>obj_00244</v>
       </c>
       <c r="Y22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X22,Trigger),"")</f>
@@ -16172,22 +16176,22 @@
       </c>
       <c r="Z22" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X22,Trigger),"")</f>
-        <v>2.2700000000000001E-2</v>
+        <v>2.7350000000000003E-2</v>
       </c>
       <c r="AA22" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X22)),_xll.qlSwapRateHelperSpread($X22))</f>
-        <v>7.8750000000000001E-4</v>
+        <v>9.5E-4</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X22,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X22,Trigger),"")</f>
-        <v>49867</v>
+        <v>49989</v>
       </c>
       <c r="AD22" s="71">
-        <v>0.64253663178441256</v>
+        <v>0.58464421156223478</v>
       </c>
       <c r="AE22" s="146"/>
       <c r="AF22" s="132">
@@ -16195,7 +16199,7 @@
       </c>
       <c r="AG22" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG21,"1m","mf",TRUE),Trigger)</f>
-        <v>42916</v>
+        <v>43039</v>
       </c>
       <c r="AH22" s="132" t="str">
         <f t="shared" si="8"/>
@@ -16203,7 +16207,7 @@
       </c>
       <c r="AI22" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG22,_xll.qlCalendarAdvance(Calendar,AG22,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ22" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH22,Trigger),_xll.qlQuoteValue(AH22,Trigger),1)</f>
@@ -16228,7 +16232,7 @@
       </c>
       <c r="C23" s="59" t="str">
         <f>_xll.qlASXNextCode(C22,B23,Trigger)</f>
-        <v>X6</v>
+        <v>G7</v>
       </c>
       <c r="D23" s="110"/>
       <c r="E23" s="110"/>
@@ -16239,15 +16243,15 @@
       </c>
       <c r="H23" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MX6_Quote</v>
+        <v>AUDFUT3MG7_Quote</v>
       </c>
       <c r="I23" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MX6ConvAdj_Quote</v>
+        <v>AUDFUT3MG7ConvAdj_Quote</v>
       </c>
       <c r="J23" s="167" t="str">
         <f>IF(P19,_xll.qlFuturesRateHelper(,H23,$H$18,_xll.qlASXdate(C23),G23,I23,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00278#0001</v>
+        <v>obj_00278#0003</v>
       </c>
       <c r="K23" s="46"/>
       <c r="L23" s="173" t="str">
@@ -16256,11 +16260,11 @@
       </c>
       <c r="M23" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MU7_Quote</v>
+        <v>AUDFUT3MZ7_Quote</v>
       </c>
       <c r="N23" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H27),"--")</f>
-        <v>98.295000000000002</v>
+        <v>98.245000000000005</v>
       </c>
       <c r="O23" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I27),"--")</f>
@@ -16277,22 +16281,22 @@
       </c>
       <c r="S23" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0027c#0001</v>
+        <v>obj_0027c#0003</v>
       </c>
       <c r="T23" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S23,Trigger),"--")</f>
-        <v>42986</v>
+        <v>43077</v>
       </c>
       <c r="U23" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S23,Trigger),"--")</f>
-        <v>43077</v>
+        <v>43167</v>
       </c>
       <c r="W23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X23" s="3" t="str">
-        <v>obj_00243</v>
+        <v>obj_00239</v>
       </c>
       <c r="Y23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X23,Trigger),"")</f>
@@ -16300,22 +16304,22 @@
       </c>
       <c r="Z23" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X23,Trigger),"")</f>
-        <v>2.3000000000000003E-2</v>
+        <v>2.7925000000000005E-2</v>
       </c>
       <c r="AA23" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X23)),_xll.qlSwapRateHelperSpread($X23))</f>
-        <v>6.8749999999999996E-4</v>
+        <v>9.2500000000000004E-4</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X23,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X23,Trigger),"")</f>
-        <v>51693</v>
+        <v>51813</v>
       </c>
       <c r="AD23" s="71">
-        <v>0.56910373906691503</v>
+        <v>0.50284375782501611</v>
       </c>
       <c r="AE23" s="146"/>
       <c r="AF23" s="136">
@@ -16356,7 +16360,7 @@
       </c>
       <c r="C24" s="8" t="str">
         <f>_xll.qlASXNextCode(C23,B24,Trigger)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D24" s="111"/>
       <c r="E24" s="111"/>
@@ -16367,15 +16371,15 @@
       </c>
       <c r="H24" s="107" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MZ6_Quote</v>
+        <v>AUDFUT3MH7_Quote</v>
       </c>
       <c r="I24" s="107" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MZ6ConvAdj_Quote</v>
+        <v>AUDFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J24" s="166" t="str">
         <f>IF(P20,_xll.qlFuturesRateHelper(,H24,$H$18,_xll.qlASXdate(C24),G24,I24,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00279#0001</v>
+        <v>obj_00279#0003</v>
       </c>
       <c r="K24" s="46"/>
       <c r="L24" s="173" t="str">
@@ -16384,11 +16388,11 @@
       </c>
       <c r="M24" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MZ7_Quote</v>
+        <v>AUDFUT3MH8_Quote</v>
       </c>
       <c r="N24" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H28),"--")</f>
-        <v>98.305000000000007</v>
+        <v>98.205000000000013</v>
       </c>
       <c r="O24" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I28),"--")</f>
@@ -16405,22 +16409,22 @@
       </c>
       <c r="S24" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0027d#0001</v>
+        <v>obj_0027d#0003</v>
       </c>
       <c r="T24" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S24,Trigger),"--")</f>
-        <v>43077</v>
+        <v>43168</v>
       </c>
       <c r="U24" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S24,Trigger),"--")</f>
-        <v>43167</v>
+        <v>43263</v>
       </c>
       <c r="W24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BasSw</v>
       </c>
       <c r="X24" s="3" t="str">
-        <v>obj_0024c</v>
+        <v>obj_00238</v>
       </c>
       <c r="Y24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X24,Trigger),"")</f>
@@ -16428,22 +16432,22 @@
       </c>
       <c r="Z24" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X24,Trigger),"")</f>
-        <v>2.29625E-2</v>
+        <v>2.7950000000000003E-2</v>
       </c>
       <c r="AA24" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X24)),_xll.qlSwapRateHelperSpread($X24))</f>
-        <v>6.4999999999999997E-4</v>
+        <v>8.1249999999999996E-4</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X24,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X24,Trigger),"")</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="AD24" s="71">
-        <v>0.50932871634338728</v>
+        <v>0.43716879925970792</v>
       </c>
       <c r="AE24" s="146"/>
     </row>
@@ -16456,7 +16460,7 @@
       </c>
       <c r="C25" s="59" t="str">
         <f>_xll.qlASXNextCode(C24,B25,Trigger)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
@@ -16467,15 +16471,15 @@
       </c>
       <c r="H25" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MH7_Quote</v>
+        <v>AUDFUT3MM7_Quote</v>
       </c>
       <c r="I25" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MH7ConvAdj_Quote</v>
+        <v>AUDFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J25" s="167" t="str">
         <f>IF(P21,_xll.qlFuturesRateHelper(,H25,$H$18,_xll.qlASXdate(C25),G25,I25,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0027a#0001</v>
+        <v>obj_0027a#0003</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="173" t="str">
@@ -16484,11 +16488,11 @@
       </c>
       <c r="M25" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MH8_Quote</v>
+        <v>AUDFUT3MM8_Quote</v>
       </c>
       <c r="N25" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H29),"--")</f>
-        <v>98.305000000000007</v>
+        <v>98.164999999999992</v>
       </c>
       <c r="O25" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I29),"--")</f>
@@ -16505,15 +16509,15 @@
       </c>
       <c r="S25" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0027e#0001</v>
+        <v>obj_0027e#0003</v>
       </c>
       <c r="T25" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S25,Trigger),"--")</f>
-        <v>43168</v>
+        <v>43259</v>
       </c>
       <c r="U25" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S25,Trigger),"--")</f>
-        <v>43263</v>
+        <v>43353</v>
       </c>
       <c r="W25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -16556,7 +16560,7 @@
       </c>
       <c r="C26" s="59" t="str">
         <f>_xll.qlASXNextCode(C25,B26,Trigger)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D26" s="110"/>
       <c r="E26" s="110"/>
@@ -16567,15 +16571,15 @@
       </c>
       <c r="H26" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MM7_Quote</v>
+        <v>AUDFUT3MU7_Quote</v>
       </c>
       <c r="I26" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MM7ConvAdj_Quote</v>
+        <v>AUDFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J26" s="167" t="str">
         <f>IF(P22,_xll.qlFuturesRateHelper(,H26,$H$18,_xll.qlASXdate(C26),G26,I26,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0027b#0001</v>
+        <v>obj_0027b#0003</v>
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="173" t="str">
@@ -16584,11 +16588,11 @@
       </c>
       <c r="M26" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MM8_Quote</v>
+        <v>AUDFUT3MU8_Quote</v>
       </c>
       <c r="N26" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H30),"--")</f>
-        <v>98.295000000000002</v>
+        <v>98.125</v>
       </c>
       <c r="O26" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I30),"--")</f>
@@ -16605,15 +16609,15 @@
       </c>
       <c r="S26" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0027f#0001</v>
+        <v>obj_0027f#0003</v>
       </c>
       <c r="T26" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S26,Trigger),"--")</f>
-        <v>43259</v>
+        <v>43357</v>
       </c>
       <c r="U26" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S26,Trigger),"--")</f>
-        <v>43353</v>
+        <v>43448</v>
       </c>
       <c r="W26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -16656,7 +16660,7 @@
       </c>
       <c r="C27" s="59" t="str">
         <f>_xll.qlASXNextCode(C26,B27,Trigger)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D27" s="110"/>
       <c r="E27" s="110"/>
@@ -16667,15 +16671,15 @@
       </c>
       <c r="H27" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MU7_Quote</v>
+        <v>AUDFUT3MZ7_Quote</v>
       </c>
       <c r="I27" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MU7ConvAdj_Quote</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J27" s="167" t="str">
         <f>IF(P23,_xll.qlFuturesRateHelper(,H27,$H$18,_xll.qlASXdate(C27),G27,I27,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0027c#0001</v>
+        <v>obj_0027c#0003</v>
       </c>
       <c r="K27" s="46"/>
       <c r="L27" s="173" t="str">
@@ -16684,11 +16688,11 @@
       </c>
       <c r="M27" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MU8_Quote</v>
+        <v>AUDFUT3MZ8_Quote</v>
       </c>
       <c r="N27" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H31),"--")</f>
-        <v>98.284999999999997</v>
+        <v>98.085000000000008</v>
       </c>
       <c r="O27" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I31),"--")</f>
@@ -16705,15 +16709,15 @@
       </c>
       <c r="S27" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00280#0001</v>
+        <v>obj_00280#0003</v>
       </c>
       <c r="T27" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S27,Trigger),"--")</f>
-        <v>43357</v>
+        <v>43448</v>
       </c>
       <c r="U27" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S27,Trigger),"--")</f>
-        <v>43448</v>
+        <v>43538</v>
       </c>
       <c r="W27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -16756,7 +16760,7 @@
       </c>
       <c r="C28" s="59" t="str">
         <f>_xll.qlASXNextCode(C27,B28,Trigger)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D28" s="110"/>
       <c r="E28" s="110"/>
@@ -16767,15 +16771,15 @@
       </c>
       <c r="H28" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MZ7_Quote</v>
+        <v>AUDFUT3MH8_Quote</v>
       </c>
       <c r="I28" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MZ7ConvAdj_Quote</v>
+        <v>AUDFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J28" s="167" t="str">
         <f>IF(P24,_xll.qlFuturesRateHelper(,H28,$H$18,_xll.qlASXdate(C28),G28,I28,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0027d#0001</v>
+        <v>obj_0027d#0003</v>
       </c>
       <c r="K28" s="46"/>
       <c r="L28" s="173" t="str">
@@ -16784,11 +16788,11 @@
       </c>
       <c r="M28" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MZ8_Quote</v>
+        <v>AUDFUT3MH9_Quote</v>
       </c>
       <c r="N28" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H32),"--")</f>
-        <v>98.259999999999991</v>
+        <v>98.039999999999992</v>
       </c>
       <c r="O28" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I32),"--")</f>
@@ -16805,15 +16809,15 @@
       </c>
       <c r="S28" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00281#0001</v>
+        <v>obj_00281#0003</v>
       </c>
       <c r="T28" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S28,Trigger),"--")</f>
-        <v>43448</v>
+        <v>43532</v>
       </c>
       <c r="U28" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S28,Trigger),"--")</f>
-        <v>43538</v>
+        <v>43627</v>
       </c>
       <c r="W28" s="3" t="str">
         <f t="shared" si="2"/>
@@ -16856,7 +16860,7 @@
       </c>
       <c r="C29" s="59" t="str">
         <f>_xll.qlASXNextCode(C28,B29,Trigger)</f>
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="D29" s="110"/>
       <c r="E29" s="110"/>
@@ -16867,15 +16871,15 @@
       </c>
       <c r="H29" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MH8_Quote</v>
+        <v>AUDFUT3MM8_Quote</v>
       </c>
       <c r="I29" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MH8ConvAdj_Quote</v>
+        <v>AUDFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J29" s="167" t="str">
         <f>IF(P25,_xll.qlFuturesRateHelper(,H29,$H$18,_xll.qlASXdate(C29),G29,I29,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0027e#0001</v>
+        <v>obj_0027e#0003</v>
       </c>
       <c r="K29" s="46"/>
       <c r="L29" s="173" t="str">
@@ -16884,11 +16888,11 @@
       </c>
       <c r="M29" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MH9_Quote</v>
+        <v>AUDFUT3MM9_Quote</v>
       </c>
       <c r="N29" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H33),"--")</f>
-        <v>98.234999999999999</v>
+        <v>97.995000000000005</v>
       </c>
       <c r="O29" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I33),"--")</f>
@@ -16905,15 +16909,15 @@
       </c>
       <c r="S29" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00282#0001</v>
+        <v>obj_00282#0003</v>
       </c>
       <c r="T29" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S29,Trigger),"--")</f>
-        <v>43532</v>
+        <v>43630</v>
       </c>
       <c r="U29" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S29,Trigger),"--")</f>
-        <v>43627</v>
+        <v>43721</v>
       </c>
       <c r="W29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -16956,7 +16960,7 @@
       </c>
       <c r="C30" s="59" t="str">
         <f>_xll.qlASXNextCode(C29,B30,Trigger)</f>
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="D30" s="110"/>
       <c r="E30" s="110"/>
@@ -16967,15 +16971,15 @@
       </c>
       <c r="H30" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MM8_Quote</v>
+        <v>AUDFUT3MU8_Quote</v>
       </c>
       <c r="I30" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MM8ConvAdj_Quote</v>
+        <v>AUDFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J30" s="167" t="str">
         <f>IF(P26,_xll.qlFuturesRateHelper(,H30,$H$18,_xll.qlASXdate(C30),G30,I30,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0027f#0001</v>
+        <v>obj_0027f#0003</v>
       </c>
       <c r="K30" s="46"/>
       <c r="L30" s="173" t="str">
@@ -16984,11 +16988,11 @@
       </c>
       <c r="M30" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MM9_Quote</v>
+        <v>AUDFUT3MU9_Quote</v>
       </c>
       <c r="N30" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H34),"--")</f>
-        <v>98.195000000000007</v>
+        <v>97.954999999999998</v>
       </c>
       <c r="O30" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I34),"--")</f>
@@ -17005,15 +17009,15 @@
       </c>
       <c r="S30" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00283#0001</v>
+        <v>obj_00283#0003</v>
       </c>
       <c r="T30" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S30,Trigger),"--")</f>
-        <v>43630</v>
+        <v>43721</v>
       </c>
       <c r="U30" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S30,Trigger),"--")</f>
-        <v>43721</v>
+        <v>43812</v>
       </c>
       <c r="W30" s="3" t="str">
         <f t="shared" si="2"/>
@@ -17055,7 +17059,7 @@
       </c>
       <c r="C31" s="59" t="str">
         <f>_xll.qlASXNextCode(C30,B31,Trigger)</f>
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="D31" s="110"/>
       <c r="E31" s="110"/>
@@ -17066,15 +17070,15 @@
       </c>
       <c r="H31" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MU8_Quote</v>
+        <v>AUDFUT3MZ8_Quote</v>
       </c>
       <c r="I31" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MU8ConvAdj_Quote</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J31" s="167" t="str">
         <f>IF(P27,_xll.qlFuturesRateHelper(,H31,$H$18,_xll.qlASXdate(C31),G31,I31,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00280#0001</v>
+        <v>obj_00280#0003</v>
       </c>
       <c r="K31" s="46"/>
       <c r="L31" s="173" t="str">
@@ -17083,7 +17087,7 @@
       </c>
       <c r="M31" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MU9_Quote</v>
+        <v>AUDFUT3MZ9_Quote</v>
       </c>
       <c r="N31" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H35),"--")</f>
@@ -17104,15 +17108,15 @@
       </c>
       <c r="S31" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00284#0001</v>
+        <v>obj_00284#0003</v>
       </c>
       <c r="T31" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S31,Trigger),"--")</f>
-        <v>43721</v>
+        <v>43812</v>
       </c>
       <c r="U31" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S31,Trigger),"--")</f>
-        <v>43812</v>
+        <v>43903</v>
       </c>
       <c r="W31" s="3" t="str">
         <f t="shared" si="2"/>
@@ -17154,7 +17158,7 @@
       </c>
       <c r="C32" s="59" t="str">
         <f>_xll.qlASXNextCode(C31,B32,Trigger)</f>
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="D32" s="110"/>
       <c r="E32" s="110"/>
@@ -17165,15 +17169,15 @@
       </c>
       <c r="H32" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MZ8_Quote</v>
+        <v>AUDFUT3MH9_Quote</v>
       </c>
       <c r="I32" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MZ8ConvAdj_Quote</v>
+        <v>AUDFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J32" s="167" t="str">
         <f>IF(P28,_xll.qlFuturesRateHelper(,H32,$H$18,_xll.qlASXdate(C32),G32,I32,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00281#0001</v>
+        <v>obj_00281#0003</v>
       </c>
       <c r="K32" s="46"/>
       <c r="L32" s="173" t="str">
@@ -17182,7 +17186,7 @@
       </c>
       <c r="M32" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MZ9_Quote</v>
+        <v>AUDFUT3MH0_Quote</v>
       </c>
       <c r="N32" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H36),"--")</f>
@@ -17203,15 +17207,15 @@
       </c>
       <c r="S32" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00285#0001</v>
+        <v>obj_00285#0003</v>
       </c>
       <c r="T32" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S32,Trigger),"--")</f>
-        <v>43812</v>
+        <v>43903</v>
       </c>
       <c r="U32" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S32,Trigger),"--")</f>
-        <v>43903</v>
+        <v>43997</v>
       </c>
       <c r="W32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -17253,7 +17257,7 @@
       </c>
       <c r="C33" s="59" t="str">
         <f>_xll.qlASXNextCode(C32,B33,Trigger)</f>
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="D33" s="110"/>
       <c r="E33" s="110"/>
@@ -17264,15 +17268,15 @@
       </c>
       <c r="H33" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MH9_Quote</v>
+        <v>AUDFUT3MM9_Quote</v>
       </c>
       <c r="I33" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MH9ConvAdj_Quote</v>
+        <v>AUDFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J33" s="167" t="str">
         <f>IF(P29,_xll.qlFuturesRateHelper(,H33,$H$18,_xll.qlASXdate(C33),G33,I33,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00282#0001</v>
+        <v>obj_00282#0003</v>
       </c>
       <c r="K33" s="46"/>
       <c r="L33" s="173" t="str">
@@ -17281,7 +17285,7 @@
       </c>
       <c r="M33" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MH0_Quote</v>
+        <v>AUDFUT3MM0_Quote</v>
       </c>
       <c r="N33" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H37),"--")</f>
@@ -17302,15 +17306,15 @@
       </c>
       <c r="S33" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00286#0001</v>
+        <v>obj_00287#0003</v>
       </c>
       <c r="T33" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S33,Trigger),"--")</f>
-        <v>43903</v>
+        <v>43994</v>
       </c>
       <c r="U33" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S33,Trigger),"--")</f>
-        <v>43997</v>
+        <v>44088</v>
       </c>
       <c r="W33" s="3" t="str">
         <f t="shared" si="2"/>
@@ -17352,7 +17356,7 @@
       </c>
       <c r="C34" s="59" t="str">
         <f>_xll.qlASXNextCode(C33,B34,Trigger)</f>
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="D34" s="110"/>
       <c r="E34" s="110"/>
@@ -17363,15 +17367,15 @@
       </c>
       <c r="H34" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MM9_Quote</v>
+        <v>AUDFUT3MU9_Quote</v>
       </c>
       <c r="I34" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MM9ConvAdj_Quote</v>
+        <v>AUDFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J34" s="167" t="str">
         <f>IF(P30,_xll.qlFuturesRateHelper(,H34,$H$18,_xll.qlASXdate(C34),G34,I34,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00283#0001</v>
+        <v>obj_00283#0003</v>
       </c>
       <c r="K34" s="46"/>
       <c r="L34" s="173" t="str">
@@ -17380,11 +17384,11 @@
       </c>
       <c r="M34" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MM0_Quote</v>
+        <v>AUDFUT3MU0_Quote</v>
       </c>
       <c r="N34" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H38),"--")</f>
-        <v>0</v>
+        <v>98.134999999999991</v>
       </c>
       <c r="O34" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I38),"--")</f>
@@ -17401,15 +17405,15 @@
       </c>
       <c r="S34" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_00288#0001</v>
+        <v>obj_00289#0003</v>
       </c>
       <c r="T34" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S34,Trigger),"--")</f>
-        <v>43994</v>
+        <v>44085</v>
       </c>
       <c r="U34" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S34,Trigger),"--")</f>
-        <v>44088</v>
+        <v>44176</v>
       </c>
       <c r="W34" s="3" t="str">
         <f t="shared" si="2"/>
@@ -17451,7 +17455,7 @@
       </c>
       <c r="C35" s="59" t="str">
         <f>_xll.qlASXNextCode(C34,B35,Trigger)</f>
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="D35" s="110"/>
       <c r="E35" s="110"/>
@@ -17462,15 +17466,15 @@
       </c>
       <c r="H35" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MU9_Quote</v>
+        <v>AUDFUT3MZ9_Quote</v>
       </c>
       <c r="I35" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MU9ConvAdj_Quote</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J35" s="167" t="str">
         <f>IF(P31,_xll.qlFuturesRateHelper(,H35,$H$18,_xll.qlASXdate(C35),G35,I35,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00284#0001</v>
+        <v>obj_00284#0003</v>
       </c>
       <c r="K35" s="46"/>
       <c r="L35" s="173" t="str">
@@ -17479,11 +17483,11 @@
       </c>
       <c r="M35" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MU0_Quote</v>
+        <v>AUDFUT3MZ0_Quote</v>
       </c>
       <c r="N35" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H39),"--")</f>
-        <v>0</v>
+        <v>98.09</v>
       </c>
       <c r="O35" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I39),"--")</f>
@@ -17500,15 +17504,15 @@
       </c>
       <c r="S35" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0028b#0001</v>
+        <v>obj_0028b#0003</v>
       </c>
       <c r="T35" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S35,Trigger),"--")</f>
-        <v>44085</v>
+        <v>44176</v>
       </c>
       <c r="U35" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S35,Trigger),"--")</f>
-        <v>44176</v>
+        <v>44266</v>
       </c>
       <c r="W35" s="3" t="str">
         <f t="shared" ref="W35:W66" si="21">IFERROR(INDEX($L$3:$L$111,MATCH(Y35,$M$3:$M$111,0),1),"")</f>
@@ -17550,7 +17554,7 @@
       </c>
       <c r="C36" s="59" t="str">
         <f>_xll.qlASXNextCode(C35,B36,Trigger)</f>
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="D36" s="110"/>
       <c r="E36" s="110"/>
@@ -17561,15 +17565,15 @@
       </c>
       <c r="H36" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MZ9_Quote</v>
+        <v>AUDFUT3MH0_Quote</v>
       </c>
       <c r="I36" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MZ9ConvAdj_Quote</v>
+        <v>AUDFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J36" s="167" t="str">
         <f>IF(P32,_xll.qlFuturesRateHelper(,H36,$H$18,_xll.qlASXdate(C36),G36,I36,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00285#0001</v>
+        <v>obj_00285#0003</v>
       </c>
       <c r="K36" s="46"/>
       <c r="L36" s="173" t="str">
@@ -17578,11 +17582,11 @@
       </c>
       <c r="M36" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MZ0_Quote</v>
+        <v>AUDFUT3MH1_Quote</v>
       </c>
       <c r="N36" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H40),"--")</f>
-        <v>0</v>
+        <v>98.064999999999998</v>
       </c>
       <c r="O36" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I40),"--")</f>
@@ -17599,15 +17603,15 @@
       </c>
       <c r="S36" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0028c#0001</v>
+        <v>obj_0028c#0003</v>
       </c>
       <c r="T36" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S36,Trigger),"--")</f>
-        <v>44176</v>
+        <v>44267</v>
       </c>
       <c r="U36" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S36,Trigger),"--")</f>
-        <v>44266</v>
+        <v>44362</v>
       </c>
       <c r="W36" s="3" t="str">
         <f t="shared" si="21"/>
@@ -17649,7 +17653,7 @@
       </c>
       <c r="C37" s="59" t="str">
         <f>_xll.qlASXNextCode(C36,B37,Trigger)</f>
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="D37" s="110"/>
       <c r="E37" s="110"/>
@@ -17660,15 +17664,15 @@
       </c>
       <c r="H37" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MH0_Quote</v>
+        <v>AUDFUT3MM0_Quote</v>
       </c>
       <c r="I37" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MH0ConvAdj_Quote</v>
+        <v>AUDFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="J37" s="167" t="str">
         <f>IF(P33,_xll.qlFuturesRateHelper(,H37,$H$18,_xll.qlASXdate(C37),G37,I37,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00286#0001</v>
+        <v>obj_00287#0003</v>
       </c>
       <c r="K37" s="46"/>
       <c r="L37" s="173" t="str">
@@ -17677,11 +17681,11 @@
       </c>
       <c r="M37" s="182" t="str">
         <f t="shared" si="17"/>
-        <v>AUDFUT3MH1_Quote</v>
+        <v>AUDFUT3MM1_Quote</v>
       </c>
       <c r="N37" s="184">
         <f>IFERROR(_xll.qlQuoteValue(H41),"--")</f>
-        <v>0</v>
+        <v>98.09</v>
       </c>
       <c r="O37" s="174">
         <f>IFERROR(_xll.qlQuoteValue(I41),"--")</f>
@@ -17698,15 +17702,15 @@
       </c>
       <c r="S37" s="122" t="str">
         <f t="shared" si="16"/>
-        <v>obj_0028d#0001</v>
+        <v>obj_0028d#0003</v>
       </c>
       <c r="T37" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S37,Trigger),"--")</f>
-        <v>44267</v>
+        <v>44358</v>
       </c>
       <c r="U37" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S37,Trigger),"--")</f>
-        <v>44362</v>
+        <v>44452</v>
       </c>
       <c r="W37" s="3" t="str">
         <f t="shared" si="21"/>
@@ -17748,7 +17752,7 @@
       </c>
       <c r="C38" s="59" t="str">
         <f>_xll.qlASXNextCode(C37,B38,Trigger)</f>
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="D38" s="110"/>
       <c r="E38" s="110"/>
@@ -17759,15 +17763,15 @@
       </c>
       <c r="H38" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MM0_Quote</v>
+        <v>AUDFUT3MU0_Quote</v>
       </c>
       <c r="I38" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MM0ConvAdj_Quote</v>
+        <v>AUDFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="J38" s="167" t="str">
         <f>IF(P34,_xll.qlFuturesRateHelper(,H38,$H$18,_xll.qlASXdate(C38),G38,I38,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00288#0001</v>
+        <v>obj_00289#0003</v>
       </c>
       <c r="K38" s="46"/>
       <c r="L38" s="171" t="str">
@@ -17797,15 +17801,15 @@
       </c>
       <c r="S38" s="185" t="str">
         <f t="shared" ref="S38:S74" si="23">J44</f>
-        <v>obj_00236#0001</v>
+        <v>obj_00247#0003</v>
       </c>
       <c r="T38" s="120">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S38,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U38" s="120">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S38,Trigger),"--")</f>
-        <v>42927</v>
+        <v>43047</v>
       </c>
       <c r="W38" s="3" t="str">
         <f t="shared" si="21"/>
@@ -17847,7 +17851,7 @@
       </c>
       <c r="C39" s="59" t="str">
         <f>_xll.qlASXNextCode(C38,B39,Trigger)</f>
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="D39" s="110"/>
       <c r="E39" s="110"/>
@@ -17858,15 +17862,15 @@
       </c>
       <c r="H39" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MU0_Quote</v>
+        <v>AUDFUT3MZ0_Quote</v>
       </c>
       <c r="I39" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MU0ConvAdj_Quote</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="J39" s="167" t="str">
         <f>IF(P35,_xll.qlFuturesRateHelper(,H39,$H$18,_xll.qlASXdate(C39),G39,I39,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0028b#0001</v>
+        <v>obj_0028b#0003</v>
       </c>
       <c r="K39" s="46"/>
       <c r="L39" s="173" t="str">
@@ -17946,7 +17950,7 @@
       </c>
       <c r="C40" s="59" t="str">
         <f>_xll.qlASXNextCode(C39,B40,Trigger)</f>
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="D40" s="110"/>
       <c r="E40" s="110"/>
@@ -17957,15 +17961,15 @@
       </c>
       <c r="H40" s="106" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MZ0_Quote</v>
+        <v>AUDFUT3MH1_Quote</v>
       </c>
       <c r="I40" s="106" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MZ0ConvAdj_Quote</v>
+        <v>AUDFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="J40" s="167" t="str">
         <f>IF(P36,_xll.qlFuturesRateHelper(,H40,$H$18,_xll.qlASXdate(C40),G40,I40,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0028c#0001</v>
+        <v>obj_0028c#0003</v>
       </c>
       <c r="K40" s="46"/>
       <c r="L40" s="173" t="str">
@@ -18045,7 +18049,7 @@
       </c>
       <c r="C41" s="8" t="str">
         <f>_xll.qlASXNextCode(C40,B41,Trigger)</f>
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="D41" s="111"/>
       <c r="E41" s="111"/>
@@ -18056,15 +18060,15 @@
       </c>
       <c r="H41" s="107" t="str">
         <f t="shared" si="19"/>
-        <v>AUDFUT3MH1_Quote</v>
+        <v>AUDFUT3MM1_Quote</v>
       </c>
       <c r="I41" s="107" t="str">
         <f t="shared" si="20"/>
-        <v>AUDFUT3MH1ConvAdj_Quote</v>
+        <v>AUDFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="J41" s="166" t="str">
         <f>IF(P37,_xll.qlFuturesRateHelper(,H41,$H$18,_xll.qlASXdate(C41),G41,I41,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0028d#0001</v>
+        <v>obj_0028d#0003</v>
       </c>
       <c r="L41" s="173" t="str">
         <f t="shared" si="22"/>
@@ -18168,15 +18172,15 @@
       </c>
       <c r="S42" s="122" t="str">
         <f t="shared" si="23"/>
-        <v>obj_00245#0001</v>
+        <v>obj_0023a#0003</v>
       </c>
       <c r="T42" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S42,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U42" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S42,Trigger),"--")</f>
-        <v>43292</v>
+        <v>43412</v>
       </c>
       <c r="W42" s="3" t="str">
         <f t="shared" si="21"/>
@@ -18267,15 +18271,15 @@
       </c>
       <c r="S43" s="122" t="str">
         <f t="shared" si="23"/>
-        <v>obj_0024d#0001</v>
+        <v>obj_00241#0003</v>
       </c>
       <c r="T43" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S43,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U43" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S43,Trigger),"--")</f>
-        <v>43657</v>
+        <v>43777</v>
       </c>
       <c r="W43" s="3" t="str">
         <f t="shared" si="21"/>
@@ -18340,7 +18344,7 @@
       </c>
       <c r="J44" s="167" t="str">
         <f>IF(P38,_xll.qlSwapRateHelper2(,H44,1,B44,Calendar,D44,E44,F44,G44,I44,C44,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00236#0001</v>
+        <v>obj_00247#0003</v>
       </c>
       <c r="L44" s="173" t="str">
         <f t="shared" si="22"/>
@@ -18748,7 +18752,7 @@
       </c>
       <c r="J48" s="167" t="str">
         <f>IF(P42,_xll.qlSwapRateHelper2(,H48,1,B48,Calendar,D48,E48,F48,G48,I48,C48,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00245#0001</v>
+        <v>obj_0023a#0003</v>
       </c>
       <c r="L48" s="173" t="str">
         <f t="shared" si="22"/>
@@ -18850,7 +18854,7 @@
       </c>
       <c r="J49" s="167" t="str">
         <f>IF(P43,_xll.qlSwapRateHelper2(,H49,1,B49,Calendar,D49,E49,F49,G49,I49,C49,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0024d#0001</v>
+        <v>obj_00241#0003</v>
       </c>
       <c r="L49" s="173" t="str">
         <f t="shared" si="22"/>
@@ -22116,15 +22120,15 @@
       </c>
       <c r="S81" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_0024e#0001</v>
+        <v>obj_0023c#0003</v>
       </c>
       <c r="T81" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S81,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U81" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S81,Trigger),"--")</f>
-        <v>44025</v>
+        <v>44144</v>
       </c>
       <c r="W81" s="3" t="str">
         <f t="shared" si="28"/>
@@ -22215,15 +22219,15 @@
       </c>
       <c r="S82" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_00240#0001</v>
+        <v>obj_0023e#0003</v>
       </c>
       <c r="T82" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S82,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U82" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S82,Trigger),"--")</f>
-        <v>44389</v>
+        <v>44508</v>
       </c>
       <c r="W82" s="3" t="str">
         <f t="shared" si="28"/>
@@ -22421,15 +22425,15 @@
       </c>
       <c r="S84" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_0023c#0001</v>
+        <v>obj_0024c#0003</v>
       </c>
       <c r="T84" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S84,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U84" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S84,Trigger),"--")</f>
-        <v>45118</v>
+        <v>45238</v>
       </c>
       <c r="W84" s="3" t="str">
         <f t="shared" si="28"/>
@@ -22730,15 +22734,15 @@
       </c>
       <c r="S87" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_00242#0001</v>
+        <v>obj_00251#0003</v>
       </c>
       <c r="T87" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S87,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U87" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S87,Trigger),"--")</f>
-        <v>46216</v>
+        <v>46335</v>
       </c>
       <c r="W87" s="3" t="str">
         <f t="shared" si="28"/>
@@ -22907,7 +22911,7 @@
       </c>
       <c r="J89" s="167" t="str">
         <f>IF(P81,_xll.qlSwapRateHelper2(,H89,1,B89,Calendar,D89,E89,F89,G89,I89,C89,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0024e#0001</v>
+        <v>obj_0023c#0003</v>
       </c>
       <c r="L89" s="173" t="str">
         <f t="shared" si="29"/>
@@ -22936,15 +22940,15 @@
       </c>
       <c r="S89" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_00244#0001</v>
+        <v>obj_0023f#0003</v>
       </c>
       <c r="T89" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S89,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U89" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S89,Trigger),"--")</f>
-        <v>46945</v>
+        <v>47065</v>
       </c>
       <c r="W89" s="3" t="str">
         <f t="shared" si="28"/>
@@ -23010,7 +23014,7 @@
       </c>
       <c r="J90" s="167" t="str">
         <f>IF(P82,_xll.qlSwapRateHelper2(,H90,1,B90,Calendar,D90,E90,F90,G90,I90,C90,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00240#0001</v>
+        <v>obj_0023e#0003</v>
       </c>
       <c r="K90" s="44" t="s">
         <v>35</v>
@@ -23219,7 +23223,7 @@
       </c>
       <c r="J92" s="167" t="str">
         <f>IF(P84,_xll.qlSwapRateHelper2(,H92,1,B92,Calendar,D92,E92,F92,G92,I92,C92,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0023c#0001</v>
+        <v>obj_0024c#0003</v>
       </c>
       <c r="L92" s="173" t="str">
         <f t="shared" si="29"/>
@@ -23248,15 +23252,15 @@
       </c>
       <c r="S92" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_00250#0001</v>
+        <v>obj_00246#0003</v>
       </c>
       <c r="T92" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S92,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U92" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S92,Trigger),"--")</f>
-        <v>48040</v>
+        <v>48162</v>
       </c>
       <c r="W92" s="3" t="str">
         <f t="shared" si="28"/>
@@ -23528,7 +23532,7 @@
       </c>
       <c r="J95" s="167" t="str">
         <f>IF(P87,_xll.qlSwapRateHelper2(,H95,1,B95,Calendar,D95,E95,F95,G95,I95,C95,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00242#0001</v>
+        <v>obj_00251#0003</v>
       </c>
       <c r="L95" s="173" t="str">
         <f t="shared" si="29"/>
@@ -23734,7 +23738,7 @@
       </c>
       <c r="J97" s="167" t="str">
         <f>IF(P89,_xll.qlSwapRateHelper2(,H97,1,B97,Calendar,D97,E97,F97,G97,I97,C97,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00244#0001</v>
+        <v>obj_0023f#0003</v>
       </c>
       <c r="L97" s="173" t="str">
         <f t="shared" si="29"/>
@@ -23763,15 +23767,15 @@
       </c>
       <c r="S97" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_00246#0001</v>
+        <v>obj_00244#0003</v>
       </c>
       <c r="T97" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S97,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U97" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S97,Trigger),"--")</f>
-        <v>49867</v>
+        <v>49989</v>
       </c>
       <c r="W97" s="3" t="str">
         <f t="shared" si="28"/>
@@ -24043,7 +24047,7 @@
       </c>
       <c r="J100" s="167" t="str">
         <f>IF(P92,_xll.qlSwapRateHelper2(,H100,1,B100,Calendar,D100,E100,F100,G100,I100,C100,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00250#0001</v>
+        <v>obj_00246#0003</v>
       </c>
       <c r="L100" s="173" t="str">
         <f t="shared" si="29"/>
@@ -24278,15 +24282,15 @@
       </c>
       <c r="S102" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_00243#0001</v>
+        <v>obj_00239#0003</v>
       </c>
       <c r="T102" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S102,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U102" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S102,Trigger),"--")</f>
-        <v>51693</v>
+        <v>51813</v>
       </c>
       <c r="W102" s="3" t="str">
         <f t="shared" si="35"/>
@@ -24558,7 +24562,7 @@
       </c>
       <c r="J105" s="167" t="str">
         <f>IF(P97,_xll.qlSwapRateHelper2(,H105,1,B105,Calendar,D105,E105,F105,G105,I105,C105,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00246#0001</v>
+        <v>obj_00244#0003</v>
       </c>
       <c r="L105" s="173" t="str">
         <f t="shared" si="29"/>
@@ -24793,15 +24797,15 @@
       </c>
       <c r="S107" s="122" t="str">
         <f t="shared" si="30"/>
-        <v>obj_0024c#0001</v>
+        <v>obj_00238#0003</v>
       </c>
       <c r="T107" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S107,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U107" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S107,Trigger),"--")</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="W107" s="3" t="str">
         <f t="shared" si="35"/>
@@ -25073,7 +25077,7 @@
       </c>
       <c r="J110" s="167" t="str">
         <f>IF(P102,_xll.qlSwapRateHelper2(,H110,1,B110,Calendar,D110,E110,F110,G110,I110,C110,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00243#0001</v>
+        <v>obj_00239#0003</v>
       </c>
       <c r="L110" s="173" t="str">
         <f t="shared" si="29"/>
@@ -25284,7 +25288,7 @@
       <c r="L112" s="145"/>
       <c r="Y112" s="187" t="str">
         <f>_xll.ohGroup("AUD3M_instruments",_xll.ohPack(Y3:Y111),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3M_instruments#0001</v>
+        <v>AUD3M_instruments#0003</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -25394,7 +25398,7 @@
       </c>
       <c r="J115" s="167" t="str">
         <f>IF(P107,_xll.qlSwapRateHelper2(,H115,1,B115,Calendar,D115,E115,F115,G115,I115,C115,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0024c#0001</v>
+        <v>obj_00238#0003</v>
       </c>
       <c r="L115" s="145"/>
     </row>
@@ -25761,7 +25765,7 @@
       </c>
       <c r="G3" s="53" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B3,"S","1"),"N","D"),C3,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021c#0001</v>
+        <v>obj_0021a#0004</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H12" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -25770,7 +25774,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="165" t="str">
         <f>IF(P3,_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0026a#0001</v>
+        <v>obj_00267#0003</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="171" t="str">
@@ -25797,15 +25801,15 @@
       </c>
       <c r="S3" s="118" t="str">
         <f t="shared" ref="S3:S12" si="1">J3</f>
-        <v>obj_0026a#0001</v>
+        <v>obj_00267#0003</v>
       </c>
       <c r="T3" s="120">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S3,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U3" s="120">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S3,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="W3" s="3" t="str">
         <f t="shared" ref="W3:W34" si="2">IFERROR(INDEX($L$3:$L$95,MATCH(Y3,$M$3:$M$95,0),1),"")</f>
@@ -25813,7 +25817,7 @@
       </c>
       <c r="X3" s="3" t="str">
         <f t="array" ref="X3:X95">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AK$3,$AK$4,$AK$5,$AK$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_0026a</v>
+        <v>obj_00267</v>
       </c>
       <c r="Y3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X3,Trigger),"")</f>
@@ -25821,7 +25825,7 @@
       </c>
       <c r="Z3" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X3,Trigger),"")</f>
-        <v>2.3171000000000001E-2</v>
+        <v>2.0177E-2</v>
       </c>
       <c r="AA3" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X3)),_xll.qlSwapRateHelperSpread($X3))</f>
@@ -25829,14 +25833,14 @@
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X3,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X3,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AD3" s="71">
-        <v>0.99980958968764944</v>
+        <v>0.99994472360359399</v>
       </c>
       <c r="AE3" s="146"/>
       <c r="AG3" s="156" t="s">
@@ -25867,7 +25871,7 @@
       </c>
       <c r="G4" s="58" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B4,"S","1"),"N","D"),C4,Currency,Calendar,E4,D4,F4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021b#0001</v>
+        <v>obj_00218#0004</v>
       </c>
       <c r="H4" s="108" t="str">
         <f t="shared" si="0"/>
@@ -25876,7 +25880,7 @@
       <c r="I4" s="110"/>
       <c r="J4" s="167" t="str">
         <f>IF(P4,_xll.qlDepositRateHelper(,H4,G4,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00263#0001</v>
+        <v>obj_0026c#0003</v>
       </c>
       <c r="K4" s="46"/>
       <c r="L4" s="173" t="str">
@@ -25903,22 +25907,22 @@
       </c>
       <c r="S4" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00263#0001</v>
+        <v>obj_0026c#0003</v>
       </c>
       <c r="T4" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S4,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U4" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S4,Trigger),"--")</f>
-        <v>42566</v>
+        <v>42688</v>
       </c>
       <c r="W4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X4" s="3" t="str">
-        <v>obj_00263</v>
+        <v>obj_0026c</v>
       </c>
       <c r="Y4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X4,Trigger),"")</f>
@@ -25926,7 +25930,7 @@
       </c>
       <c r="Z4" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X4,Trigger),"")</f>
-        <v>2.3153E-2</v>
+        <v>2.0187E-2</v>
       </c>
       <c r="AA4" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X4)),_xll.qlSwapRateHelperSpread($X4))</f>
@@ -25934,14 +25938,14 @@
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X4,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X4,Trigger),"")</f>
-        <v>42566</v>
+        <v>42688</v>
       </c>
       <c r="AD4" s="71">
-        <v>0.99955616693827076</v>
+        <v>0.99961300188032121</v>
       </c>
       <c r="AE4" s="146"/>
       <c r="AG4" s="99" t="s">
@@ -25972,7 +25976,7 @@
       </c>
       <c r="G5" s="58" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B5,"S","1"),"N","D"),C5,Currency,Calendar,E5,D5,F5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00217#0001</v>
+        <v>obj_00214#0004</v>
       </c>
       <c r="H5" s="108" t="str">
         <f t="shared" si="0"/>
@@ -25981,7 +25985,7 @@
       <c r="I5" s="110"/>
       <c r="J5" s="167" t="str">
         <f>IF(P5,_xll.qlDepositRateHelper(,H5,G5,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0026b#0001</v>
+        <v>obj_00262#0003</v>
       </c>
       <c r="K5" s="46"/>
       <c r="L5" s="173" t="str">
@@ -26008,22 +26012,22 @@
       </c>
       <c r="S5" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0026b#0001</v>
+        <v>obj_00262#0003</v>
       </c>
       <c r="T5" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S5,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U5" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S5,Trigger),"--")</f>
-        <v>42573</v>
+        <v>42695</v>
       </c>
       <c r="W5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X5" s="3" t="str">
-        <v>obj_0026b</v>
+        <v>obj_00262</v>
       </c>
       <c r="Y5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X5,Trigger),"")</f>
@@ -26031,7 +26035,7 @@
       </c>
       <c r="Z5" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X5,Trigger),"")</f>
-        <v>2.3094E-2</v>
+        <v>2.0205000000000001E-2</v>
       </c>
       <c r="AA5" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X5)),_xll.qlSwapRateHelperSpread($X5))</f>
@@ -26039,14 +26043,14 @@
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X5,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X5,Trigger),"")</f>
-        <v>42573</v>
+        <v>42695</v>
       </c>
       <c r="AD5" s="71">
-        <v>0.99911498668221799</v>
+        <v>0.99922561383729802</v>
       </c>
       <c r="AE5" s="146"/>
       <c r="AF5" s="74"/>
@@ -26078,7 +26082,7 @@
       </c>
       <c r="G6" s="6" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B6,"S","1"),"N","D"),C6,Currency,Calendar,E6,D6,F6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0021a#0001</v>
+        <v>obj_00216#0004</v>
       </c>
       <c r="H6" s="109" t="str">
         <f t="shared" si="0"/>
@@ -26087,7 +26091,7 @@
       <c r="I6" s="111"/>
       <c r="J6" s="166" t="str">
         <f>IF(P6,_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00267#0001</v>
+        <v>obj_0026b#0003</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="173" t="str">
@@ -26114,22 +26118,22 @@
       </c>
       <c r="S6" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00267#0001</v>
+        <v>obj_0026b#0003</v>
       </c>
       <c r="T6" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S6,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U6" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S6,Trigger),"--")</f>
-        <v>42580</v>
+        <v>42702</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X6" s="3" t="str">
-        <v>obj_00267</v>
+        <v>obj_0026b</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X6,Trigger),"")</f>
@@ -26137,7 +26141,7 @@
       </c>
       <c r="Z6" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X6,Trigger),"")</f>
-        <v>2.3005999999999999E-2</v>
+        <v>2.0215E-2</v>
       </c>
       <c r="AA6" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X6)),_xll.qlSwapRateHelperSpread($X6))</f>
@@ -26145,14 +26149,14 @@
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X6,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X6,Trigger),"")</f>
-        <v>42580</v>
+        <v>42702</v>
       </c>
       <c r="AD6" s="71">
-        <v>0.99867811681133545</v>
+        <v>0.99883829633050214</v>
       </c>
       <c r="AE6" s="146"/>
       <c r="AG6" s="99" t="s">
@@ -26184,7 +26188,7 @@
       <c r="I7" s="116"/>
       <c r="J7" s="165" t="str">
         <f>IF(P7,_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00269#0001</v>
+        <v>obj_00263#0003</v>
       </c>
       <c r="K7" s="46"/>
       <c r="L7" s="173" t="str">
@@ -26211,22 +26215,22 @@
       </c>
       <c r="S7" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00269#0001</v>
+        <v>obj_00263#0003</v>
       </c>
       <c r="T7" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S7,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U7" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S7,Trigger),"--")</f>
-        <v>42590</v>
+        <v>42711</v>
       </c>
       <c r="W7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X7" s="3" t="str">
-        <v>obj_00269</v>
+        <v>obj_00263</v>
       </c>
       <c r="Y7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X7,Trigger),"")</f>
@@ -26234,7 +26238,7 @@
       </c>
       <c r="Z7" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X7,Trigger),"")</f>
-        <v>2.2842000000000001E-2</v>
+        <v>2.0208E-2</v>
       </c>
       <c r="AA7" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X7)),_xll.qlSwapRateHelperSpread($X7))</f>
@@ -26242,14 +26246,14 @@
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X7,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X7,Trigger),"")</f>
-        <v>42590</v>
+        <v>42711</v>
       </c>
       <c r="AD7" s="71">
-        <v>0.99806375085449983</v>
+        <v>0.9983418226122428</v>
       </c>
       <c r="AE7" s="146"/>
     </row>
@@ -26275,7 +26279,7 @@
       <c r="I8" s="110"/>
       <c r="J8" s="167" t="str">
         <f>IF(P8,_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0025f#0001</v>
+        <v>obj_00256#0003</v>
       </c>
       <c r="K8" s="46"/>
       <c r="L8" s="173" t="str">
@@ -26302,22 +26306,22 @@
       </c>
       <c r="S8" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0025f#0001</v>
+        <v>obj_00256#0003</v>
       </c>
       <c r="T8" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S8,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U8" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S8,Trigger),"--")</f>
-        <v>42621</v>
+        <v>42744</v>
       </c>
       <c r="W8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X8" s="3" t="str">
-        <v>obj_0025f</v>
+        <v>obj_00256</v>
       </c>
       <c r="Y8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X8,Trigger),"")</f>
@@ -26325,7 +26329,7 @@
       </c>
       <c r="Z8" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X8,Trigger),"")</f>
-        <v>2.2259000000000001E-2</v>
+        <v>2.0126999999999999E-2</v>
       </c>
       <c r="AA8" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X8)),_xll.qlSwapRateHelperSpread($X8))</f>
@@ -26333,14 +26337,14 @@
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X8,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X8,Trigger),"")</f>
-        <v>42621</v>
+        <v>42744</v>
       </c>
       <c r="AD8" s="71">
-        <v>0.99623326114545252</v>
+        <v>0.99653805138167117</v>
       </c>
       <c r="AE8" s="146"/>
     </row>
@@ -26366,7 +26370,7 @@
       <c r="I9" s="110"/>
       <c r="J9" s="167" t="str">
         <f>IF(P9,_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00266#0001</v>
+        <v>obj_0026a#0003</v>
       </c>
       <c r="K9" s="46"/>
       <c r="L9" s="173" t="str">
@@ -26393,22 +26397,22 @@
       </c>
       <c r="S9" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00266#0001</v>
+        <v>obj_0026a#0003</v>
       </c>
       <c r="T9" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S9,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U9" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S9,Trigger),"--")</f>
-        <v>42653</v>
+        <v>42773</v>
       </c>
       <c r="W9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X9" s="3" t="str">
-        <v>obj_00266</v>
+        <v>obj_0026a</v>
       </c>
       <c r="Y9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X9,Trigger),"")</f>
@@ -26416,7 +26420,7 @@
       </c>
       <c r="Z9" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X9,Trigger),"")</f>
-        <v>2.1937000000000002E-2</v>
+        <v>2.0146000000000001E-2</v>
       </c>
       <c r="AA9" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X9)),_xll.qlSwapRateHelperSpread($X9))</f>
@@ -26424,14 +26428,14 @@
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X9,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X9,Trigger),"")</f>
-        <v>42653</v>
+        <v>42773</v>
       </c>
       <c r="AD9" s="71">
-        <v>0.99438220910415054</v>
+        <v>0.99494775886408737</v>
       </c>
       <c r="AE9" s="146"/>
       <c r="AH9" s="44" t="s">
@@ -26460,7 +26464,7 @@
       <c r="I10" s="110"/>
       <c r="J10" s="167" t="str">
         <f>IF(P10,_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00262#0001</v>
+        <v>obj_00269#0003</v>
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="173" t="str">
@@ -26487,22 +26491,22 @@
       </c>
       <c r="S10" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00262#0001</v>
+        <v>obj_00269#0003</v>
       </c>
       <c r="T10" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S10,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U10" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S10,Trigger),"--")</f>
-        <v>42682</v>
+        <v>42801</v>
       </c>
       <c r="W10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X10" s="3" t="str">
-        <v>obj_00262</v>
+        <v>obj_00269</v>
       </c>
       <c r="Y10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X10,Trigger),"")</f>
@@ -26510,7 +26514,7 @@
       </c>
       <c r="Z10" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X10,Trigger),"")</f>
-        <v>2.1645999999999999E-2</v>
+        <v>2.0115999999999998E-2</v>
       </c>
       <c r="AA10" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X10)),_xll.qlSwapRateHelperSpread($X10))</f>
@@ -26518,14 +26522,14 @@
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X10,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X10,Trigger),"")</f>
-        <v>42682</v>
+        <v>42801</v>
       </c>
       <c r="AD10" s="71">
-        <v>0.99275841755918415</v>
+        <v>0.99342997129776689</v>
       </c>
       <c r="AE10" s="146"/>
       <c r="AF10" s="67" t="s">
@@ -26575,7 +26579,7 @@
       <c r="I11" s="110"/>
       <c r="J11" s="167" t="str">
         <f>IF(P11,_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00265#0001</v>
+        <v>obj_00266#0003</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="173" t="str">
@@ -26602,22 +26606,22 @@
       </c>
       <c r="S11" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00265#0001</v>
+        <v>obj_00266#0003</v>
       </c>
       <c r="T11" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S11,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U11" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S11,Trigger),"--")</f>
-        <v>42712</v>
+        <v>42832</v>
       </c>
       <c r="W11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X11" s="3" t="str">
-        <v>obj_00265</v>
+        <v>obj_00266</v>
       </c>
       <c r="Y11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X11,Trigger),"")</f>
@@ -26625,7 +26629,7 @@
       </c>
       <c r="Z11" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X11,Trigger),"")</f>
-        <v>2.1373E-2</v>
+        <v>2.0042000000000001E-2</v>
       </c>
       <c r="AA11" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X11)),_xll.qlSwapRateHelperSpread($X11))</f>
@@ -26633,14 +26637,14 @@
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X11,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X11,Trigger),"")</f>
-        <v>42712</v>
+        <v>42832</v>
       </c>
       <c r="AD11" s="71">
-        <v>0.99112045947996918</v>
+        <v>0.99177683319201093</v>
       </c>
       <c r="AE11" s="146"/>
       <c r="AF11" s="128">
@@ -26648,7 +26652,7 @@
       </c>
       <c r="AG11" s="129">
         <f>_xll.qlCalendarEndOfMonth(Calendar,Settlementdate,Trigger)</f>
-        <v>42580</v>
+        <v>42704</v>
       </c>
       <c r="AH11" s="128" t="str">
         <f t="shared" ref="AH11:AH23" si="7">Currency&amp;$AH$9&amp;AF11&amp;JumpSuffix&amp;QuoteSuffix</f>
@@ -26656,7 +26660,7 @@
       </c>
       <c r="AI11" s="150">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG11,_xll.qlCalendarAdvance(Calendar,AG11,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ11" s="130" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH11,Trigger),_xll.qlQuoteValue(AH11,Trigger),1)</f>
@@ -26694,7 +26698,7 @@
       <c r="I12" s="111"/>
       <c r="J12" s="166" t="str">
         <f>IF(P12,_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0026d#0001</v>
+        <v>obj_00268#0003</v>
       </c>
       <c r="K12" s="46" t="s">
         <v>35</v>
@@ -26723,22 +26727,22 @@
       </c>
       <c r="S12" s="89" t="str">
         <f t="shared" si="1"/>
-        <v>obj_0026d#0001</v>
+        <v>obj_00268#0003</v>
       </c>
       <c r="T12" s="94">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S12,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U12" s="94">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S12,Trigger),"--")</f>
-        <v>42744</v>
+        <v>42863</v>
       </c>
       <c r="W12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="X12" s="3" t="str">
-        <v>obj_0026d</v>
+        <v>obj_00268</v>
       </c>
       <c r="Y12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X12,Trigger),"")</f>
@@ -26746,7 +26750,7 @@
       </c>
       <c r="Z12" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X12,Trigger),"")</f>
-        <v>2.1128000000000001E-2</v>
+        <v>1.9993E-2</v>
       </c>
       <c r="AA12" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X12)),_xll.qlSwapRateHelperSpread($X12))</f>
@@ -26754,14 +26758,14 @@
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X12,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X12,Trigger),"")</f>
-        <v>42744</v>
+        <v>42863</v>
       </c>
       <c r="AD12" s="71">
-        <v>0.98940474916448151</v>
+        <v>0.99012928988909332</v>
       </c>
       <c r="AE12" s="146"/>
       <c r="AF12" s="132">
@@ -26769,7 +26773,7 @@
       </c>
       <c r="AG12" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG11,"1m","mf",TRUE),Trigger)</f>
-        <v>42613</v>
+        <v>42734</v>
       </c>
       <c r="AH12" s="132" t="str">
         <f t="shared" si="7"/>
@@ -26777,7 +26781,7 @@
       </c>
       <c r="AI12" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG12,_xll.qlCalendarAdvance(Calendar,AG12,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ12" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH12,Trigger),_xll.qlQuoteValue(AH12,Trigger),1)</f>
@@ -26841,7 +26845,7 @@
         <v>BasSw</v>
       </c>
       <c r="X13" s="3" t="str">
-        <v>obj_00247</v>
+        <v>obj_00249</v>
       </c>
       <c r="Y13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X13,Trigger),"")</f>
@@ -26849,7 +26853,7 @@
       </c>
       <c r="Z13" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X13,Trigger),"")</f>
-        <v>2.0097941450347934E-2</v>
+        <v>1.9736236426983397E-2</v>
       </c>
       <c r="AA13" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X13)),_xll.qlSwapRateHelperSpread($X13))</f>
@@ -26857,14 +26861,14 @@
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X13,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X13,Trigger),"")</f>
-        <v>42927</v>
+        <v>43047</v>
       </c>
       <c r="AD13" s="71">
-        <v>0.97998286989719263</v>
+        <v>0.98046463149918106</v>
       </c>
       <c r="AE13" s="146"/>
       <c r="AF13" s="132">
@@ -26872,7 +26876,7 @@
       </c>
       <c r="AG13" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG12,"1m","mf",TRUE),Trigger)</f>
-        <v>42643</v>
+        <v>42766</v>
       </c>
       <c r="AH13" s="132" t="str">
         <f t="shared" si="7"/>
@@ -26880,7 +26884,7 @@
       </c>
       <c r="AI13" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG13,_xll.qlCalendarAdvance(Calendar,AG13,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ13" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH13,Trigger),_xll.qlQuoteValue(AH13,Trigger),1)</f>
@@ -26959,7 +26963,7 @@
         <v>BasSw</v>
       </c>
       <c r="X14" s="3" t="str">
-        <v>obj_00248</v>
+        <v>obj_0023b</v>
       </c>
       <c r="Y14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X14,Trigger),"")</f>
@@ -26967,7 +26971,7 @@
       </c>
       <c r="Z14" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X14,Trigger),"")</f>
-        <v>1.9332301139284028E-2</v>
+        <v>1.9926480958310715E-2</v>
       </c>
       <c r="AA14" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X14)),_xll.qlSwapRateHelperSpread($X14))</f>
@@ -26975,14 +26979,14 @@
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X14,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X14,Trigger),"")</f>
-        <v>43292</v>
+        <v>43412</v>
       </c>
       <c r="AD14" s="71">
-        <v>0.96201812528674724</v>
+        <v>0.96099392840502595</v>
       </c>
       <c r="AE14" s="146"/>
       <c r="AF14" s="132">
@@ -26990,7 +26994,7 @@
       </c>
       <c r="AG14" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG13,"1m","mf",TRUE),Trigger)</f>
-        <v>42674</v>
+        <v>42794</v>
       </c>
       <c r="AH14" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27081,7 +27085,7 @@
         <v>BasSw</v>
       </c>
       <c r="X15" s="3" t="str">
-        <v>obj_0023e</v>
+        <v>obj_0024d</v>
       </c>
       <c r="Y15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X15,Trigger),"")</f>
@@ -27089,7 +27093,7 @@
       </c>
       <c r="Z15" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X15,Trigger),"")</f>
-        <v>1.9159437479853866E-2</v>
+        <v>2.0444033689970012E-2</v>
       </c>
       <c r="AA15" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X15)),_xll.qlSwapRateHelperSpread($X15))</f>
@@ -27097,14 +27101,14 @@
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X15,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X15,Trigger),"")</f>
-        <v>43657</v>
+        <v>43777</v>
       </c>
       <c r="AD15" s="71">
-        <v>0.94414535559646329</v>
+        <v>0.94061279279511589</v>
       </c>
       <c r="AE15" s="146"/>
       <c r="AF15" s="132">
@@ -27112,7 +27116,7 @@
       </c>
       <c r="AG15" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG14,"1m","mf",TRUE),Trigger)</f>
-        <v>42704</v>
+        <v>42825</v>
       </c>
       <c r="AH15" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27120,7 +27124,7 @@
       </c>
       <c r="AI15" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG15,_xll.qlCalendarAdvance(Calendar,AG15,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ15" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH15,Trigger),_xll.qlQuoteValue(AH15,Trigger),1)</f>
@@ -27211,7 +27215,7 @@
       </c>
       <c r="Z16" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X16,Trigger),"")</f>
-        <v>1.9262500000000002E-2</v>
+        <v>2.1112499999999999E-2</v>
       </c>
       <c r="AA16" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X16)),_xll.qlSwapRateHelperSpread($X16))</f>
@@ -27219,14 +27223,14 @@
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X16,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X16,Trigger),"")</f>
-        <v>44025</v>
+        <v>44144</v>
       </c>
       <c r="AD16" s="71">
-        <v>0.92587717110558543</v>
+        <v>0.91918184200286768</v>
       </c>
       <c r="AE16" s="146"/>
       <c r="AF16" s="132">
@@ -27234,7 +27238,7 @@
       </c>
       <c r="AG16" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG15,"1m","mf",TRUE),Trigger)</f>
-        <v>42734</v>
+        <v>42853</v>
       </c>
       <c r="AH16" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27333,7 +27337,7 @@
       </c>
       <c r="Z17" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X17,Trigger),"")</f>
-        <v>1.9362500000000001E-2</v>
+        <v>2.1725000000000005E-2</v>
       </c>
       <c r="AA17" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X17)),_xll.qlSwapRateHelperSpread($X17))</f>
@@ -27341,14 +27345,14 @@
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X17,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X17,Trigger),"")</f>
-        <v>44389</v>
+        <v>44508</v>
       </c>
       <c r="AD17" s="71">
-        <v>0.907879409475701</v>
+        <v>0.89730475560448031</v>
       </c>
       <c r="AE17" s="146"/>
       <c r="AF17" s="132">
@@ -27356,7 +27360,7 @@
       </c>
       <c r="AG17" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG16,"1m","mf",TRUE),Trigger)</f>
-        <v>42766</v>
+        <v>42886</v>
       </c>
       <c r="AH17" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27447,7 +27451,7 @@
         <v>Sw</v>
       </c>
       <c r="X18" s="3" t="str">
-        <v>obj_00260</v>
+        <v>obj_00258</v>
       </c>
       <c r="Y18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X18,Trigger),"")</f>
@@ -27455,7 +27459,7 @@
       </c>
       <c r="Z18" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X18,Trigger),"")</f>
-        <v>1.9587500000000001E-2</v>
+        <v>2.2350000000000002E-2</v>
       </c>
       <c r="AA18" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X18)),_xll.qlSwapRateHelperSpread($X18))</f>
@@ -27463,14 +27467,14 @@
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X18,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X18,Trigger),"")</f>
-        <v>44753</v>
+        <v>44873</v>
       </c>
       <c r="AD18" s="71">
-        <v>0.88935960925325963</v>
+        <v>0.87471133863552752</v>
       </c>
       <c r="AE18" s="146"/>
       <c r="AF18" s="132">
@@ -27478,7 +27482,7 @@
       </c>
       <c r="AG18" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG17,"1m","mf",TRUE),Trigger)</f>
-        <v>42794</v>
+        <v>42916</v>
       </c>
       <c r="AH18" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27486,7 +27490,7 @@
       </c>
       <c r="AI18" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG18,_xll.qlCalendarAdvance(Calendar,AG18,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ18" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH18,Trigger),_xll.qlQuoteValue(AH18,Trigger),1)</f>
@@ -27569,7 +27573,7 @@
         <v>Sw</v>
       </c>
       <c r="X19" s="3" t="str">
-        <v>obj_00256</v>
+        <v>obj_00253</v>
       </c>
       <c r="Y19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X19,Trigger),"")</f>
@@ -27577,7 +27581,7 @@
       </c>
       <c r="Z19" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X19,Trigger),"")</f>
-        <v>1.9825000000000002E-2</v>
+        <v>2.2962500000000007E-2</v>
       </c>
       <c r="AA19" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X19)),_xll.qlSwapRateHelperSpread($X19))</f>
@@ -27585,14 +27589,14 @@
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X19,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X19,Trigger),"")</f>
-        <v>45118</v>
+        <v>45238</v>
       </c>
       <c r="AD19" s="71">
-        <v>0.87068255065144273</v>
+        <v>0.85163704297808063</v>
       </c>
       <c r="AE19" s="146"/>
       <c r="AF19" s="132">
@@ -27600,7 +27604,7 @@
       </c>
       <c r="AG19" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG18,"1m","mf",TRUE),Trigger)</f>
-        <v>42825</v>
+        <v>42947</v>
       </c>
       <c r="AH19" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27608,7 +27612,7 @@
       </c>
       <c r="AI19" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG19,_xll.qlCalendarAdvance(Calendar,AG19,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ19" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH19,Trigger),_xll.qlQuoteValue(AH19,Trigger),1)</f>
@@ -27691,7 +27695,7 @@
         <v>Sw</v>
       </c>
       <c r="X20" s="3" t="str">
-        <v>obj_0025d</v>
+        <v>obj_00260</v>
       </c>
       <c r="Y20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X20,Trigger),"")</f>
@@ -27699,7 +27703,7 @@
       </c>
       <c r="Z20" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X20,Trigger),"")</f>
-        <v>2.0125000000000001E-2</v>
+        <v>2.3500000000000007E-2</v>
       </c>
       <c r="AA20" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X20)),_xll.qlSwapRateHelperSpread($X20))</f>
@@ -27707,14 +27711,14 @@
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X20,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X20,Trigger),"")</f>
-        <v>45484</v>
+        <v>45604</v>
       </c>
       <c r="AD20" s="71">
-        <v>0.85147491938599595</v>
+        <v>0.82855684920172312</v>
       </c>
       <c r="AE20" s="146"/>
       <c r="AF20" s="132">
@@ -27722,7 +27726,7 @@
       </c>
       <c r="AG20" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG19,"1m","mf",TRUE),Trigger)</f>
-        <v>42853</v>
+        <v>42978</v>
       </c>
       <c r="AH20" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27730,7 +27734,7 @@
       </c>
       <c r="AI20" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG20,_xll.qlCalendarAdvance(Calendar,AG20,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ20" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH20,Trigger),_xll.qlQuoteValue(AH20,Trigger),1)</f>
@@ -27813,7 +27817,7 @@
         <v>Sw</v>
       </c>
       <c r="X21" s="3" t="str">
-        <v>obj_0025c</v>
+        <v>obj_0025e</v>
       </c>
       <c r="Y21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X21,Trigger),"")</f>
@@ -27821,7 +27825,7 @@
       </c>
       <c r="Z21" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X21,Trigger),"")</f>
-        <v>2.0425000000000006E-2</v>
+        <v>2.4012500000000003E-2</v>
       </c>
       <c r="AA21" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X21)),_xll.qlSwapRateHelperSpread($X21))</f>
@@ -27829,14 +27833,14 @@
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X21,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X21,Trigger),"")</f>
-        <v>45849</v>
+        <v>45971</v>
       </c>
       <c r="AD21" s="71">
-        <v>0.83220043763989959</v>
+        <v>0.80529504973557076</v>
       </c>
       <c r="AE21" s="146"/>
       <c r="AF21" s="132">
@@ -27844,7 +27848,7 @@
       </c>
       <c r="AG21" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG20,"1m","mf",TRUE),Trigger)</f>
-        <v>42886</v>
+        <v>43007</v>
       </c>
       <c r="AH21" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27852,7 +27856,7 @@
       </c>
       <c r="AI21" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG21,_xll.qlCalendarAdvance(Calendar,AG21,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AJ21" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH21,Trigger),_xll.qlQuoteValue(AH21,Trigger),1)</f>
@@ -27938,7 +27942,7 @@
         <v>Sw</v>
       </c>
       <c r="X22" s="3" t="str">
-        <v>obj_00258</v>
+        <v>obj_00257</v>
       </c>
       <c r="Y22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X22,Trigger),"")</f>
@@ -27946,7 +27950,7 @@
       </c>
       <c r="Z22" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X22,Trigger),"")</f>
-        <v>2.0724999999999997E-2</v>
+        <v>2.4525000000000005E-2</v>
       </c>
       <c r="AA22" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X22)),_xll.qlSwapRateHelperSpread($X22))</f>
@@ -27954,14 +27958,14 @@
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X22,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X22,Trigger),"")</f>
-        <v>46216</v>
+        <v>46335</v>
       </c>
       <c r="AD22" s="71">
-        <v>0.8127403159404285</v>
+        <v>0.78194384809103534</v>
       </c>
       <c r="AE22" s="146"/>
       <c r="AF22" s="132">
@@ -27969,7 +27973,7 @@
       </c>
       <c r="AG22" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG21,"1m","mf",TRUE),Trigger)</f>
-        <v>42916</v>
+        <v>43039</v>
       </c>
       <c r="AH22" s="132" t="str">
         <f t="shared" si="7"/>
@@ -27977,7 +27981,7 @@
       </c>
       <c r="AI22" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG22,_xll.qlCalendarAdvance(Calendar,AG22,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ22" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH22,Trigger),_xll.qlQuoteValue(AH22,Trigger),1)</f>
@@ -28063,7 +28067,7 @@
         <v>Sw</v>
       </c>
       <c r="X23" s="3" t="str">
-        <v>obj_00255</v>
+        <v>obj_0025f</v>
       </c>
       <c r="Y23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X23,Trigger),"")</f>
@@ -28071,7 +28075,7 @@
       </c>
       <c r="Z23" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X23,Trigger),"")</f>
-        <v>2.1349999999999997E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="AA23" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X23)),_xll.qlSwapRateHelperSpread($X23))</f>
@@ -28079,14 +28083,14 @@
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X23,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X23,Trigger),"")</f>
-        <v>46945</v>
+        <v>47065</v>
       </c>
       <c r="AD23" s="71">
-        <v>0.77359507743001954</v>
+        <v>0.73606191334314131</v>
       </c>
       <c r="AE23" s="146"/>
       <c r="AF23" s="136">
@@ -28173,7 +28177,7 @@
         <v>Sw</v>
       </c>
       <c r="X24" s="3" t="str">
-        <v>obj_00257</v>
+        <v>obj_00255</v>
       </c>
       <c r="Y24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X24,Trigger),"")</f>
@@ -28181,7 +28185,7 @@
       </c>
       <c r="Z24" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X24,Trigger),"")</f>
-        <v>2.2099999999999998E-2</v>
+        <v>2.6375000000000003E-2</v>
       </c>
       <c r="AA24" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X24)),_xll.qlSwapRateHelperSpread($X24))</f>
@@ -28189,14 +28193,14 @@
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X24,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X24,Trigger),"")</f>
-        <v>48040</v>
+        <v>48162</v>
       </c>
       <c r="AD24" s="71">
-        <v>0.7167698513998314</v>
+        <v>0.67087714534129406</v>
       </c>
       <c r="AE24" s="146"/>
     </row>
@@ -28274,7 +28278,7 @@
         <v>Sw</v>
       </c>
       <c r="X25" s="3" t="str">
-        <v>obj_0025b</v>
+        <v>obj_0025c</v>
       </c>
       <c r="Y25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X25,Trigger),"")</f>
@@ -28282,7 +28286,7 @@
       </c>
       <c r="Z25" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X25,Trigger),"")</f>
-        <v>2.2700000000000001E-2</v>
+        <v>2.7350000000000003E-2</v>
       </c>
       <c r="AA25" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X25)),_xll.qlSwapRateHelperSpread($X25))</f>
@@ -28290,14 +28294,14 @@
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X25,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X25,Trigger),"")</f>
-        <v>49867</v>
+        <v>49989</v>
       </c>
       <c r="AD25" s="71">
-        <v>0.63321655009613353</v>
+        <v>0.57464270803165829</v>
       </c>
       <c r="AE25" s="146"/>
     </row>
@@ -28378,7 +28382,7 @@
         <v>Sw</v>
       </c>
       <c r="X26" s="3" t="str">
-        <v>obj_00254</v>
+        <v>obj_0025d</v>
       </c>
       <c r="Y26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X26,Trigger),"")</f>
@@ -28386,7 +28390,7 @@
       </c>
       <c r="Z26" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X26,Trigger),"")</f>
-        <v>2.3000000000000003E-2</v>
+        <v>2.7925000000000005E-2</v>
       </c>
       <c r="AA26" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X26)),_xll.qlSwapRateHelperSpread($X26))</f>
@@ -28394,14 +28398,14 @@
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X26,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X26,Trigger),"")</f>
-        <v>51693</v>
+        <v>51813</v>
       </c>
       <c r="AD26" s="71">
-        <v>0.56041827929096455</v>
+        <v>0.49236686803482294</v>
       </c>
       <c r="AE26" s="146"/>
     </row>
@@ -28482,7 +28486,7 @@
         <v>Sw</v>
       </c>
       <c r="X27" s="3" t="str">
-        <v>obj_0025e</v>
+        <v>obj_00254</v>
       </c>
       <c r="Y27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X27,Trigger),"")</f>
@@ -28490,7 +28494,7 @@
       </c>
       <c r="Z27" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X27,Trigger),"")</f>
-        <v>2.29625E-2</v>
+        <v>2.7950000000000003E-2</v>
       </c>
       <c r="AA27" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X27)),_xll.qlSwapRateHelperSpread($X27))</f>
@@ -28498,14 +28502,14 @@
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X27,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X27,Trigger),"")</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="AD27" s="71">
-        <v>0.50059865114234237</v>
+        <v>0.42818526891817699</v>
       </c>
       <c r="AE27" s="146"/>
     </row>
@@ -28571,15 +28575,15 @@
       </c>
       <c r="S28" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_00259#0001</v>
+        <v>obj_00259#0003</v>
       </c>
       <c r="T28" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S28,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U28" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S28,Trigger),"--")</f>
-        <v>44025</v>
+        <v>44144</v>
       </c>
       <c r="W28" s="3" t="str">
         <f t="shared" si="2"/>
@@ -28675,15 +28679,15 @@
       </c>
       <c r="S29" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_0025a#0001</v>
+        <v>obj_0025a#0003</v>
       </c>
       <c r="T29" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S29,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U29" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S29,Trigger),"--")</f>
-        <v>44389</v>
+        <v>44508</v>
       </c>
       <c r="W29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -28779,15 +28783,15 @@
       </c>
       <c r="S30" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_00260#0001</v>
+        <v>obj_00258#0003</v>
       </c>
       <c r="T30" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S30,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U30" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S30,Trigger),"--")</f>
-        <v>44753</v>
+        <v>44873</v>
       </c>
       <c r="W30" s="3" t="str">
         <f t="shared" si="2"/>
@@ -28883,15 +28887,15 @@
       </c>
       <c r="S31" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_00256#0001</v>
+        <v>obj_00253#0003</v>
       </c>
       <c r="T31" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S31,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U31" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S31,Trigger),"--")</f>
-        <v>45118</v>
+        <v>45238</v>
       </c>
       <c r="W31" s="3" t="str">
         <f t="shared" si="2"/>
@@ -28957,7 +28961,7 @@
       </c>
       <c r="J32" s="167" t="str">
         <f>IF(P28,_xll.qlSwapRateHelper2(,H32,1,B32,Calendar,D32,E32,F32,G32,I32,C32,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00259#0001</v>
+        <v>obj_00259#0003</v>
       </c>
       <c r="K32" s="46"/>
       <c r="L32" s="173" t="str">
@@ -28987,15 +28991,15 @@
       </c>
       <c r="S32" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_0025d#0001</v>
+        <v>obj_00260#0003</v>
       </c>
       <c r="T32" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S32,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U32" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S32,Trigger),"--")</f>
-        <v>45484</v>
+        <v>45604</v>
       </c>
       <c r="W32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29061,7 +29065,7 @@
       </c>
       <c r="J33" s="167" t="str">
         <f>IF(P29,_xll.qlSwapRateHelper2(,H33,1,B33,Calendar,D33,E33,F33,G33,I33,C33,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0025a#0001</v>
+        <v>obj_0025a#0003</v>
       </c>
       <c r="K33" s="46"/>
       <c r="L33" s="173" t="str">
@@ -29091,15 +29095,15 @@
       </c>
       <c r="S33" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_0025c#0001</v>
+        <v>obj_0025e#0003</v>
       </c>
       <c r="T33" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S33,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U33" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S33,Trigger),"--")</f>
-        <v>45849</v>
+        <v>45971</v>
       </c>
       <c r="W33" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29165,7 +29169,7 @@
       </c>
       <c r="J34" s="167" t="str">
         <f>IF(P30,_xll.qlSwapRateHelper2(,H34,1,B34,Calendar,D34,E34,F34,G34,I34,C34,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00260#0001</v>
+        <v>obj_00258#0003</v>
       </c>
       <c r="K34" s="46"/>
       <c r="L34" s="173" t="str">
@@ -29195,15 +29199,15 @@
       </c>
       <c r="S34" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_00258#0001</v>
+        <v>obj_00257#0003</v>
       </c>
       <c r="T34" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S34,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U34" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S34,Trigger),"--")</f>
-        <v>46216</v>
+        <v>46335</v>
       </c>
       <c r="W34" s="3" t="str">
         <f t="shared" si="2"/>
@@ -29269,7 +29273,7 @@
       </c>
       <c r="J35" s="167" t="str">
         <f>IF(P31,_xll.qlSwapRateHelper2(,H35,1,B35,Calendar,D35,E35,F35,G35,I35,C35,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00256#0001</v>
+        <v>obj_00253#0003</v>
       </c>
       <c r="K35" s="46"/>
       <c r="L35" s="173" t="str">
@@ -29373,7 +29377,7 @@
       </c>
       <c r="J36" s="167" t="str">
         <f>IF(P32,_xll.qlSwapRateHelper2(,H36,1,B36,Calendar,D36,E36,F36,G36,I36,C36,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0025d#0001</v>
+        <v>obj_00260#0003</v>
       </c>
       <c r="K36" s="46"/>
       <c r="L36" s="173" t="str">
@@ -29403,15 +29407,15 @@
       </c>
       <c r="S36" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_00255#0001</v>
+        <v>obj_0025f#0003</v>
       </c>
       <c r="T36" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S36,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U36" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S36,Trigger),"--")</f>
-        <v>46945</v>
+        <v>47065</v>
       </c>
       <c r="W36" s="3" t="str">
         <f t="shared" si="22"/>
@@ -29477,7 +29481,7 @@
       </c>
       <c r="J37" s="167" t="str">
         <f>IF(P33,_xll.qlSwapRateHelper2(,H37,1,B37,Calendar,D37,E37,F37,G37,I37,C37,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0025c#0001</v>
+        <v>obj_0025e#0003</v>
       </c>
       <c r="K37" s="46"/>
       <c r="L37" s="173" t="str">
@@ -29581,7 +29585,7 @@
       </c>
       <c r="J38" s="167" t="str">
         <f>IF(P34,_xll.qlSwapRateHelper2(,H38,1,B38,Calendar,D38,E38,F38,G38,I38,C38,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00258#0001</v>
+        <v>obj_00257#0003</v>
       </c>
       <c r="K38" s="46"/>
       <c r="L38" s="173" t="str">
@@ -29715,15 +29719,15 @@
       </c>
       <c r="S39" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_00257#0001</v>
+        <v>obj_00255#0003</v>
       </c>
       <c r="T39" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S39,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U39" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S39,Trigger),"--")</f>
-        <v>48040</v>
+        <v>48162</v>
       </c>
       <c r="W39" s="3" t="str">
         <f t="shared" si="22"/>
@@ -29789,7 +29793,7 @@
       </c>
       <c r="J40" s="167" t="str">
         <f>IF(P36,_xll.qlSwapRateHelper2(,H40,1,B40,Calendar,D40,E40,F40,G40,I40,C40,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00255#0001</v>
+        <v>obj_0025f#0003</v>
       </c>
       <c r="K40" s="46"/>
       <c r="L40" s="173" t="str">
@@ -30099,7 +30103,7 @@
       </c>
       <c r="J43" s="167" t="str">
         <f>IF(P39,_xll.qlSwapRateHelper2(,H43,1,B43,Calendar,D43,E43,F43,G43,I43,C43,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00257#0001</v>
+        <v>obj_00255#0003</v>
       </c>
       <c r="L43" s="173" t="str">
         <f t="shared" si="16"/>
@@ -30231,15 +30235,15 @@
       </c>
       <c r="S44" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_0025b#0001</v>
+        <v>obj_0025c#0003</v>
       </c>
       <c r="T44" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S44,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U44" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S44,Trigger),"--")</f>
-        <v>49867</v>
+        <v>49989</v>
       </c>
       <c r="W44" s="3" t="str">
         <f t="shared" si="22"/>
@@ -30612,7 +30616,7 @@
       </c>
       <c r="J48" s="167" t="str">
         <f>IF(P44,_xll.qlSwapRateHelper2(,H48,1,B48,Calendar,D48,E48,F48,G48,I48,C48,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0025b#0001</v>
+        <v>obj_0025c#0003</v>
       </c>
       <c r="L48" s="173" t="str">
         <f t="shared" si="16"/>
@@ -30743,15 +30747,15 @@
       </c>
       <c r="S49" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_00254#0001</v>
+        <v>obj_0025d#0003</v>
       </c>
       <c r="T49" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S49,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U49" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S49,Trigger),"--")</f>
-        <v>51693</v>
+        <v>51813</v>
       </c>
       <c r="W49" s="3" t="str">
         <f t="shared" si="22"/>
@@ -31122,7 +31126,7 @@
       </c>
       <c r="J53" s="167" t="str">
         <f>IF(P49,_xll.qlSwapRateHelper2(,H53,1,B53,Calendar,D53,E53,F53,G53,I53,C53,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00254#0001</v>
+        <v>obj_0025d#0003</v>
       </c>
       <c r="L53" s="173" t="str">
         <f t="shared" si="16"/>
@@ -31253,15 +31257,15 @@
       </c>
       <c r="S54" s="88" t="str">
         <f t="shared" si="17"/>
-        <v>obj_0025e#0001</v>
+        <v>obj_00254#0003</v>
       </c>
       <c r="T54" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S54,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U54" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S54,Trigger),"--")</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="W54" s="3" t="str">
         <f t="shared" si="22"/>
@@ -31632,7 +31636,7 @@
       </c>
       <c r="J58" s="167" t="str">
         <f>IF(P54,_xll.qlSwapRateHelper2(,H58,1,B58,Calendar,D58,E58,F58,G58,I58,C58,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0025e#0001</v>
+        <v>obj_00254#0003</v>
       </c>
       <c r="L58" s="173" t="str">
         <f t="shared" si="16"/>
@@ -31763,15 +31767,15 @@
       </c>
       <c r="S59" s="118" t="str">
         <f t="shared" ref="S59:S95" si="24">J65</f>
-        <v>obj_00247#0001</v>
+        <v>obj_00249#0003</v>
       </c>
       <c r="T59" s="120">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S59,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U59" s="120">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S59,Trigger),"--")</f>
-        <v>42927</v>
+        <v>43047</v>
       </c>
       <c r="W59" s="3" t="str">
         <f t="shared" si="22"/>
@@ -32144,15 +32148,15 @@
       </c>
       <c r="S63" s="88" t="str">
         <f t="shared" si="24"/>
-        <v>obj_00248#0001</v>
+        <v>obj_0023b#0003</v>
       </c>
       <c r="T63" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S63,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U63" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S63,Trigger),"--")</f>
-        <v>43292</v>
+        <v>43412</v>
       </c>
       <c r="W63" s="3" t="str">
         <f t="shared" si="22"/>
@@ -32243,15 +32247,15 @@
       </c>
       <c r="S64" s="88" t="str">
         <f t="shared" si="24"/>
-        <v>obj_0023e#0001</v>
+        <v>obj_0024d#0003</v>
       </c>
       <c r="T64" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S64,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U64" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S64,Trigger),"--")</f>
-        <v>43657</v>
+        <v>43777</v>
       </c>
       <c r="W64" s="3" t="str">
         <f t="shared" si="22"/>
@@ -32316,7 +32320,7 @@
       </c>
       <c r="J65" s="165" t="str">
         <f>IF(P59,_xll.qlSwapRateHelper2(,H65,1,B65,Calendar,D65,E65,F65,G65,I65,C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00247#0001</v>
+        <v>obj_00249#0003</v>
       </c>
       <c r="L65" s="173" t="str">
         <f t="shared" si="23"/>
@@ -32724,7 +32728,7 @@
       </c>
       <c r="J69" s="167" t="str">
         <f>IF(P63,_xll.qlSwapRateHelper2(,H69,1,B69,Calendar,D69,E69,F69,G69,I69,C69,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00248#0001</v>
+        <v>obj_0023b#0003</v>
       </c>
       <c r="L69" s="173" t="str">
         <f t="shared" si="23"/>
@@ -32826,7 +32830,7 @@
       </c>
       <c r="J70" s="167" t="str">
         <f>IF(P64,_xll.qlSwapRateHelper2(,H70,1,B70,Calendar,D70,E70,F70,G70,I70,C70,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0023e#0001</v>
+        <v>obj_0024d#0003</v>
       </c>
       <c r="L70" s="173" t="str">
         <f t="shared" si="23"/>
@@ -35485,7 +35489,7 @@
       </c>
       <c r="Y96" s="187" t="str">
         <f>_xll.ohGroup("AUD6M_instruments",_xll.ohPack(Y3:Y95),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6M_instruments#0001</v>
+        <v>AUD6M_instruments#0003</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -35882,7 +35886,7 @@
       </c>
       <c r="G3" s="53" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B3,"S","1"),"N","D"),C3,Currency,Calendar,E3,D3,F3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00215#0001</v>
+        <v>obj_00211#0004</v>
       </c>
       <c r="H3" s="125" t="str">
         <f t="shared" ref="H3:H7" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -35891,7 +35895,7 @@
       <c r="I3" s="116"/>
       <c r="J3" s="165" t="str">
         <f>IF(P3,_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0026f#0001</v>
+        <v>obj_00261#0003</v>
       </c>
       <c r="K3" s="47"/>
       <c r="L3" s="171" t="str">
@@ -35918,15 +35922,15 @@
       </c>
       <c r="S3" s="118" t="str">
         <f>J3</f>
-        <v>obj_0026f#0001</v>
+        <v>obj_00261#0003</v>
       </c>
       <c r="T3" s="120">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S3,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U3" s="120">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S3,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="W3" s="3" t="str">
         <f t="shared" ref="W3:W34" si="1">IFERROR(INDEX($L$3:$L$84,MATCH(Y3,$M$3:$M$84,0),1),"")</f>
@@ -35934,7 +35938,7 @@
       </c>
       <c r="X3" s="3" t="str">
         <f t="array" ref="X3:X84">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AK$3,$AK$4,$AK$5,$AK$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_0026f</v>
+        <v>obj_00261</v>
       </c>
       <c r="Y3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X3,Trigger),"")</f>
@@ -35942,7 +35946,7 @@
       </c>
       <c r="Z3" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X3,Trigger),"")</f>
-        <v>1.9004E-2</v>
+        <v>1.6511999999999999E-2</v>
       </c>
       <c r="AA3" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X3)),_xll.qlSwapRateHelperSpread($X3))</f>
@@ -35950,14 +35954,14 @@
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X3,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X3,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AD3" s="71">
-        <v>0.99984382713349984</v>
+        <v>0.99995476369025194</v>
       </c>
       <c r="AE3" s="146"/>
       <c r="AG3" s="156" t="s">
@@ -35988,7 +35992,7 @@
       </c>
       <c r="G4" s="58" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B4,"S","1"),"N","D"),C4,Currency,Calendar,E4,D4,F4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00213#0001</v>
+        <v>obj_0021b#0004</v>
       </c>
       <c r="H4" s="108" t="str">
         <f t="shared" si="0"/>
@@ -35997,7 +36001,7 @@
       <c r="I4" s="110"/>
       <c r="J4" s="167" t="str">
         <f>IF(P4,_xll.qlDepositRateHelper(,H4,G4,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00261#0001</v>
+        <v>obj_00264#0003</v>
       </c>
       <c r="K4" s="46"/>
       <c r="L4" s="173" t="str">
@@ -36024,22 +36028,22 @@
       </c>
       <c r="S4" s="88" t="str">
         <f>J4</f>
-        <v>obj_00261#0001</v>
+        <v>obj_00264#0003</v>
       </c>
       <c r="T4" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S4,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U4" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S4,Trigger),"--")</f>
-        <v>42566</v>
+        <v>42688</v>
       </c>
       <c r="W4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="X4" s="3" t="str">
-        <v>obj_00261</v>
+        <v>obj_00264</v>
       </c>
       <c r="Y4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X4,Trigger),"")</f>
@@ -36047,7 +36051,7 @@
       </c>
       <c r="Z4" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X4,Trigger),"")</f>
-        <v>1.899E-2</v>
+        <v>1.6513E-2</v>
       </c>
       <c r="AA4" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X4)),_xll.qlSwapRateHelperSpread($X4))</f>
@@ -36055,14 +36059,14 @@
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X4,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X4,Trigger),"")</f>
-        <v>42566</v>
+        <v>42688</v>
       </c>
       <c r="AD4" s="71">
-        <v>0.99963594080654505</v>
+        <v>0.99968341258809745</v>
       </c>
       <c r="AE4" s="146"/>
       <c r="AG4" s="99" t="s">
@@ -36093,7 +36097,7 @@
       </c>
       <c r="G5" s="58" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B5,"S","1"),"N","D"),C5,Currency,Calendar,E5,D5,F5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00211#0001</v>
+        <v>obj_00217#0004</v>
       </c>
       <c r="H5" s="108" t="str">
         <f t="shared" si="0"/>
@@ -36102,7 +36106,7 @@
       <c r="I5" s="110"/>
       <c r="J5" s="167" t="str">
         <f>IF(P5,_xll.qlDepositRateHelper(,H5,G5,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0026e#0001</v>
+        <v>obj_0026f#0003</v>
       </c>
       <c r="K5" s="46"/>
       <c r="L5" s="173" t="str">
@@ -36129,22 +36133,22 @@
       </c>
       <c r="S5" s="88" t="str">
         <f>J5</f>
-        <v>obj_0026e#0001</v>
+        <v>obj_0026f#0003</v>
       </c>
       <c r="T5" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S5,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U5" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S5,Trigger),"--")</f>
-        <v>42573</v>
+        <v>42695</v>
       </c>
       <c r="W5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="X5" s="3" t="str">
-        <v>obj_0026e</v>
+        <v>obj_0026f</v>
       </c>
       <c r="Y5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X5,Trigger),"")</f>
@@ -36152,7 +36156,7 @@
       </c>
       <c r="Z5" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X5,Trigger),"")</f>
-        <v>1.8936999999999999E-2</v>
+        <v>1.6518999999999999E-2</v>
       </c>
       <c r="AA5" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X5)),_xll.qlSwapRateHelperSpread($X5))</f>
@@ -36160,14 +36164,14 @@
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X5,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X5,Trigger),"")</f>
-        <v>42573</v>
+        <v>42695</v>
       </c>
       <c r="AD5" s="71">
-        <v>0.99927417651754458</v>
+        <v>0.99936679572224785</v>
       </c>
       <c r="AE5" s="146"/>
       <c r="AF5" s="74"/>
@@ -36199,7 +36203,7 @@
       </c>
       <c r="G6" s="6" t="str">
         <f>_xll.qlIborIndex(,FamilyName,SUBSTITUTE(SUBSTITUTE(B6,"S","1"),"N","D"),C6,Currency,Calendar,E6,D6,F6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0020f#0001</v>
+        <v>obj_00213#0004</v>
       </c>
       <c r="H6" s="109" t="str">
         <f t="shared" si="0"/>
@@ -36208,7 +36212,7 @@
       <c r="I6" s="111"/>
       <c r="J6" s="166" t="str">
         <f>IF(P6,_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00264#0001</v>
+        <v>obj_00265#0003</v>
       </c>
       <c r="K6" s="46"/>
       <c r="L6" s="173" t="str">
@@ -36235,22 +36239,22 @@
       </c>
       <c r="S6" s="88" t="str">
         <f>J6</f>
-        <v>obj_00264#0001</v>
+        <v>obj_00265#0003</v>
       </c>
       <c r="T6" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S6,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U6" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S6,Trigger),"--")</f>
-        <v>42580</v>
+        <v>42702</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="X6" s="3" t="str">
-        <v>obj_00264</v>
+        <v>obj_00265</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X6,Trigger),"")</f>
@@ -36258,7 +36262,7 @@
       </c>
       <c r="Z6" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X6,Trigger),"")</f>
-        <v>1.8855E-2</v>
+        <v>1.6518000000000001E-2</v>
       </c>
       <c r="AA6" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X6)),_xll.qlSwapRateHelperSpread($X6))</f>
@@ -36266,14 +36270,14 @@
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X6,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X6,Trigger),"")</f>
-        <v>42580</v>
+        <v>42702</v>
       </c>
       <c r="AD6" s="71">
-        <v>0.99891636731444033</v>
+        <v>0.99905055162398371</v>
       </c>
       <c r="AE6" s="146"/>
       <c r="AG6" s="99" t="s">
@@ -36305,7 +36309,7 @@
       <c r="I7" s="111"/>
       <c r="J7" s="166" t="str">
         <f>IF(P7,_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00253#0001</v>
+        <v>obj_0025b#0003</v>
       </c>
       <c r="K7" s="46"/>
       <c r="L7" s="173" t="str">
@@ -36332,22 +36336,22 @@
       </c>
       <c r="S7" s="88" t="str">
         <f>J7</f>
-        <v>obj_00253#0001</v>
+        <v>obj_0025b#0003</v>
       </c>
       <c r="T7" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S7,Trigger),"--")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="U7" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S7,Trigger),"--")</f>
-        <v>42590</v>
+        <v>42711</v>
       </c>
       <c r="W7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="X7" s="3" t="str">
-        <v>obj_00253</v>
+        <v>obj_0025b</v>
       </c>
       <c r="Y7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X7,Trigger),"")</f>
@@ -36355,7 +36359,7 @@
       </c>
       <c r="Z7" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X7,Trigger),"")</f>
-        <v>1.8702E-2</v>
+        <v>1.6497000000000001E-2</v>
       </c>
       <c r="AA7" s="96" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X7)),_xll.qlSwapRateHelperSpread($X7))</f>
@@ -36363,14 +36367,14 @@
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X7,Trigger),"")</f>
-        <v>42559</v>
+        <v>42681</v>
       </c>
       <c r="AC7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X7,Trigger),"")</f>
-        <v>42590</v>
+        <v>42711</v>
       </c>
       <c r="AD7" s="71">
-        <v>0.99841412993753198</v>
+        <v>0.99864591821548765</v>
       </c>
       <c r="AE7" s="146"/>
     </row>
@@ -36409,22 +36413,22 @@
       </c>
       <c r="S8" s="118" t="str">
         <f t="shared" ref="S8:S44" si="5">J10</f>
-        <v>obj_00239#0001</v>
+        <v>obj_0023d#0003</v>
       </c>
       <c r="T8" s="120">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S8,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U8" s="120">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S8,Trigger),"--")</f>
-        <v>42927</v>
+        <v>43047</v>
       </c>
       <c r="W8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="X8" s="3" t="str">
-        <v>obj_00249</v>
+        <v>obj_00250</v>
       </c>
       <c r="Y8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X8,Trigger),"")</f>
@@ -36432,22 +36436,22 @@
       </c>
       <c r="Z8" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X8,Trigger),"")</f>
-        <v>1.985523045464737E-2</v>
+        <v>1.779523685132036E-2</v>
       </c>
       <c r="AA8" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X8)),_xll.qlSwapRateHelperSpread($X8))</f>
-        <v>2.0374999999999998E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X8,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X8,Trigger),"")</f>
-        <v>42654</v>
+        <v>42774</v>
       </c>
       <c r="AD8" s="71">
-        <v>0.99537367100790397</v>
+        <v>0.99585193648986758</v>
       </c>
       <c r="AE8" s="146"/>
     </row>
@@ -36533,22 +36537,22 @@
       </c>
       <c r="Z9" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X9,Trigger),"")</f>
-        <v>1.9129682092031194E-2</v>
+        <v>1.768258713849798E-2</v>
       </c>
       <c r="AA9" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X9)),_xll.qlSwapRateHelperSpread($X9))</f>
-        <v>2.0249999999999999E-3</v>
+        <v>1.6125E-3</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X9,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X9,Trigger),"")</f>
-        <v>42746</v>
+        <v>42863</v>
       </c>
       <c r="AD9" s="71">
-        <v>0.99127879796820861</v>
+        <v>0.99203380545707243</v>
       </c>
       <c r="AE9" s="146"/>
       <c r="AH9" s="44" t="s">
@@ -36588,7 +36592,7 @@
       </c>
       <c r="J10" s="167" t="str">
         <f>IF(P8,_xll.qlSwapRateHelper2(,H10,1,B10,Calendar,D10,E10,F10,G10,I10,C10,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00239#0001</v>
+        <v>obj_0023d#0003</v>
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="173" t="str">
@@ -36641,22 +36645,22 @@
       </c>
       <c r="Z10" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X10,Trigger),"")</f>
-        <v>1.8731281784318918E-2</v>
+        <v>1.7554902407352645E-2</v>
       </c>
       <c r="AA10" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X10)),_xll.qlSwapRateHelperSpread($X10))</f>
-        <v>2.0249999999999999E-3</v>
+        <v>1.65E-3</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X10,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X10,Trigger),"")</f>
-        <v>42836</v>
+        <v>42955</v>
       </c>
       <c r="AD10" s="71">
-        <v>0.98741068276927269</v>
+        <v>0.98815381064851382</v>
       </c>
       <c r="AE10" s="146"/>
       <c r="AF10" s="67" t="s">
@@ -36762,7 +36766,7 @@
         <v>BasSw</v>
       </c>
       <c r="X11" s="3" t="str">
-        <v>obj_00239</v>
+        <v>obj_0023d</v>
       </c>
       <c r="Y11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X11,Trigger),"")</f>
@@ -36770,22 +36774,22 @@
       </c>
       <c r="Z11" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X11,Trigger),"")</f>
-        <v>1.8250000000000002E-2</v>
+        <v>1.7475000000000001E-2</v>
       </c>
       <c r="AA11" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X11)),_xll.qlSwapRateHelperSpread($X11))</f>
-        <v>1.9750000000000002E-3</v>
+        <v>1.6875E-3</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X11,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X11,Trigger),"")</f>
-        <v>42927</v>
+        <v>43047</v>
       </c>
       <c r="AD11" s="71">
-        <v>0.98374002476428812</v>
+        <v>0.98432399384417757</v>
       </c>
       <c r="AE11" s="146"/>
       <c r="AF11" s="128">
@@ -36793,7 +36797,7 @@
       </c>
       <c r="AG11" s="129">
         <f>_xll.qlCalendarEndOfMonth(Calendar,Settlementdate,Trigger)</f>
-        <v>42580</v>
+        <v>42704</v>
       </c>
       <c r="AH11" s="128" t="str">
         <f t="shared" ref="AH11:AH23" si="10">Currency&amp;$AH$9&amp;AF11&amp;JumpSuffix&amp;QuoteSuffix</f>
@@ -36801,7 +36805,7 @@
       </c>
       <c r="AI11" s="150">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG11,_xll.qlCalendarAdvance(Calendar,AG11,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ11" s="130" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH11,Trigger),_xll.qlQuoteValue(AH11,Trigger),1)</f>
@@ -36882,22 +36886,22 @@
       </c>
       <c r="S12" s="88" t="str">
         <f t="shared" si="5"/>
-        <v>obj_0023a#0001</v>
+        <v>obj_0024f#0003</v>
       </c>
       <c r="T12" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S12,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U12" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S12,Trigger),"--")</f>
-        <v>43292</v>
+        <v>43412</v>
       </c>
       <c r="W12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="X12" s="3" t="str">
-        <v>obj_0023a</v>
+        <v>obj_0024f</v>
       </c>
       <c r="Y12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X12,Trigger),"")</f>
@@ -36905,22 +36909,22 @@
       </c>
       <c r="Z12" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X12,Trigger),"")</f>
-        <v>1.7562500000000002E-2</v>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="AA12" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X12)),_xll.qlSwapRateHelperSpread($X12))</f>
-        <v>1.8625E-3</v>
+        <v>1.6750000000000001E-3</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X12,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X12,Trigger),"")</f>
-        <v>43292</v>
+        <v>43412</v>
       </c>
       <c r="AD12" s="71">
-        <v>0.96900765476008044</v>
+        <v>0.96827846438470722</v>
       </c>
       <c r="AE12" s="146"/>
       <c r="AF12" s="132">
@@ -36928,7 +36932,7 @@
       </c>
       <c r="AG12" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG11,"1m","mf",TRUE),Trigger)</f>
-        <v>42613</v>
+        <v>42734</v>
       </c>
       <c r="AH12" s="132" t="str">
         <f t="shared" si="10"/>
@@ -36936,7 +36940,7 @@
       </c>
       <c r="AI12" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG12,_xll.qlCalendarAdvance(Calendar,AG12,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ12" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH12,Trigger),_xll.qlQuoteValue(AH12,Trigger),1)</f>
@@ -37015,22 +37019,22 @@
       </c>
       <c r="S13" s="88" t="str">
         <f t="shared" si="5"/>
-        <v>obj_00241#0001</v>
+        <v>obj_00243#0003</v>
       </c>
       <c r="T13" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S13,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U13" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S13,Trigger),"--")</f>
-        <v>43657</v>
+        <v>43777</v>
       </c>
       <c r="W13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>BasSw</v>
       </c>
       <c r="X13" s="3" t="str">
-        <v>obj_00241</v>
+        <v>obj_00243</v>
       </c>
       <c r="Y13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X13,Trigger),"")</f>
@@ -37038,22 +37042,22 @@
       </c>
       <c r="Z13" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X13,Trigger),"")</f>
-        <v>1.7525000000000002E-2</v>
+        <v>1.8425000000000004E-2</v>
       </c>
       <c r="AA13" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X13)),_xll.qlSwapRateHelperSpread($X13))</f>
-        <v>1.7374999999999999E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X13,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X13,Trigger),"")</f>
-        <v>43657</v>
+        <v>43777</v>
       </c>
       <c r="AD13" s="71">
-        <v>0.95368826569598342</v>
+        <v>0.95086938320021264</v>
       </c>
       <c r="AE13" s="146"/>
       <c r="AF13" s="132">
@@ -37061,7 +37065,7 @@
       </c>
       <c r="AG13" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG12,"1m","mf",TRUE),Trigger)</f>
-        <v>42643</v>
+        <v>42766</v>
       </c>
       <c r="AH13" s="132" t="str">
         <f t="shared" si="10"/>
@@ -37069,7 +37073,7 @@
       </c>
       <c r="AI13" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG13,_xll.qlCalendarAdvance(Calendar,AG13,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ13" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH13,Trigger),_xll.qlQuoteValue(AH13,Trigger),1)</f>
@@ -37118,7 +37122,7 @@
       </c>
       <c r="J14" s="167" t="str">
         <f>IF(P12,_xll.qlSwapRateHelper2(,H14,1,B14,Calendar,D14,E14,F14,G14,I14,C14,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0023a#0001</v>
+        <v>obj_0024f#0003</v>
       </c>
       <c r="K14" s="46"/>
       <c r="L14" s="173" t="str">
@@ -37163,7 +37167,7 @@
         <v>BasSw</v>
       </c>
       <c r="X14" s="3" t="str">
-        <v>obj_00237</v>
+        <v>obj_00236</v>
       </c>
       <c r="Y14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X14,Trigger),"")</f>
@@ -37171,22 +37175,22 @@
       </c>
       <c r="Z14" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X14,Trigger),"")</f>
-        <v>1.7702303108981556E-2</v>
+        <v>1.9169467793595497E-2</v>
       </c>
       <c r="AA14" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X14)),_xll.qlSwapRateHelperSpread($X14))</f>
-        <v>1.6249999999999999E-3</v>
+        <v>1.5874999999999999E-3</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X14,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X14,Trigger),"")</f>
-        <v>44025</v>
+        <v>44144</v>
       </c>
       <c r="AD14" s="71">
-        <v>0.9375474463274085</v>
+        <v>0.93198767255597259</v>
       </c>
       <c r="AE14" s="146"/>
       <c r="AF14" s="132">
@@ -37194,7 +37198,7 @@
       </c>
       <c r="AG14" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG13,"1m","mf",TRUE),Trigger)</f>
-        <v>42674</v>
+        <v>42794</v>
       </c>
       <c r="AH14" s="132" t="str">
         <f t="shared" si="10"/>
@@ -37251,7 +37255,7 @@
       </c>
       <c r="J15" s="167" t="str">
         <f>IF(P13,_xll.qlSwapRateHelper2(,H15,1,B15,Calendar,D15,E15,F15,G15,I15,C15,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00241#0001</v>
+        <v>obj_00243#0003</v>
       </c>
       <c r="K15" s="46"/>
       <c r="L15" s="173" t="str">
@@ -37296,7 +37300,7 @@
         <v>BasSw</v>
       </c>
       <c r="X15" s="3" t="str">
-        <v>obj_0024b</v>
+        <v>obj_00240</v>
       </c>
       <c r="Y15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X15,Trigger),"")</f>
@@ -37304,22 +37308,22 @@
       </c>
       <c r="Z15" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X15,Trigger),"")</f>
-        <v>1.7901248855897622E-2</v>
+        <v>1.9878615797904661E-2</v>
       </c>
       <c r="AA15" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X15)),_xll.qlSwapRateHelperSpread($X15))</f>
-        <v>1.5E-3</v>
+        <v>1.5250000000000001E-3</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X15,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X15,Trigger),"")</f>
-        <v>44389</v>
+        <v>44508</v>
       </c>
       <c r="AD15" s="71">
-        <v>0.92112839127402746</v>
+        <v>0.91218128953604072</v>
       </c>
       <c r="AE15" s="146"/>
       <c r="AF15" s="132">
@@ -37327,7 +37331,7 @@
       </c>
       <c r="AG15" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG14,"1m","mf",TRUE),Trigger)</f>
-        <v>42704</v>
+        <v>42825</v>
       </c>
       <c r="AH15" s="132" t="str">
         <f t="shared" si="10"/>
@@ -37335,7 +37339,7 @@
       </c>
       <c r="AI15" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG15,_xll.qlCalendarAdvance(Calendar,AG15,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ15" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH15,Trigger),_xll.qlQuoteValue(AH15,Trigger),1)</f>
@@ -37429,7 +37433,7 @@
         <v>BasSw</v>
       </c>
       <c r="X16" s="3" t="str">
-        <v>obj_00251</v>
+        <v>obj_0024a</v>
       </c>
       <c r="Y16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X16,Trigger),"")</f>
@@ -37437,22 +37441,22 @@
       </c>
       <c r="Z16" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X16,Trigger),"")</f>
-        <v>1.8510839570051042E-2</v>
+        <v>2.1296540844458343E-2</v>
       </c>
       <c r="AA16" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X16)),_xll.qlSwapRateHelperSpread($X16))</f>
-        <v>1.2875E-3</v>
+        <v>1.3625E-3</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X16,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X16,Trigger),"")</f>
-        <v>45118</v>
+        <v>45238</v>
       </c>
       <c r="AD16" s="71">
-        <v>0.88618345362398077</v>
+        <v>0.86924439196734693</v>
       </c>
       <c r="AE16" s="146"/>
       <c r="AF16" s="132">
@@ -37460,7 +37464,7 @@
       </c>
       <c r="AG16" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG15,"1m","mf",TRUE),Trigger)</f>
-        <v>42734</v>
+        <v>42853</v>
       </c>
       <c r="AH16" s="132" t="str">
         <f t="shared" si="10"/>
@@ -37562,7 +37566,7 @@
         <v>BasSw</v>
       </c>
       <c r="X17" s="3" t="str">
-        <v>obj_0023b</v>
+        <v>obj_00237</v>
       </c>
       <c r="Y17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X17,Trigger),"")</f>
@@ -37570,22 +37574,22 @@
       </c>
       <c r="Z17" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X17,Trigger),"")</f>
-        <v>1.9581046394455105E-2</v>
+        <v>2.3099672164626873E-2</v>
       </c>
       <c r="AA17" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X17)),_xll.qlSwapRateHelperSpread($X17))</f>
-        <v>1.1375000000000001E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X17,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X17,Trigger),"")</f>
-        <v>46216</v>
+        <v>46335</v>
       </c>
       <c r="AD17" s="71">
-        <v>0.83067576352589367</v>
+        <v>0.80207345946395869</v>
       </c>
       <c r="AE17" s="146"/>
       <c r="AF17" s="132">
@@ -37593,7 +37597,7 @@
       </c>
       <c r="AG17" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG16,"1m","mf",TRUE),Trigger)</f>
-        <v>42766</v>
+        <v>42886</v>
       </c>
       <c r="AH17" s="132" t="str">
         <f t="shared" si="10"/>
@@ -37695,7 +37699,7 @@
         <v>BasSw</v>
       </c>
       <c r="X18" s="3" t="str">
-        <v>obj_00238</v>
+        <v>obj_00248</v>
       </c>
       <c r="Y18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X18,Trigger),"")</f>
@@ -37703,22 +37707,22 @@
       </c>
       <c r="Z18" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X18,Trigger),"")</f>
-        <v>2.0315444160992079E-2</v>
+        <v>2.4094376575049231E-2</v>
       </c>
       <c r="AA18" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X18)),_xll.qlSwapRateHelperSpread($X18))</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.1875E-3</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X18,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X18,Trigger),"")</f>
-        <v>46945</v>
+        <v>47065</v>
       </c>
       <c r="AD18" s="71">
-        <v>0.79260304132227655</v>
+        <v>0.75699692761135573</v>
       </c>
       <c r="AE18" s="146"/>
       <c r="AF18" s="132">
@@ -37726,7 +37730,7 @@
       </c>
       <c r="AG18" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG17,"1m","mf",TRUE),Trigger)</f>
-        <v>42794</v>
+        <v>42916</v>
       </c>
       <c r="AH18" s="132" t="str">
         <f t="shared" si="10"/>
@@ -37734,7 +37738,7 @@
       </c>
       <c r="AI18" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG18,_xll.qlCalendarAdvance(Calendar,AG18,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AJ18" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH18,Trigger),_xll.qlQuoteValue(AH18,Trigger),1)</f>
@@ -37828,7 +37832,7 @@
         <v>BasSw</v>
       </c>
       <c r="X19" s="3" t="str">
-        <v>obj_0023f</v>
+        <v>obj_0024e</v>
       </c>
       <c r="Y19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X19,Trigger),"")</f>
@@ -37836,22 +37840,22 @@
       </c>
       <c r="Z19" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X19,Trigger),"")</f>
-        <v>2.1161508362940524E-2</v>
+        <v>2.5238092828529519E-2</v>
       </c>
       <c r="AA19" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X19)),_xll.qlSwapRateHelperSpread($X19))</f>
-        <v>1.0874999999999999E-3</v>
+        <v>1.1375000000000001E-3</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X19,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X19,Trigger),"")</f>
-        <v>48040</v>
+        <v>48162</v>
       </c>
       <c r="AD19" s="71">
-        <v>0.73754295156154204</v>
+        <v>0.69222349160132368</v>
       </c>
       <c r="AE19" s="146"/>
       <c r="AF19" s="132">
@@ -37859,7 +37863,7 @@
       </c>
       <c r="AG19" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG18,"1m","mf",TRUE),Trigger)</f>
-        <v>42825</v>
+        <v>42947</v>
       </c>
       <c r="AH19" s="132" t="str">
         <f t="shared" si="10"/>
@@ -37867,7 +37871,7 @@
       </c>
       <c r="AI19" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG19,_xll.qlCalendarAdvance(Calendar,AG19,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ19" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH19,Trigger),_xll.qlQuoteValue(AH19,Trigger),1)</f>
@@ -37961,7 +37965,7 @@
         <v>BasSw</v>
       </c>
       <c r="X20" s="3" t="str">
-        <v>obj_0024a</v>
+        <v>obj_0024b</v>
       </c>
       <c r="Y20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X20,Trigger),"")</f>
@@ -37969,22 +37973,22 @@
       </c>
       <c r="Z20" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X20,Trigger),"")</f>
-        <v>2.185819948140328E-2</v>
+        <v>2.631907025230229E-2</v>
       </c>
       <c r="AA20" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X20)),_xll.qlSwapRateHelperSpread($X20))</f>
-        <v>1.075E-3</v>
+        <v>1.0874999999999999E-3</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X20,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X20,Trigger),"")</f>
-        <v>49867</v>
+        <v>49989</v>
       </c>
       <c r="AD20" s="71">
-        <v>0.65623111168317738</v>
+        <v>0.59705118500590137</v>
       </c>
       <c r="AE20" s="146"/>
       <c r="AF20" s="132">
@@ -37992,7 +37996,7 @@
       </c>
       <c r="AG20" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG19,"1m","mf",TRUE),Trigger)</f>
-        <v>42853</v>
+        <v>42978</v>
       </c>
       <c r="AH20" s="132" t="str">
         <f t="shared" si="10"/>
@@ -38000,7 +38004,7 @@
       </c>
       <c r="AI20" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG20,_xll.qlCalendarAdvance(Calendar,AG20,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ20" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH20,Trigger),_xll.qlQuoteValue(AH20,Trigger),1)</f>
@@ -38094,7 +38098,7 @@
         <v>BasSw</v>
       </c>
       <c r="X21" s="3" t="str">
-        <v>obj_0023d</v>
+        <v>obj_00242</v>
       </c>
       <c r="Y21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X21,Trigger),"")</f>
@@ -38102,22 +38106,22 @@
       </c>
       <c r="Z21" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X21,Trigger),"")</f>
-        <v>2.2256378317549463E-2</v>
+        <v>2.6915307453372124E-2</v>
       </c>
       <c r="AA21" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X21)),_xll.qlSwapRateHelperSpread($X21))</f>
-        <v>1.075E-3</v>
+        <v>1.0874999999999999E-3</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X21,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X21,Trigger),"")</f>
-        <v>51693</v>
+        <v>51813</v>
       </c>
       <c r="AD21" s="71">
-        <v>0.58434608831327572</v>
+        <v>0.51629397371042662</v>
       </c>
       <c r="AE21" s="146"/>
       <c r="AF21" s="132">
@@ -38125,7 +38129,7 @@
       </c>
       <c r="AG21" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG20,"1m","mf",TRUE),Trigger)</f>
-        <v>42886</v>
+        <v>43007</v>
       </c>
       <c r="AH21" s="132" t="str">
         <f t="shared" si="10"/>
@@ -38133,7 +38137,7 @@
       </c>
       <c r="AI21" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG21,_xll.qlCalendarAdvance(Calendar,AG21,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AJ21" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH21,Trigger),_xll.qlQuoteValue(AH21,Trigger),1)</f>
@@ -38227,7 +38231,7 @@
         <v>BasSw</v>
       </c>
       <c r="X22" s="3" t="str">
-        <v>obj_0024f</v>
+        <v>obj_00245</v>
       </c>
       <c r="Y22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(X22,Trigger),"")</f>
@@ -38235,22 +38239,22 @@
       </c>
       <c r="Z22" s="65">
         <f>IFERROR(_xll.qlRateHelperRate(X22,Trigger),"")</f>
-        <v>2.225649172819193E-2</v>
+        <v>2.7052370833893433E-2</v>
       </c>
       <c r="AA22" s="96">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($X22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($X22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($X22)),_xll.qlSwapRateHelperSpread($X22))</f>
-        <v>1.075E-3</v>
+        <v>1.0874999999999999E-3</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(X22,Trigger),"")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="AC22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(X22,Trigger),"")</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="AD22" s="71">
-        <v>0.52577161824624574</v>
+        <v>0.45128946323615488</v>
       </c>
       <c r="AE22" s="146"/>
       <c r="AF22" s="132">
@@ -38258,7 +38262,7 @@
       </c>
       <c r="AG22" s="133">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AG21,"1m","mf",TRUE),Trigger)</f>
-        <v>42916</v>
+        <v>43039</v>
       </c>
       <c r="AH22" s="132" t="str">
         <f t="shared" si="10"/>
@@ -38266,7 +38270,7 @@
       </c>
       <c r="AI22" s="151">
         <f>_xll.qlDayCounterYearFraction("actual/360",AG22,_xll.qlCalendarAdvance(Calendar,AG22,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AJ22" s="134" t="e">
         <f>IF(_xll.qlQuoteIsValid(AH22,Trigger),_xll.qlQuoteValue(AH22,Trigger),1)</f>
@@ -40677,15 +40681,15 @@
       </c>
       <c r="S45" s="118" t="str">
         <f t="shared" ref="S45:S84" si="14">J49</f>
-        <v>obj_00249#0001</v>
+        <v>obj_00250#0003</v>
       </c>
       <c r="T45" s="120">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S45,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U45" s="120">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S45,Trigger),"--")</f>
-        <v>42654</v>
+        <v>42774</v>
       </c>
       <c r="W45" s="3" t="str">
         <f t="shared" si="13"/>
@@ -40780,15 +40784,15 @@
       </c>
       <c r="S46" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_0021e#0001</v>
+        <v>obj_0021e#0004</v>
       </c>
       <c r="T46" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S46,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U46" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S46,Trigger),"--")</f>
-        <v>42746</v>
+        <v>42863</v>
       </c>
       <c r="W46" s="3" t="str">
         <f t="shared" si="13"/>
@@ -40855,15 +40859,15 @@
       </c>
       <c r="S47" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_0021d#0001</v>
+        <v>obj_0021d#0004</v>
       </c>
       <c r="T47" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S47,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U47" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S47,Trigger),"--")</f>
-        <v>42836</v>
+        <v>42955</v>
       </c>
       <c r="W47" s="3" t="str">
         <f t="shared" si="13"/>
@@ -41028,7 +41032,7 @@
       </c>
       <c r="J49" s="167" t="str">
         <f>IF(P45,_xll.qlSwapRateHelper2(,H49,1,B49,Calendar,D49,E49,F49,G49,I49,C49,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00249#0001</v>
+        <v>obj_00250#0003</v>
       </c>
       <c r="L49" s="173" t="str">
         <f t="shared" si="15"/>
@@ -41131,7 +41135,7 @@
       </c>
       <c r="J50" s="167" t="str">
         <f>IF(P46,_xll.qlSwapRateHelper2(,H50,1,B50,Calendar,D50,E50,F50,G50,I50,C50,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0021e#0001</v>
+        <v>obj_0021e#0004</v>
       </c>
       <c r="L50" s="173" t="str">
         <f t="shared" si="15"/>
@@ -41234,7 +41238,7 @@
       </c>
       <c r="J51" s="167" t="str">
         <f>IF(P47,_xll.qlSwapRateHelper2(,H51,1,B51,Calendar,D51,E51,F51,G51,I51,C51,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0021d#0001</v>
+        <v>obj_0021d#0004</v>
       </c>
       <c r="L51" s="173" t="str">
         <f t="shared" si="15"/>
@@ -41572,15 +41576,15 @@
       </c>
       <c r="S54" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_00237#0001</v>
+        <v>obj_00236#0003</v>
       </c>
       <c r="T54" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S54,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U54" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S54,Trigger),"--")</f>
-        <v>44025</v>
+        <v>44144</v>
       </c>
       <c r="W54" s="3" t="str">
         <f t="shared" si="13"/>
@@ -41675,15 +41679,15 @@
       </c>
       <c r="S55" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_0024b#0001</v>
+        <v>obj_00240#0003</v>
       </c>
       <c r="T55" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S55,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U55" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S55,Trigger),"--")</f>
-        <v>44389</v>
+        <v>44508</v>
       </c>
       <c r="W55" s="3" t="str">
         <f t="shared" si="13"/>
@@ -41881,15 +41885,15 @@
       </c>
       <c r="S57" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_00251#0001</v>
+        <v>obj_0024a#0003</v>
       </c>
       <c r="T57" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S57,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U57" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S57,Trigger),"--")</f>
-        <v>45118</v>
+        <v>45238</v>
       </c>
       <c r="W57" s="3" t="str">
         <f t="shared" si="13"/>
@@ -41955,7 +41959,7 @@
       </c>
       <c r="J58" s="167" t="str">
         <f>IF(P54,_xll.qlSwapRateHelper2(,H58,1,B58,Calendar,D58,E58,F58,G58,I58,C58,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00237#0001</v>
+        <v>obj_00236#0003</v>
       </c>
       <c r="L58" s="173" t="str">
         <f t="shared" si="15"/>
@@ -42058,7 +42062,7 @@
       </c>
       <c r="J59" s="167" t="str">
         <f>IF(P55,_xll.qlSwapRateHelper2(,H59,1,B59,Calendar,D59,E59,F59,G59,I59,C59,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0024b#0001</v>
+        <v>obj_00240#0003</v>
       </c>
       <c r="L59" s="173" t="str">
         <f t="shared" si="15"/>
@@ -42190,15 +42194,15 @@
       </c>
       <c r="S60" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_0023b#0001</v>
+        <v>obj_00237#0003</v>
       </c>
       <c r="T60" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S60,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U60" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S60,Trigger),"--")</f>
-        <v>46216</v>
+        <v>46335</v>
       </c>
       <c r="W60" s="3" t="str">
         <f t="shared" si="13"/>
@@ -42264,7 +42268,7 @@
       </c>
       <c r="J61" s="167" t="str">
         <f>IF(P57,_xll.qlSwapRateHelper2(,H61,1,B61,Calendar,D61,E61,F61,G61,I61,C61,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00251#0001</v>
+        <v>obj_0024a#0003</v>
       </c>
       <c r="L61" s="173" t="str">
         <f t="shared" si="15"/>
@@ -42396,15 +42400,15 @@
       </c>
       <c r="S62" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_00238#0001</v>
+        <v>obj_00248#0003</v>
       </c>
       <c r="T62" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S62,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U62" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S62,Trigger),"--")</f>
-        <v>46945</v>
+        <v>47065</v>
       </c>
       <c r="W62" s="3" t="str">
         <f t="shared" si="13"/>
@@ -42573,7 +42577,7 @@
       </c>
       <c r="J64" s="167" t="str">
         <f>IF(P60,_xll.qlSwapRateHelper2(,H64,1,B64,Calendar,D64,E64,F64,G64,I64,C64,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0023b#0001</v>
+        <v>obj_00237#0003</v>
       </c>
       <c r="L64" s="173" t="str">
         <f t="shared" si="15"/>
@@ -42705,15 +42709,15 @@
       </c>
       <c r="S65" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_0023f#0001</v>
+        <v>obj_0024e#0003</v>
       </c>
       <c r="T65" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S65,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U65" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S65,Trigger),"--")</f>
-        <v>48040</v>
+        <v>48162</v>
       </c>
       <c r="W65" s="3" t="str">
         <f t="shared" si="13"/>
@@ -42779,7 +42783,7 @@
       </c>
       <c r="J66" s="167" t="str">
         <f>IF(P62,_xll.qlSwapRateHelper2(,H66,1,B66,Calendar,D66,E66,F66,G66,I66,C66,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00238#0001</v>
+        <v>obj_00248#0003</v>
       </c>
       <c r="L66" s="173" t="str">
         <f t="shared" si="15"/>
@@ -43088,7 +43092,7 @@
       </c>
       <c r="J69" s="167" t="str">
         <f>IF(P65,_xll.qlSwapRateHelper2(,H69,1,B69,Calendar,D69,E69,F69,G69,I69,C69,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0023f#0001</v>
+        <v>obj_0024e#0003</v>
       </c>
       <c r="L69" s="173" t="str">
         <f t="shared" si="15"/>
@@ -43220,15 +43224,15 @@
       </c>
       <c r="S70" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_0024a#0001</v>
+        <v>obj_0024b#0003</v>
       </c>
       <c r="T70" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S70,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U70" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S70,Trigger),"--")</f>
-        <v>49867</v>
+        <v>49989</v>
       </c>
       <c r="W70" s="3" t="str">
         <f t="shared" si="20"/>
@@ -43603,7 +43607,7 @@
       </c>
       <c r="J74" s="167" t="str">
         <f>IF(P70,_xll.qlSwapRateHelper2(,H74,1,B74,Calendar,D74,E74,F74,G74,I74,C74,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0024a#0001</v>
+        <v>obj_0024b#0003</v>
       </c>
       <c r="L74" s="173" t="str">
         <f t="shared" si="15"/>
@@ -43735,15 +43739,15 @@
       </c>
       <c r="S75" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_0023d#0001</v>
+        <v>obj_00242#0003</v>
       </c>
       <c r="T75" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S75,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U75" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S75,Trigger),"--")</f>
-        <v>51693</v>
+        <v>51813</v>
       </c>
       <c r="W75" s="3" t="str">
         <f t="shared" si="20"/>
@@ -44118,7 +44122,7 @@
       </c>
       <c r="J79" s="167" t="str">
         <f>IF(P75,_xll.qlSwapRateHelper2(,H79,1,B79,Calendar,D79,E79,F79,G79,I79,C79,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0023d#0001</v>
+        <v>obj_00242#0003</v>
       </c>
       <c r="L79" s="173" t="str">
         <f t="shared" si="15"/>
@@ -44250,15 +44254,15 @@
       </c>
       <c r="S80" s="88" t="str">
         <f t="shared" si="14"/>
-        <v>obj_0024f#0001</v>
+        <v>obj_00245#0003</v>
       </c>
       <c r="T80" s="92">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S80,Trigger),"--")</f>
-        <v>42562</v>
+        <v>42682</v>
       </c>
       <c r="U80" s="92">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S80,Trigger),"--")</f>
-        <v>53519</v>
+        <v>53639</v>
       </c>
       <c r="W80" s="3" t="str">
         <f t="shared" si="20"/>
@@ -44633,7 +44637,7 @@
       </c>
       <c r="J84" s="167" t="str">
         <f>IF(P80,_xll.qlSwapRateHelper2(,H84,1,B84,Calendar,D84,E84,F84,G84,I84,C84,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0024f#0001</v>
+        <v>obj_00245#0003</v>
       </c>
       <c r="L84" s="175" t="str">
         <f t="shared" si="15"/>
@@ -44741,7 +44745,7 @@
       <c r="L85" s="145"/>
       <c r="Y85" s="187" t="str">
         <f>_xll.ohGroup("AUD1M_instruments",_xll.ohPack(Y3:Y84),Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1M_instruments#0001</v>
+        <v>AUD1M_instruments#0003</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
